--- a/data/data_true.xlsx
+++ b/data/data_true.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nanda\Documents\Erwin\My Working\Code Programming\GitHub\fhas\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nanda\Documents\Erwin\My Working\Code Programming\GitHub\fhas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DAD246-2B9B-4FA4-A2E8-12FA7D13EB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277207F8-8EF1-4D4C-A469-D74562056D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="10577" tabRatio="668" firstSheet="2" activeTab="6" xr2:uid="{6C15B5C4-D9F3-404C-842A-C8791802B2E5}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="10577" tabRatio="668" firstSheet="4" activeTab="9" xr2:uid="{6C15B5C4-D9F3-404C-842A-C8791802B2E5}"/>
   </bookViews>
   <sheets>
     <sheet name="APBD" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <sheet name="Tenaga_Medis" sheetId="5" r:id="rId5"/>
     <sheet name="AHH" sheetId="6" r:id="rId6"/>
     <sheet name="PDRB" sheetId="7" r:id="rId7"/>
-    <sheet name="Anggaran_Pendidikan" sheetId="8" r:id="rId8"/>
+    <sheet name="Anggaran_Kes_Pend" sheetId="8" r:id="rId8"/>
+    <sheet name="Persentase_Kes_Pend" sheetId="9" r:id="rId9"/>
+    <sheet name="Efisiensi" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="38">
   <si>
     <t>Provinsi</t>
   </si>
@@ -173,9 +175,6 @@
     <t>Sumatera Utara</t>
   </si>
   <si>
-    <t>Kepulauan Riau</t>
-  </si>
-  <si>
     <t>Sumatra Utara</t>
   </si>
   <si>
@@ -189,10 +188,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,8 +243,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,6 +280,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor rgb="FFE9EAF1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
   </fills>
@@ -303,10 +328,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -367,13 +393,25 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{758D166B-3780-4D84-BA33-528EB3C69663}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1302,6 +1340,520 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5555B6EE-2E7C-4C3B-876C-8E46E918A835}">
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="16.69140625" customWidth="1"/>
+    <col min="2" max="2" width="13.84375" customWidth="1"/>
+    <col min="3" max="3" width="13.4609375" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31">
+        <v>2019</v>
+      </c>
+      <c r="C1" s="31">
+        <v>2020</v>
+      </c>
+      <c r="D1" s="31">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="28">
+        <v>0.23244039999999999</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0.7985698</v>
+      </c>
+      <c r="D2" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="28">
+        <v>0.60105929999999996</v>
+      </c>
+      <c r="C3" s="28">
+        <v>0.54308100000000004</v>
+      </c>
+      <c r="D3" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="28">
+        <v>0.73644319999999996</v>
+      </c>
+      <c r="C4" s="28">
+        <v>0.62549270000000001</v>
+      </c>
+      <c r="D4" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="28">
+        <v>0.50513960000000002</v>
+      </c>
+      <c r="C5" s="28">
+        <v>0.49425770000000002</v>
+      </c>
+      <c r="D5" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="28">
+        <v>1</v>
+      </c>
+      <c r="C6" s="28">
+        <v>1</v>
+      </c>
+      <c r="D6" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="28">
+        <v>0.89976029999999996</v>
+      </c>
+      <c r="C7" s="28">
+        <v>0.46406370000000002</v>
+      </c>
+      <c r="D7" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="28">
+        <v>1</v>
+      </c>
+      <c r="C8" s="28">
+        <v>1</v>
+      </c>
+      <c r="D8" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="28">
+        <v>0.53026759999999995</v>
+      </c>
+      <c r="C9" s="28">
+        <v>0.37127100000000002</v>
+      </c>
+      <c r="D9" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="28">
+        <v>1</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0.425813</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="28">
+        <v>0.53112139999999997</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0.64465300000000003</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="28">
+        <v>0.57425890000000002</v>
+      </c>
+      <c r="C12" s="28">
+        <v>0.61665879999999995</v>
+      </c>
+      <c r="D12" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="28">
+        <v>0.90167419999999998</v>
+      </c>
+      <c r="C13" s="28">
+        <v>0.87428220000000001</v>
+      </c>
+      <c r="D13" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="28">
+        <v>0.94266079999999997</v>
+      </c>
+      <c r="C14" s="28">
+        <v>0.49107000000000001</v>
+      </c>
+      <c r="D14" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="28">
+        <v>0.87206760000000005</v>
+      </c>
+      <c r="C15" s="28">
+        <v>0.4801878</v>
+      </c>
+      <c r="D15" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="28">
+        <v>0.78735319999999998</v>
+      </c>
+      <c r="C16" s="28">
+        <v>0.45772930000000001</v>
+      </c>
+      <c r="D16" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="28">
+        <v>1</v>
+      </c>
+      <c r="C17" s="28">
+        <v>1</v>
+      </c>
+      <c r="D17" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="28">
+        <v>0.95416420000000002</v>
+      </c>
+      <c r="C18" s="28">
+        <v>1</v>
+      </c>
+      <c r="D18" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="28">
+        <v>1</v>
+      </c>
+      <c r="C19" s="28">
+        <v>1</v>
+      </c>
+      <c r="D19" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="28">
+        <v>0.54147940000000006</v>
+      </c>
+      <c r="C20" s="28">
+        <v>0.60056169999999998</v>
+      </c>
+      <c r="D20" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="28">
+        <v>1</v>
+      </c>
+      <c r="C21" s="28">
+        <v>1</v>
+      </c>
+      <c r="D21" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="28">
+        <v>0.34176230000000002</v>
+      </c>
+      <c r="C22" s="28">
+        <v>1</v>
+      </c>
+      <c r="D22" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="28">
+        <v>0.59506510000000001</v>
+      </c>
+      <c r="C23" s="28">
+        <v>1</v>
+      </c>
+      <c r="D23" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="28">
+        <v>0.97697750000000005</v>
+      </c>
+      <c r="C24" s="28">
+        <v>1</v>
+      </c>
+      <c r="D24" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="28">
+        <v>0.31127589999999999</v>
+      </c>
+      <c r="C25" s="28">
+        <v>1</v>
+      </c>
+      <c r="D25" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="28">
+        <v>1</v>
+      </c>
+      <c r="C26" s="28">
+        <v>1</v>
+      </c>
+      <c r="D26" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="28">
+        <v>1</v>
+      </c>
+      <c r="C27" s="28">
+        <v>0.60881969999999996</v>
+      </c>
+      <c r="D27" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="28">
+        <v>0.63199899999999998</v>
+      </c>
+      <c r="D28" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="28">
+        <v>0.61192760000000002</v>
+      </c>
+      <c r="C29" s="28">
+        <v>0.1327132</v>
+      </c>
+      <c r="D29" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="28">
+        <v>0.58810189999999996</v>
+      </c>
+      <c r="C30" s="28">
+        <v>0.79600099999999996</v>
+      </c>
+      <c r="D30" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="28">
+        <v>1</v>
+      </c>
+      <c r="C31" s="28">
+        <v>0.79324930000000005</v>
+      </c>
+      <c r="D31" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="28">
+        <v>0.94387829999999995</v>
+      </c>
+      <c r="C32" s="28">
+        <v>0.53481999999999996</v>
+      </c>
+      <c r="D32" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="28">
+        <v>0.55139939999999998</v>
+      </c>
+      <c r="C33" s="28">
+        <v>0.51696540000000002</v>
+      </c>
+      <c r="D33" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="28">
+        <v>0.71663739999999998</v>
+      </c>
+      <c r="C34" s="28">
+        <v>1</v>
+      </c>
+      <c r="D34" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="28">
+        <v>0.57997829999999995</v>
+      </c>
+      <c r="C35" s="28">
+        <v>0.66026560000000001</v>
+      </c>
+      <c r="D35" s="28">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C35">
+    <sortCondition ref="A1:A35"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8345D2-AF29-40F8-9758-A6FA92D0A922}">
   <dimension ref="A1:E35"/>
@@ -3146,10 +3698,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0EB7A0-C79A-41EA-92D8-62146ED339BE}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3158,535 +3710,498 @@
     <col min="2" max="16384" width="9.23046875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="16">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C1" s="16">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D1" s="16">
-        <v>2020</v>
-      </c>
-      <c r="E1" s="16">
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="18">
+        <v>1528</v>
+      </c>
       <c r="C2" s="18">
-        <v>1528</v>
+        <v>1782</v>
       </c>
       <c r="D2" s="18">
-        <v>1782</v>
-      </c>
-      <c r="E2" s="18">
         <v>2543</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="18">
+        <v>2130</v>
+      </c>
       <c r="C3" s="18">
-        <v>2130</v>
+        <v>2916</v>
       </c>
       <c r="D3" s="18">
-        <v>2916</v>
-      </c>
-      <c r="E3" s="18">
         <v>738</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="18">
+        <v>2336</v>
+      </c>
       <c r="C4" s="18">
-        <v>2336</v>
+        <v>3452</v>
       </c>
       <c r="D4" s="18">
-        <v>3452</v>
-      </c>
-      <c r="E4" s="18">
         <v>4747</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="18">
+        <v>429</v>
+      </c>
       <c r="C5" s="18">
-        <v>429</v>
+        <v>513</v>
       </c>
       <c r="D5" s="18">
-        <v>513</v>
-      </c>
-      <c r="E5" s="18">
         <v>626</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="18">
+        <v>2055</v>
+      </c>
       <c r="C6" s="18">
-        <v>2055</v>
+        <v>2519</v>
       </c>
       <c r="D6" s="18">
-        <v>2519</v>
-      </c>
-      <c r="E6" s="18">
         <v>3727</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="18">
+        <v>7890</v>
+      </c>
       <c r="C7" s="18">
-        <v>7890</v>
+        <v>10799</v>
       </c>
       <c r="D7" s="18">
-        <v>10799</v>
-      </c>
-      <c r="E7" s="18">
         <v>13473</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="18">
+        <v>274</v>
+      </c>
       <c r="C8" s="18">
-        <v>274</v>
+        <v>386</v>
       </c>
       <c r="D8" s="18">
-        <v>386</v>
-      </c>
-      <c r="E8" s="18">
         <v>407</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="18">
+        <v>779</v>
+      </c>
       <c r="C9" s="18">
-        <v>779</v>
+        <v>995</v>
       </c>
       <c r="D9" s="18">
-        <v>995</v>
-      </c>
-      <c r="E9" s="18">
         <v>1117</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="18">
+        <v>6190</v>
+      </c>
       <c r="C10" s="18">
-        <v>6190</v>
+        <v>11541</v>
       </c>
       <c r="D10" s="18">
-        <v>11541</v>
-      </c>
-      <c r="E10" s="18">
         <v>14944</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="18">
+        <v>7038</v>
+      </c>
       <c r="C11" s="18">
-        <v>7038</v>
+        <v>8737</v>
       </c>
       <c r="D11" s="18">
-        <v>8737</v>
-      </c>
-      <c r="E11" s="18">
         <v>10086</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="18">
+        <v>8465</v>
+      </c>
       <c r="C12" s="18">
-        <v>8465</v>
+        <v>10103</v>
       </c>
       <c r="D12" s="18">
-        <v>10103</v>
-      </c>
-      <c r="E12" s="18">
         <v>15067</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="18">
+        <v>628</v>
+      </c>
       <c r="C13" s="18">
-        <v>628</v>
+        <v>828</v>
       </c>
       <c r="D13" s="18">
-        <v>828</v>
-      </c>
-      <c r="E13" s="18">
         <v>1164</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="18">
+        <v>890</v>
+      </c>
       <c r="C14" s="18">
-        <v>890</v>
+        <v>1167</v>
       </c>
       <c r="D14" s="18">
-        <v>1167</v>
-      </c>
-      <c r="E14" s="18">
         <v>1321</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="18">
+        <v>503</v>
+      </c>
       <c r="C15" s="18">
-        <v>503</v>
+        <v>683</v>
       </c>
       <c r="D15" s="18">
-        <v>683</v>
-      </c>
-      <c r="E15" s="18">
         <v>754</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="18">
+        <v>1013</v>
+      </c>
       <c r="C16" s="18">
-        <v>1013</v>
+        <v>1489</v>
       </c>
       <c r="D16" s="18">
-        <v>1489</v>
-      </c>
-      <c r="E16" s="18">
         <v>1832</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="18">
+        <v>266</v>
+      </c>
       <c r="C17" s="18">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="D17" s="18">
-        <v>284</v>
-      </c>
-      <c r="E17" s="18">
         <v>322</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="18"/>
+      <c r="B18" s="18">
+        <v>476</v>
+      </c>
       <c r="C18" s="18">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="D18" s="18">
-        <v>496</v>
-      </c>
-      <c r="E18" s="18">
         <v>550</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="18"/>
+      <c r="B19" s="18">
+        <v>654</v>
+      </c>
       <c r="C19" s="18">
-        <v>654</v>
+        <v>889</v>
       </c>
       <c r="D19" s="18">
-        <v>889</v>
-      </c>
-      <c r="E19" s="18">
         <v>1038</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="18"/>
+      <c r="B20" s="18">
+        <v>1310</v>
+      </c>
       <c r="C20" s="18">
-        <v>1310</v>
+        <v>1644</v>
       </c>
       <c r="D20" s="18">
-        <v>1644</v>
-      </c>
-      <c r="E20" s="18">
         <v>1843</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="18"/>
+      <c r="B21" s="18">
+        <v>237</v>
+      </c>
       <c r="C21" s="18">
-        <v>237</v>
+        <v>409</v>
       </c>
       <c r="D21" s="18">
-        <v>409</v>
-      </c>
-      <c r="E21" s="18">
         <v>641</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="18"/>
+      <c r="B22" s="18">
+        <v>222</v>
+      </c>
       <c r="C22" s="18">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="D22" s="18">
-        <v>261</v>
-      </c>
-      <c r="E22" s="18">
         <v>390</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="18"/>
+      <c r="B23" s="18">
+        <v>850</v>
+      </c>
       <c r="C23" s="18">
-        <v>850</v>
+        <v>1006</v>
       </c>
       <c r="D23" s="18">
-        <v>1006</v>
-      </c>
-      <c r="E23" s="18">
         <v>1152</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="18"/>
+      <c r="B24" s="18">
+        <v>408</v>
+      </c>
       <c r="C24" s="18">
-        <v>408</v>
+        <v>645</v>
       </c>
       <c r="D24" s="18">
-        <v>645</v>
-      </c>
-      <c r="E24" s="18">
         <v>1181</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="18"/>
+      <c r="B25" s="18">
+        <v>450</v>
+      </c>
       <c r="C25" s="18">
-        <v>450</v>
+        <v>571</v>
       </c>
       <c r="D25" s="18">
-        <v>571</v>
-      </c>
-      <c r="E25" s="18">
         <v>953</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="18"/>
+      <c r="B26" s="18">
+        <v>226</v>
+      </c>
       <c r="C26" s="18">
-        <v>226</v>
+        <v>317</v>
       </c>
       <c r="D26" s="18">
-        <v>317</v>
-      </c>
-      <c r="E26" s="18">
         <v>431</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="18"/>
+      <c r="B27" s="18">
+        <v>1367</v>
+      </c>
       <c r="C27" s="18">
-        <v>1367</v>
+        <v>1899</v>
       </c>
       <c r="D27" s="18">
-        <v>1899</v>
-      </c>
-      <c r="E27" s="18">
         <v>2568</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="18"/>
+      <c r="B28" s="18">
+        <v>207</v>
+      </c>
       <c r="C28" s="18">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="D28" s="18">
         <v>238</v>
       </c>
-      <c r="E28" s="18">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="18"/>
+      <c r="B29" s="18">
+        <v>1996</v>
+      </c>
       <c r="C29" s="18">
-        <v>1996</v>
+        <v>2702</v>
       </c>
       <c r="D29" s="18">
-        <v>2702</v>
-      </c>
-      <c r="E29" s="18">
         <v>893</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="18"/>
+      <c r="B30" s="18">
+        <v>518</v>
+      </c>
       <c r="C30" s="18">
-        <v>518</v>
+        <v>706</v>
       </c>
       <c r="D30" s="18">
-        <v>706</v>
-      </c>
-      <c r="E30" s="18">
         <v>873</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="18"/>
+      <c r="B31" s="18">
+        <v>485</v>
+      </c>
       <c r="C31" s="18">
-        <v>485</v>
+        <v>569</v>
       </c>
       <c r="D31" s="18">
-        <v>569</v>
-      </c>
-      <c r="E31" s="18">
         <v>722</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="18"/>
+      <c r="B32" s="18">
+        <v>918</v>
+      </c>
       <c r="C32" s="18">
-        <v>918</v>
+        <v>1545</v>
       </c>
       <c r="D32" s="18">
-        <v>1545</v>
-      </c>
-      <c r="E32" s="18">
         <v>1987</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="18"/>
+      <c r="B33" s="18">
+        <v>1547</v>
+      </c>
       <c r="C33" s="18">
-        <v>1547</v>
+        <v>2032</v>
       </c>
       <c r="D33" s="18">
-        <v>2032</v>
-      </c>
-      <c r="E33" s="18">
         <v>2502</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="18"/>
+      <c r="B34" s="18">
+        <v>1450</v>
+      </c>
       <c r="C34" s="18">
-        <v>1450</v>
+        <v>1975</v>
       </c>
       <c r="D34" s="18">
-        <v>1975</v>
-      </c>
-      <c r="E34" s="18">
         <v>2854</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="18"/>
+      <c r="B35" s="18">
+        <v>3095</v>
+      </c>
       <c r="C35" s="18">
-        <v>3095</v>
+        <v>4093</v>
       </c>
       <c r="D35" s="18">
-        <v>4093</v>
-      </c>
-      <c r="E35" s="18">
         <v>6294</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E35">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D35">
     <sortCondition ref="A2:A35"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3696,10 +4211,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22C80E4-BCEF-4BAD-9E4C-242B7EAABBF8}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3707,535 +4222,498 @@
     <col min="1" max="1" width="20.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="16">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C1" s="16">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D1" s="16">
-        <v>2020</v>
-      </c>
-      <c r="E1" s="16">
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27">
+      <c r="B2" s="26">
         <v>69.915000000000006</v>
       </c>
-      <c r="D2" s="27">
+      <c r="C2" s="26">
         <v>69.974999999999994</v>
       </c>
-      <c r="E2" s="27">
+      <c r="D2" s="26">
         <v>70.004999999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27">
+      <c r="B3" s="26">
         <v>72</v>
       </c>
-      <c r="D3" s="27">
+      <c r="C3" s="26">
         <v>72.155000000000001</v>
       </c>
-      <c r="E3" s="27">
+      <c r="D3" s="26">
         <v>72.28</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="27">
+      <c r="B4" s="26">
         <v>69.89</v>
       </c>
-      <c r="D4" s="27">
+      <c r="C4" s="26">
         <v>70.004999999999995</v>
       </c>
-      <c r="E4" s="27">
+      <c r="D4" s="26">
         <v>70.069999999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="27">
+      <c r="B5" s="26">
         <v>69.204999999999998</v>
       </c>
-      <c r="D5" s="27">
+      <c r="C5" s="26">
         <v>69.37</v>
       </c>
-      <c r="E5" s="27">
+      <c r="D5" s="26">
         <v>69.47</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27">
+      <c r="B6" s="26">
         <v>74.944999999999993</v>
       </c>
-      <c r="D6" s="27">
+      <c r="C6" s="26">
         <v>75.025000000000006</v>
       </c>
-      <c r="E6" s="27">
+      <c r="D6" s="26">
         <v>75.08</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27">
+      <c r="B7" s="26">
         <v>72.819999999999993</v>
       </c>
-      <c r="D7" s="27">
+      <c r="C7" s="26">
         <v>72.95</v>
       </c>
-      <c r="E7" s="27">
+      <c r="D7" s="26">
         <v>73.06</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27">
+      <c r="B8" s="26">
         <v>67.974999999999994</v>
       </c>
-      <c r="D8" s="27">
+      <c r="C8" s="26">
         <v>68.114999999999995</v>
       </c>
-      <c r="E8" s="27">
+      <c r="D8" s="26">
         <v>68.239999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27">
+      <c r="B9" s="26">
         <v>71.040000000000006</v>
       </c>
-      <c r="D9" s="27">
+      <c r="C9" s="26">
         <v>71.17</v>
       </c>
-      <c r="E9" s="27">
+      <c r="D9" s="26">
         <v>71.260000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27">
+      <c r="B10" s="26">
         <v>72.92</v>
       </c>
-      <c r="D10" s="27">
+      <c r="C10" s="26">
         <v>73.150000000000006</v>
       </c>
-      <c r="E10" s="27">
+      <c r="D10" s="26">
         <v>73.38</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27">
+      <c r="B11" s="26">
         <v>74.245000000000005</v>
       </c>
-      <c r="D11" s="27">
+      <c r="C11" s="26">
         <v>74.405000000000001</v>
       </c>
-      <c r="E11" s="27">
+      <c r="D11" s="26">
         <v>74.515000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27">
+      <c r="B12" s="26">
         <v>71.224999999999994</v>
       </c>
-      <c r="D12" s="27">
+      <c r="C12" s="26">
         <v>71.344999999999999</v>
       </c>
-      <c r="E12" s="27">
+      <c r="D12" s="26">
         <v>71.430000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27">
+      <c r="B13" s="26">
         <v>70.61</v>
       </c>
-      <c r="D13" s="27">
+      <c r="C13" s="26">
         <v>70.734999999999999</v>
       </c>
-      <c r="E13" s="27">
+      <c r="D13" s="26">
         <v>70.805000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27">
+      <c r="B14" s="26">
         <v>68.5</v>
       </c>
-      <c r="D14" s="27">
+      <c r="C14" s="26">
         <v>68.69</v>
       </c>
-      <c r="E14" s="27">
+      <c r="D14" s="26">
         <v>68.88</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27">
+      <c r="B15" s="26">
         <v>69.694999999999993</v>
       </c>
-      <c r="D15" s="27">
+      <c r="C15" s="26">
         <v>69.75</v>
       </c>
-      <c r="E15" s="27">
+      <c r="D15" s="26">
         <v>69.805000000000007</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27">
+      <c r="B16" s="26">
         <v>74.27</v>
       </c>
-      <c r="D16" s="27">
+      <c r="C16" s="26">
         <v>74.375</v>
       </c>
-      <c r="E16" s="27">
+      <c r="D16" s="26">
         <v>74.650000000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27">
+      <c r="B17" s="26">
         <v>72.484999999999999</v>
       </c>
-      <c r="D17" s="27">
+      <c r="C17" s="26">
         <v>72.534999999999997</v>
       </c>
-      <c r="E17" s="27">
+      <c r="D17" s="26">
         <v>72.584999999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27">
+      <c r="B18" s="26">
         <v>70.545000000000002</v>
       </c>
-      <c r="D18" s="27">
+      <c r="C18" s="26">
         <v>70.680000000000007</v>
       </c>
-      <c r="E18" s="27">
+      <c r="D18" s="26">
         <v>70.78</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27">
+        <v>18</v>
+      </c>
+      <c r="B19" s="26">
         <v>69.825000000000003</v>
       </c>
-      <c r="D19" s="27">
+      <c r="C19" s="26">
         <v>69.989999999999995</v>
       </c>
-      <c r="E19" s="27">
+      <c r="D19" s="26">
         <v>70.155000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27">
+      <c r="B20" s="26">
         <v>70.56</v>
       </c>
-      <c r="D20" s="27">
+      <c r="C20" s="26">
         <v>70.694999999999993</v>
       </c>
-      <c r="E20" s="27">
+      <c r="D20" s="26">
         <v>70.775000000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27">
+      <c r="B21" s="26">
         <v>65.87</v>
       </c>
-      <c r="D21" s="27">
+      <c r="C21" s="26">
         <v>66.025000000000006</v>
       </c>
-      <c r="E21" s="27">
+      <c r="D21" s="26">
         <v>66.14</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27">
+      <c r="B22" s="26">
         <v>68.209999999999994</v>
       </c>
-      <c r="D22" s="27">
+      <c r="C22" s="26">
         <v>68.375</v>
       </c>
-      <c r="E22" s="27">
+      <c r="D22" s="26">
         <v>68.495000000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="27">
+      <c r="B23" s="26">
         <v>66.239999999999995</v>
       </c>
-      <c r="D23" s="27">
+      <c r="C23" s="26">
         <v>66.510000000000005</v>
       </c>
-      <c r="E23" s="27">
+      <c r="D23" s="26">
         <v>66.734999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27">
+      <c r="B24" s="26">
         <v>66.894999999999996</v>
       </c>
-      <c r="D24" s="27">
+      <c r="C24" s="26">
         <v>67.055000000000007</v>
       </c>
-      <c r="E24" s="27">
+      <c r="D24" s="26">
         <v>67.194999999999993</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27">
+      <c r="B25" s="26">
         <v>65.69</v>
       </c>
-      <c r="D25" s="27">
+      <c r="C25" s="26">
         <v>65.834999999999994</v>
       </c>
-      <c r="E25" s="27">
+      <c r="D25" s="26">
         <v>65.97</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27">
+      <c r="B26" s="26">
         <v>65.894999999999996</v>
       </c>
-      <c r="D26" s="27">
+      <c r="C26" s="26">
         <v>66.05</v>
       </c>
-      <c r="E26" s="27">
+      <c r="D26" s="26">
         <v>66.19</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="27">
+      <c r="B27" s="26">
         <v>71.525000000000006</v>
       </c>
-      <c r="D27" s="27">
+      <c r="C27" s="26">
         <v>71.650000000000006</v>
       </c>
-      <c r="E27" s="27">
+      <c r="D27" s="26">
         <v>71.72</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="27">
+      <c r="B28" s="26">
         <v>64.87</v>
       </c>
-      <c r="D28" s="27">
+      <c r="C28" s="26">
         <v>65.11</v>
       </c>
-      <c r="E28" s="27">
+      <c r="D28" s="26">
         <v>65.290000000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="27">
+      <c r="B29" s="26">
         <v>70.48</v>
       </c>
-      <c r="D29" s="27">
+      <c r="C29" s="26">
         <v>70.62</v>
       </c>
-      <c r="E29" s="27">
+      <c r="D29" s="26">
         <v>70.709999999999994</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="27">
+      <c r="B30" s="26">
         <v>68.290000000000006</v>
       </c>
-      <c r="D30" s="27">
+      <c r="C30" s="26">
         <v>68.745000000000005</v>
       </c>
-      <c r="E30" s="27">
+      <c r="D30" s="26">
         <v>68.88</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="27">
+      <c r="B31" s="26">
         <v>71.16</v>
       </c>
-      <c r="D31" s="27">
+      <c r="C31" s="26">
         <v>71.34</v>
       </c>
-      <c r="E31" s="27">
+      <c r="D31" s="26">
         <v>71.36</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="27">
+      <c r="B32" s="26">
         <v>71.63</v>
       </c>
-      <c r="D32" s="27">
+      <c r="C32" s="26">
         <v>71.745000000000005</v>
       </c>
-      <c r="E32" s="27">
+      <c r="D32" s="26">
         <v>71.805000000000007</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="27">
+      <c r="B33" s="26">
         <v>69.355000000000004</v>
       </c>
-      <c r="D33" s="27">
+      <c r="C33" s="26">
         <v>69.52</v>
       </c>
-      <c r="E33" s="27">
+      <c r="D33" s="26">
         <v>69.635000000000005</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="27">
+      <c r="B34" s="26">
         <v>69.704999999999998</v>
       </c>
-      <c r="D34" s="27">
+      <c r="C34" s="26">
         <v>69.930000000000007</v>
       </c>
-      <c r="E34" s="27">
+      <c r="D34" s="26">
         <v>70.03</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="27">
+      <c r="B35" s="26">
         <v>68.995000000000005</v>
       </c>
-      <c r="D35" s="27">
+      <c r="C35" s="26">
         <v>69.150000000000006</v>
       </c>
-      <c r="E35" s="27">
+      <c r="D35" s="26">
         <v>69.28</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E35">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D35">
     <sortCondition ref="A2:A35"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4247,8 +4725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E326179C-5873-450E-8F0C-6E7C55BEEE0E}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4262,706 +4740,709 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15">
+      <c r="B1" s="16">
         <v>2017</v>
       </c>
-      <c r="C1" s="15">
+      <c r="C1" s="16">
         <v>2018</v>
       </c>
-      <c r="D1" s="15">
+      <c r="D1" s="16">
         <v>2019</v>
       </c>
-      <c r="E1" s="15">
+      <c r="E1" s="16">
         <v>2020</v>
       </c>
-      <c r="F1" s="15">
+      <c r="F1" s="16">
         <v>2021</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="29">
         <v>155910977000000</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="29">
         <v>164162978200000</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="29">
         <v>166372320700000</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="29">
         <v>184976301600000</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="29">
         <v>487826762000000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="29">
+        <v>233636772700000</v>
+      </c>
+      <c r="C3" s="29">
+        <v>251934097800000</v>
+      </c>
+      <c r="D3" s="29">
+        <v>223900894600000</v>
+      </c>
+      <c r="E3" s="29">
+        <v>219800030500000</v>
+      </c>
+      <c r="F3" s="29">
+        <v>735885780000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="29">
+        <v>613804414400000</v>
+      </c>
+      <c r="C4" s="29">
+        <v>661321340800000</v>
+      </c>
+      <c r="D4" s="29">
+        <v>625979345100000</v>
+      </c>
+      <c r="E4" s="29">
+        <v>665921915500000</v>
+      </c>
+      <c r="F4" s="29">
+        <v>2281636409000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="29">
+        <v>66402993050000</v>
+      </c>
+      <c r="C5" s="29">
+        <v>72098240450000</v>
+      </c>
+      <c r="D5" s="29">
+        <v>73305267040000</v>
+      </c>
+      <c r="E5" s="29">
+        <v>79576326260000</v>
+      </c>
+      <c r="F5" s="29">
+        <v>298225841000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="29">
+        <v>129818357900000</v>
+      </c>
+      <c r="C6" s="29">
+        <v>141047688000000</v>
+      </c>
+      <c r="D6" s="29">
+        <v>138306833300000.02</v>
+      </c>
+      <c r="E6" s="29">
+        <v>149369169100000</v>
+      </c>
+      <c r="F6" s="29">
+        <v>891936631000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="29">
+        <v>2592606572000000</v>
+      </c>
+      <c r="C7" s="29">
+        <v>2815636157000000</v>
+      </c>
+      <c r="D7" s="29">
+        <v>2768189733000000</v>
+      </c>
+      <c r="E7" s="29">
+        <v>2914581083000000</v>
+      </c>
+      <c r="F7" s="29">
+        <v>6786069438000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="29">
+        <v>37731386370000</v>
+      </c>
+      <c r="C8" s="29">
+        <v>41145449910000</v>
+      </c>
+      <c r="D8" s="29">
+        <v>41729772040000</v>
+      </c>
+      <c r="E8" s="29">
+        <v>43896365580000</v>
+      </c>
+      <c r="F8" s="29">
+        <v>170567309000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="29">
+        <v>207878694300000</v>
+      </c>
+      <c r="C9" s="29">
+        <v>216927708200000</v>
+      </c>
+      <c r="D9" s="29">
+        <v>206242611000000</v>
+      </c>
+      <c r="E9" s="29">
+        <v>233725458600000</v>
+      </c>
+      <c r="F9" s="29">
+        <v>995507958000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="29">
+        <v>1960627652000000</v>
+      </c>
+      <c r="C10" s="29">
+        <v>2123153711000000</v>
+      </c>
+      <c r="D10" s="29">
+        <v>2084620246000000</v>
+      </c>
+      <c r="E10" s="29">
+        <v>2209822384000000</v>
+      </c>
+      <c r="F10" s="29">
+        <v>6485781610000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="29">
+        <v>1268261166000000</v>
+      </c>
+      <c r="C11" s="29">
+        <v>1360960131000000</v>
+      </c>
+      <c r="D11" s="29">
+        <v>1347922689000000</v>
+      </c>
+      <c r="E11" s="29">
+        <v>1420799908000000</v>
+      </c>
+      <c r="F11" s="29">
+        <v>5646290705000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="29">
+        <v>2188766345000000</v>
+      </c>
+      <c r="C12" s="29">
+        <v>2345548552000000</v>
+      </c>
+      <c r="D12" s="29">
+        <v>2299791052000000</v>
+      </c>
+      <c r="E12" s="29">
+        <v>2454498796000000</v>
+      </c>
+      <c r="F12" s="29">
+        <v>8889510587000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="29">
+        <v>194138220800000</v>
+      </c>
+      <c r="C13" s="29">
+        <v>212150332200000</v>
+      </c>
+      <c r="D13" s="29">
+        <v>214001753700000</v>
+      </c>
+      <c r="E13" s="29">
+        <v>231321163300000</v>
+      </c>
+      <c r="F13" s="29">
+        <v>451572532000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="29">
+        <v>171684055900000</v>
+      </c>
+      <c r="C14" s="29">
+        <v>180557639200000</v>
+      </c>
+      <c r="D14" s="29">
+        <v>179094106600000</v>
+      </c>
+      <c r="E14" s="29">
+        <v>192576581200000</v>
+      </c>
+      <c r="F14" s="29">
+        <v>455702656000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="29">
+        <v>138616134699999.98</v>
+      </c>
+      <c r="C15" s="29">
+        <v>150046095600000</v>
+      </c>
+      <c r="D15" s="29">
+        <v>152187394300000</v>
+      </c>
+      <c r="E15" s="29">
+        <v>170001210900000</v>
+      </c>
+      <c r="F15" s="29">
+        <v>260448084000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="29">
+        <v>635498679800000</v>
+      </c>
+      <c r="C16" s="29">
+        <v>652480257400000</v>
+      </c>
+      <c r="D16" s="29">
+        <v>607586183100000</v>
+      </c>
+      <c r="E16" s="29">
+        <v>695158330300000</v>
+      </c>
+      <c r="F16" s="29">
+        <v>833090052000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="29">
+        <v>85548942680000</v>
+      </c>
+      <c r="C17" s="29">
+        <v>96509929570000</v>
+      </c>
+      <c r="D17" s="29">
+        <v>100509859600000</v>
+      </c>
+      <c r="E17" s="29">
+        <v>110668941600000</v>
+      </c>
+      <c r="F17" s="29">
+        <v>82000132000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="29">
+        <v>73113281660000</v>
+      </c>
+      <c r="C18" s="29">
+        <v>75794959500000</v>
+      </c>
+      <c r="D18" s="29">
+        <v>75495257200000</v>
+      </c>
+      <c r="E18" s="29">
+        <v>85942704030000</v>
+      </c>
+      <c r="F18" s="29">
+        <v>205642572000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="29">
+        <v>248822233100000</v>
+      </c>
+      <c r="C19" s="29">
+        <v>267631477900000</v>
+      </c>
+      <c r="D19" s="29">
+        <v>254227859800000</v>
+      </c>
+      <c r="E19" s="29">
+        <v>275636327700000</v>
+      </c>
+      <c r="F19" s="29">
+        <v>922739131000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="29">
+        <v>332446070700000</v>
+      </c>
+      <c r="C20" s="29">
+        <v>356676828400000</v>
+      </c>
+      <c r="D20" s="29">
+        <v>353530038800000</v>
+      </c>
+      <c r="E20" s="29">
+        <v>371903171900000</v>
+      </c>
+      <c r="F20" s="29">
+        <v>1307624346000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="29">
+        <v>43047090660000</v>
+      </c>
+      <c r="C21" s="29">
+        <v>46152817520000</v>
+      </c>
+      <c r="D21" s="29">
+        <v>46262452530000</v>
+      </c>
+      <c r="E21" s="29">
+        <v>48564217180000</v>
+      </c>
+      <c r="F21" s="29">
+        <v>286004811000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="29">
+        <v>36468794700000</v>
+      </c>
+      <c r="C22" s="29">
+        <v>39695490690000</v>
+      </c>
+      <c r="D22" s="29">
+        <v>42319470430000</v>
+      </c>
+      <c r="E22" s="29">
+        <v>52359851790000</v>
+      </c>
+      <c r="F22" s="29">
+        <v>135296458000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="29">
+        <v>123868015400000</v>
+      </c>
+      <c r="C23" s="29">
+        <v>132500099800000</v>
+      </c>
+      <c r="D23" s="29">
+        <v>133613744200000</v>
+      </c>
+      <c r="E23" s="29">
+        <v>140153319100000</v>
+      </c>
+      <c r="F23" s="29">
+        <v>715486138000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="29">
+        <v>98930187650000</v>
+      </c>
+      <c r="C24" s="29">
+        <v>106731763300000</v>
+      </c>
+      <c r="D24" s="29">
+        <v>106480968000000</v>
+      </c>
+      <c r="E24" s="29">
+        <v>110885751000000</v>
+      </c>
+      <c r="F24" s="29">
+        <v>483456507000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="29">
+        <v>210600573200000</v>
+      </c>
+      <c r="C25" s="29">
+        <v>189510696100000</v>
+      </c>
+      <c r="D25" s="29">
+        <v>199232884400000</v>
+      </c>
+      <c r="E25" s="29">
+        <v>235343249900000</v>
+      </c>
+      <c r="F25" s="29">
+        <v>337921367000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="29">
+        <v>79644584970000</v>
+      </c>
+      <c r="C26" s="29">
+        <v>84356967990000</v>
+      </c>
+      <c r="D26" s="29">
+        <v>83588641760000</v>
+      </c>
+      <c r="E26" s="29">
+        <v>85072858480000</v>
+      </c>
+      <c r="F26" s="29">
+        <v>112884324000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="29">
+        <v>752263066300000</v>
+      </c>
+      <c r="C27" s="29">
+        <v>760247508900000</v>
+      </c>
+      <c r="D27" s="29">
+        <v>728649985300000</v>
+      </c>
+      <c r="E27" s="29">
+        <v>843211153000000</v>
+      </c>
+      <c r="F27" s="29">
+        <v>1379432280000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="29">
+        <v>43457831660000</v>
+      </c>
+      <c r="C28" s="29">
+        <v>46365789570000</v>
+      </c>
+      <c r="D28" s="29">
+        <v>46427581980000</v>
+      </c>
+      <c r="E28" s="29">
+        <v>50341228800000</v>
+      </c>
+      <c r="F28" s="29">
+        <v>120229283000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="29">
+        <v>461774735800000</v>
+      </c>
+      <c r="C29" s="29">
+        <v>504320725100000</v>
+      </c>
+      <c r="D29" s="29">
+        <v>504059368400000</v>
+      </c>
+      <c r="E29" s="29">
+        <v>545230029100000</v>
+      </c>
+      <c r="F29" s="29">
+        <v>228288478500000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="29">
+        <v>167135768800000</v>
+      </c>
+      <c r="C30" s="29">
+        <v>185740087200000</v>
+      </c>
+      <c r="D30" s="29">
+        <v>197440782700000</v>
+      </c>
+      <c r="E30" s="29">
+        <v>246987356700000</v>
+      </c>
+      <c r="F30" s="29">
+        <v>539811733000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="29">
+        <v>118066606700000</v>
+      </c>
+      <c r="C31" s="29">
+        <v>129225147500000</v>
+      </c>
+      <c r="D31" s="29">
+        <v>130178026100000</v>
+      </c>
+      <c r="E31" s="29">
+        <v>139057828199999.98</v>
+      </c>
+      <c r="F31" s="29">
+        <v>448051651000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="29">
+        <v>119512684000000</v>
+      </c>
+      <c r="C32" s="29">
+        <v>130126510000000</v>
+      </c>
+      <c r="D32" s="29">
+        <v>132230056900000</v>
+      </c>
+      <c r="E32" s="29">
+        <v>142600019600000</v>
+      </c>
+      <c r="F32" s="29">
+        <v>382056688000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B33" s="29">
+        <v>230367222000000</v>
+      </c>
+      <c r="C33" s="29">
+        <v>245949737200000</v>
+      </c>
+      <c r="D33" s="29">
+        <v>241993529100000</v>
+      </c>
+      <c r="E33" s="29">
+        <v>252749645400000</v>
+      </c>
+      <c r="F33" s="29">
+        <v>965228295000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="29">
+        <v>419392156700000</v>
+      </c>
+      <c r="C34" s="29">
+        <v>453402714100000</v>
+      </c>
+      <c r="D34" s="29">
+        <v>456647864400000</v>
+      </c>
+      <c r="E34" s="29">
+        <v>491566450400000</v>
+      </c>
+      <c r="F34" s="29">
+        <v>1846927407000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="29">
         <v>741347427600000</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C35" s="29">
         <v>799608954200000</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D35" s="29">
         <v>811188308800000</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E35" s="29">
         <v>859870945400000</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F35" s="29">
         <v>2619089507000000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="21">
-        <v>230367222000000</v>
-      </c>
-      <c r="C4" s="21">
-        <v>245949737200000</v>
-      </c>
-      <c r="D4" s="21">
-        <v>241993529100000</v>
-      </c>
-      <c r="E4" s="21">
-        <v>252749645400000</v>
-      </c>
-      <c r="F4" s="21">
-        <v>965228295000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="21">
-        <v>752263066300000</v>
-      </c>
-      <c r="C5" s="21">
-        <v>760247508900000</v>
-      </c>
-      <c r="D5" s="21">
-        <v>728649985300000</v>
-      </c>
-      <c r="E5" s="21">
-        <v>843211153000000</v>
-      </c>
-      <c r="F5" s="21">
-        <v>1379432280000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="21">
-        <v>207878694300000</v>
-      </c>
-      <c r="C6" s="21">
-        <v>216927708200000</v>
-      </c>
-      <c r="D6" s="21">
-        <v>206242611000000</v>
-      </c>
-      <c r="E6" s="21">
-        <v>233725458600000</v>
-      </c>
-      <c r="F6" s="21">
-        <v>995507958000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="21">
-        <v>419392156700000</v>
-      </c>
-      <c r="C7" s="21">
-        <v>453402714100000</v>
-      </c>
-      <c r="D7" s="21">
-        <v>456647864400000</v>
-      </c>
-      <c r="E7" s="21">
-        <v>491566450400000</v>
-      </c>
-      <c r="F7" s="21">
-        <v>1846927407000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="21">
-        <v>66402993050000</v>
-      </c>
-      <c r="C8" s="21">
-        <v>72098240450000</v>
-      </c>
-      <c r="D8" s="21">
-        <v>73305267040000</v>
-      </c>
-      <c r="E8" s="21">
-        <v>79576326260000</v>
-      </c>
-      <c r="F8" s="21">
-        <v>298225841000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="21">
-        <v>332446070700000</v>
-      </c>
-      <c r="C9" s="21">
-        <v>356676828400000</v>
-      </c>
-      <c r="D9" s="21">
-        <v>353530038800000</v>
-      </c>
-      <c r="E9" s="21">
-        <v>371903171900000</v>
-      </c>
-      <c r="F9" s="21">
-        <v>1307624346000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="21">
-        <v>73113281660000</v>
-      </c>
-      <c r="C10" s="21">
-        <v>75794959500000</v>
-      </c>
-      <c r="D10" s="21">
-        <v>75495257200000</v>
-      </c>
-      <c r="E10" s="21">
-        <v>85942704030000</v>
-      </c>
-      <c r="F10" s="21">
-        <v>205642572000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="21">
-        <v>248822233100000</v>
-      </c>
-      <c r="C11" s="21">
-        <v>267631477900000</v>
-      </c>
-      <c r="D11" s="21">
-        <v>254227859800000</v>
-      </c>
-      <c r="E11" s="21">
-        <v>275636327700000</v>
-      </c>
-      <c r="F11" s="21">
-        <v>922739131000000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="21">
-        <v>2592606572000000</v>
-      </c>
-      <c r="C12" s="21">
-        <v>2815636157000000</v>
-      </c>
-      <c r="D12" s="21">
-        <v>2768189733000000</v>
-      </c>
-      <c r="E12" s="21">
-        <v>2914581083000000</v>
-      </c>
-      <c r="F12" s="21">
-        <v>6786069438000000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="21">
-        <v>1960627652000000</v>
-      </c>
-      <c r="C13" s="21">
-        <v>2123153711000000</v>
-      </c>
-      <c r="D13" s="21">
-        <v>2084620246000000</v>
-      </c>
-      <c r="E13" s="21">
-        <v>2209822384000000</v>
-      </c>
-      <c r="F13" s="21">
-        <v>6485781610000000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="21">
-        <v>1268261166000000</v>
-      </c>
-      <c r="C14" s="21">
-        <v>1360960131000000</v>
-      </c>
-      <c r="D14" s="21">
-        <v>1347922689000000</v>
-      </c>
-      <c r="E14" s="21">
-        <v>1420799908000000</v>
-      </c>
-      <c r="F14" s="21">
-        <v>5646290705000000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="21">
-        <v>129818357900000</v>
-      </c>
-      <c r="C15" s="21">
-        <v>141047688000000</v>
-      </c>
-      <c r="D15" s="21">
-        <v>138306833300000.02</v>
-      </c>
-      <c r="E15" s="21">
-        <v>149369169100000</v>
-      </c>
-      <c r="F15" s="21">
-        <v>891936631000000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="21">
-        <v>2188766345000000</v>
-      </c>
-      <c r="C16" s="21">
-        <v>2345548552000000</v>
-      </c>
-      <c r="D16" s="21">
-        <v>2299791052000000</v>
-      </c>
-      <c r="E16" s="21">
-        <v>2454498796000000</v>
-      </c>
-      <c r="F16" s="21">
-        <v>8889510587000000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="21">
-        <v>613804414400000</v>
-      </c>
-      <c r="C17" s="21">
-        <v>661321340800000</v>
-      </c>
-      <c r="D17" s="21">
-        <v>625979345100000</v>
-      </c>
-      <c r="E17" s="21">
-        <v>665921915500000</v>
-      </c>
-      <c r="F17" s="21">
-        <v>2281636409000000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="21">
-        <v>233636772700000</v>
-      </c>
-      <c r="C18" s="21">
-        <v>251934097800000</v>
-      </c>
-      <c r="D18" s="21">
-        <v>223900894600000</v>
-      </c>
-      <c r="E18" s="21">
-        <v>219800030500000</v>
-      </c>
-      <c r="F18" s="21">
-        <v>735885780000000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="21">
-        <v>123868015400000</v>
-      </c>
-      <c r="C19" s="21">
-        <v>132500099800000</v>
-      </c>
-      <c r="D19" s="21">
-        <v>133613744200000</v>
-      </c>
-      <c r="E19" s="21">
-        <v>140153319100000</v>
-      </c>
-      <c r="F19" s="21">
-        <v>715486138000000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="21">
-        <v>98930187650000</v>
-      </c>
-      <c r="C20" s="21">
-        <v>106731763300000</v>
-      </c>
-      <c r="D20" s="21">
-        <v>106480968000000</v>
-      </c>
-      <c r="E20" s="21">
-        <v>110885751000000</v>
-      </c>
-      <c r="F20" s="21">
-        <v>483456507000000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="21">
-        <v>194138220800000</v>
-      </c>
-      <c r="C21" s="21">
-        <v>212150332200000</v>
-      </c>
-      <c r="D21" s="21">
-        <v>214001753700000</v>
-      </c>
-      <c r="E21" s="21">
-        <v>231321163300000</v>
-      </c>
-      <c r="F21" s="21">
-        <v>451572532000000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="21">
-        <v>138616134699999.98</v>
-      </c>
-      <c r="C22" s="21">
-        <v>150046095600000</v>
-      </c>
-      <c r="D22" s="21">
-        <v>152187394300000</v>
-      </c>
-      <c r="E22" s="21">
-        <v>170001210900000</v>
-      </c>
-      <c r="F22" s="21">
-        <v>260448084000000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="21">
-        <v>171684055900000</v>
-      </c>
-      <c r="C23" s="21">
-        <v>180557639200000</v>
-      </c>
-      <c r="D23" s="21">
-        <v>179094106600000</v>
-      </c>
-      <c r="E23" s="21">
-        <v>192576581200000</v>
-      </c>
-      <c r="F23" s="21">
-        <v>455702656000000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="21">
-        <v>635498679800000</v>
-      </c>
-      <c r="C24" s="21">
-        <v>652480257400000</v>
-      </c>
-      <c r="D24" s="21">
-        <v>607586183100000</v>
-      </c>
-      <c r="E24" s="21">
-        <v>695158330300000</v>
-      </c>
-      <c r="F24" s="21">
-        <v>833090052000000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="21">
-        <v>85548942680000</v>
-      </c>
-      <c r="C25" s="21">
-        <v>96509929570000</v>
-      </c>
-      <c r="D25" s="21">
-        <v>100509859600000</v>
-      </c>
-      <c r="E25" s="21">
-        <v>110668941600000</v>
-      </c>
-      <c r="F25" s="21">
-        <v>82000132000000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="21">
-        <v>119512684000000</v>
-      </c>
-      <c r="C26" s="21">
-        <v>130126510000000</v>
-      </c>
-      <c r="D26" s="21">
-        <v>132230056900000</v>
-      </c>
-      <c r="E26" s="21">
-        <v>142600019600000</v>
-      </c>
-      <c r="F26" s="21">
-        <v>382056688000000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="21">
-        <v>167135768800000</v>
-      </c>
-      <c r="C27" s="21">
-        <v>185740087200000</v>
-      </c>
-      <c r="D27" s="21">
-        <v>197440782700000</v>
-      </c>
-      <c r="E27" s="21">
-        <v>246987356700000</v>
-      </c>
-      <c r="F27" s="21">
-        <v>539811733000000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="21">
-        <v>461774735800000</v>
-      </c>
-      <c r="C28" s="21">
-        <v>504320725100000</v>
-      </c>
-      <c r="D28" s="21">
-        <v>504059368400000</v>
-      </c>
-      <c r="E28" s="21">
-        <v>545230029100000</v>
-      </c>
-      <c r="F28" s="21">
-        <v>228288478500000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="21">
-        <v>118066606700000</v>
-      </c>
-      <c r="C29" s="21">
-        <v>129225147500000</v>
-      </c>
-      <c r="D29" s="21">
-        <v>130178026100000</v>
-      </c>
-      <c r="E29" s="21">
-        <v>139057828199999.98</v>
-      </c>
-      <c r="F29" s="21">
-        <v>448051651000000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="21">
-        <v>37731386370000</v>
-      </c>
-      <c r="C30" s="21">
-        <v>41145449910000</v>
-      </c>
-      <c r="D30" s="21">
-        <v>41729772040000</v>
-      </c>
-      <c r="E30" s="21">
-        <v>43896365580000</v>
-      </c>
-      <c r="F30" s="21">
-        <v>170567309000000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="21">
-        <v>43457831660000</v>
-      </c>
-      <c r="C31" s="21">
-        <v>46365789570000</v>
-      </c>
-      <c r="D31" s="21">
-        <v>46427581980000</v>
-      </c>
-      <c r="E31" s="21">
-        <v>50341228800000</v>
-      </c>
-      <c r="F31" s="21">
-        <v>120229283000000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="21">
-        <v>43047090660000</v>
-      </c>
-      <c r="C32" s="21">
-        <v>46152817520000</v>
-      </c>
-      <c r="D32" s="21">
-        <v>46262452530000</v>
-      </c>
-      <c r="E32" s="21">
-        <v>48564217180000</v>
-      </c>
-      <c r="F32" s="21">
-        <v>286004811000000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="21">
-        <v>36468794700000</v>
-      </c>
-      <c r="C33" s="21">
-        <v>39695490690000</v>
-      </c>
-      <c r="D33" s="21">
-        <v>42319470430000</v>
-      </c>
-      <c r="E33" s="21">
-        <v>52359851790000</v>
-      </c>
-      <c r="F33" s="21">
-        <v>135296458000000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="21">
-        <v>79644584970000</v>
-      </c>
-      <c r="C34" s="21">
-        <v>84356967990000</v>
-      </c>
-      <c r="D34" s="21">
-        <v>83588641760000</v>
-      </c>
-      <c r="E34" s="21">
-        <v>85072858480000</v>
-      </c>
-      <c r="F34" s="21">
-        <v>112884324000000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="21">
-        <v>210600573200000</v>
-      </c>
-      <c r="C35" s="21">
-        <v>189510696100000</v>
-      </c>
-      <c r="D35" s="21">
-        <v>199232884400000</v>
-      </c>
-      <c r="E35" s="21">
-        <v>235343249900000</v>
-      </c>
-      <c r="F35" s="21">
-        <v>337921367000000</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F35">
+    <sortCondition ref="A1:A35"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4971,7 +5452,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5026,665 +5507,1560 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B3" s="21">
-        <v>26190895070000</v>
+        <v>7358857800000</v>
       </c>
       <c r="C3" s="21">
-        <v>28611300440000</v>
+        <v>7864049190000</v>
       </c>
       <c r="D3" s="21">
-        <v>31055571700000</v>
+        <v>8571444830000</v>
       </c>
       <c r="E3" s="21">
-        <v>31722155700000</v>
+        <v>9358858090000</v>
       </c>
       <c r="F3" s="21">
-        <v>32326513560000</v>
+        <v>9651050890000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B4" s="21">
-        <v>9652282950000</v>
+        <v>22816364090000</v>
       </c>
       <c r="C4" s="21">
-        <v>10343941880000</v>
+        <v>24750837560000</v>
       </c>
       <c r="D4" s="21">
-        <v>11224945440000</v>
+        <v>26364887900000</v>
       </c>
       <c r="E4" s="21">
-        <v>11954727400000</v>
+        <v>26812702520000</v>
       </c>
       <c r="F4" s="21">
-        <v>12685315150000</v>
+        <v>27514859950000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B5" s="21">
-        <v>13794322800000</v>
+        <v>2982258410000</v>
       </c>
       <c r="C5" s="21">
-        <v>14502440230000</v>
+        <v>3211972370000</v>
       </c>
       <c r="D5" s="21">
-        <v>15542767970000</v>
+        <v>3444414860000</v>
       </c>
       <c r="E5" s="21">
-        <v>17220666040000</v>
+        <v>3665386270000</v>
       </c>
       <c r="F5" s="21">
-        <v>18427086620000</v>
+        <v>4020482040000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" s="21">
-        <v>9955079580000</v>
+        <v>8919366310000</v>
       </c>
       <c r="C6" s="21">
-        <v>10850447130000</v>
+        <v>9455465250000</v>
       </c>
       <c r="D6" s="21">
-        <v>12178570250000</v>
+        <v>10222484090000</v>
       </c>
       <c r="E6" s="21">
-        <v>12757096870000</v>
+        <v>10657780830000</v>
       </c>
       <c r="F6" s="21">
-        <v>13344116480000</v>
+        <v>11538530880000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="B7" s="21">
-        <v>18469274070000</v>
+        <v>67860694379999.992</v>
       </c>
       <c r="C7" s="21">
-        <v>19617828090000</v>
+        <v>72633743080000</v>
       </c>
       <c r="D7" s="21">
-        <v>20833952610000</v>
+        <v>77658829150000</v>
       </c>
       <c r="E7" s="21">
-        <v>21712107570000</v>
+        <v>86763125590000</v>
       </c>
       <c r="F7" s="21">
-        <v>22763560290000</v>
+        <v>89597233010000</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B8" s="21">
-        <v>2982258410000</v>
+        <v>1705673090000</v>
       </c>
       <c r="C8" s="21">
-        <v>3211972370000</v>
+        <v>1923480940000</v>
       </c>
       <c r="D8" s="21">
-        <v>3444414860000</v>
+        <v>2166293430000.0002</v>
       </c>
       <c r="E8" s="21">
-        <v>3665386270000</v>
+        <v>2238517420000</v>
       </c>
       <c r="F8" s="21">
-        <v>4020482040000</v>
+        <v>2357576300000</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B9" s="21">
-        <v>13076243460000</v>
+        <v>9955079580000</v>
       </c>
       <c r="C9" s="21">
-        <v>14105299350000</v>
+        <v>10850447130000</v>
       </c>
       <c r="D9" s="21">
-        <v>15244659750000</v>
+        <v>12178570250000</v>
       </c>
       <c r="E9" s="21">
-        <v>16224834180000</v>
+        <v>12757096870000</v>
       </c>
       <c r="F9" s="21">
-        <v>16898904790000</v>
+        <v>13344116480000</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B10" s="21">
-        <v>2056425720000</v>
+        <v>64857816100000</v>
       </c>
       <c r="C10" s="21">
-        <v>2233794160000</v>
+        <v>70117779010000.008</v>
       </c>
       <c r="D10" s="21">
-        <v>2382896350000</v>
+        <v>77629726710000</v>
       </c>
       <c r="E10" s="21">
-        <v>2453365460000</v>
+        <v>81479894360000</v>
       </c>
       <c r="F10" s="21">
-        <v>2545480740000</v>
+        <v>85359925310000</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B11" s="21">
-        <v>9227391310000</v>
+        <v>56462907050000</v>
       </c>
       <c r="C11" s="21">
-        <v>9966028960000</v>
+        <v>61904921440000</v>
       </c>
       <c r="D11" s="21">
-        <v>10726082040000</v>
+        <v>66902113620000</v>
       </c>
       <c r="E11" s="21">
-        <v>10916298710000</v>
+        <v>67872762410000</v>
       </c>
       <c r="F11" s="21">
-        <v>11347303010000</v>
+        <v>70125378849999.992</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B12" s="21">
-        <v>67860694379999.992</v>
+        <v>88895105870000</v>
       </c>
       <c r="C12" s="21">
-        <v>72633743080000</v>
+        <v>96193852810000</v>
       </c>
       <c r="D12" s="21">
-        <v>77658829150000</v>
+        <v>102575288700000</v>
       </c>
       <c r="E12" s="21">
-        <v>86763125590000</v>
+        <v>110725095200000</v>
       </c>
       <c r="F12" s="21">
-        <v>89597233010000</v>
+        <v>113377414700000</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B13" s="21">
-        <v>64857816100000</v>
+        <v>4515725320000</v>
       </c>
       <c r="C13" s="21">
-        <v>70117779010000.008</v>
+        <v>4837254280000</v>
       </c>
       <c r="D13" s="21">
-        <v>77629726710000</v>
+        <v>5340554850000</v>
       </c>
       <c r="E13" s="21">
-        <v>81479894360000</v>
+        <v>5367827450000</v>
       </c>
       <c r="F13" s="21">
-        <v>85359925310000</v>
+        <v>5740658950000</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B14" s="21">
-        <v>56462907050000</v>
+        <v>4557026560000</v>
       </c>
       <c r="C14" s="21">
-        <v>61904921440000</v>
+        <v>4822691080000</v>
       </c>
       <c r="D14" s="21">
-        <v>66902113620000</v>
+        <v>5168156860000</v>
       </c>
       <c r="E14" s="21">
-        <v>67872762410000</v>
+        <v>5563973160000</v>
       </c>
       <c r="F14" s="21">
-        <v>70125378849999.992</v>
+        <v>5949584730000</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B15" s="21">
-        <v>8919366310000</v>
+        <v>2604480840000</v>
       </c>
       <c r="C15" s="21">
-        <v>9455465250000</v>
+        <v>2828341960000</v>
       </c>
       <c r="D15" s="21">
-        <v>10222484090000</v>
+        <v>3154662710000</v>
       </c>
       <c r="E15" s="21">
-        <v>10657780830000</v>
+        <v>3424540040000</v>
       </c>
       <c r="F15" s="21">
-        <v>11538530880000</v>
+        <v>3797268490000</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B16" s="21">
-        <v>88895105870000</v>
+        <v>8330900520000</v>
       </c>
       <c r="C16" s="21">
-        <v>96193852810000</v>
+        <v>8618577810000.001</v>
       </c>
       <c r="D16" s="21">
-        <v>102575288700000</v>
+        <v>9185286420000</v>
       </c>
       <c r="E16" s="21">
-        <v>110725095200000</v>
+        <v>9710471390000</v>
       </c>
       <c r="F16" s="21">
-        <v>113377414700000</v>
+        <v>10410440490000</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B17" s="21">
-        <v>22816364090000</v>
+        <v>820001320000</v>
       </c>
       <c r="C17" s="21">
-        <v>24750837560000</v>
+        <v>856208340000</v>
       </c>
       <c r="D17" s="21">
-        <v>26364887900000</v>
+        <v>928880390000</v>
       </c>
       <c r="E17" s="21">
-        <v>26812702520000</v>
+        <v>990011320000</v>
       </c>
       <c r="F17" s="21">
-        <v>27514859950000</v>
+        <v>1052524480000</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B18" s="21">
-        <v>7358857800000</v>
+        <v>2056425720000</v>
       </c>
       <c r="C18" s="21">
-        <v>7864049190000</v>
+        <v>2233794160000</v>
       </c>
       <c r="D18" s="21">
-        <v>8571444830000</v>
+        <v>2382896350000</v>
       </c>
       <c r="E18" s="21">
-        <v>9358858090000</v>
+        <v>2453365460000</v>
       </c>
       <c r="F18" s="21">
-        <v>9651050890000</v>
+        <v>2545480740000</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B19" s="21">
-        <v>7154861380000</v>
+        <v>9227391310000</v>
       </c>
       <c r="C19" s="21">
-        <v>7656801050000</v>
+        <v>9966028960000</v>
       </c>
       <c r="D19" s="21">
-        <v>8234065430000</v>
+        <v>10726082040000</v>
       </c>
       <c r="E19" s="21">
-        <v>8398867590000</v>
+        <v>10916298710000</v>
       </c>
       <c r="F19" s="21">
-        <v>8872847280000</v>
+        <v>11347303010000</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B20" s="21">
-        <v>4834565070000</v>
+        <v>13076243460000</v>
       </c>
       <c r="C20" s="21">
-        <v>5158447200000</v>
+        <v>14105299350000</v>
       </c>
       <c r="D20" s="21">
-        <v>5596783130000</v>
+        <v>15244659750000</v>
       </c>
       <c r="E20" s="21">
-        <v>6041480200000</v>
+        <v>16224834180000</v>
       </c>
       <c r="F20" s="21">
-        <v>6092514070000</v>
+        <v>16898904790000</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B21" s="21">
-        <v>4515725320000</v>
+        <v>2860048110000</v>
       </c>
       <c r="C21" s="21">
-        <v>4837254280000</v>
+        <v>2981637870000</v>
       </c>
       <c r="D21" s="21">
-        <v>5340554850000</v>
+        <v>3287665670000</v>
       </c>
       <c r="E21" s="21">
-        <v>5367827450000</v>
+        <v>3617232370000</v>
       </c>
       <c r="F21" s="21">
-        <v>5740658950000</v>
+        <v>3598499470000</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B22" s="21">
-        <v>2604480840000</v>
+        <v>1352964580000</v>
       </c>
       <c r="C22" s="21">
-        <v>2828341960000</v>
+        <v>1448316990000</v>
       </c>
       <c r="D22" s="21">
-        <v>3154662710000</v>
+        <v>1574874760000</v>
       </c>
       <c r="E22" s="21">
-        <v>3424540040000</v>
+        <v>1624366690000</v>
       </c>
       <c r="F22" s="21">
-        <v>3797268490000</v>
+        <v>1744270020000</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B23" s="21">
-        <v>4557026560000</v>
+        <v>7154861380000</v>
       </c>
       <c r="C23" s="21">
-        <v>4822691080000</v>
+        <v>7656801050000</v>
       </c>
       <c r="D23" s="21">
-        <v>5168156860000</v>
+        <v>8234065430000</v>
       </c>
       <c r="E23" s="21">
-        <v>5563973160000</v>
+        <v>8398867590000</v>
       </c>
       <c r="F23" s="21">
-        <v>5949584730000</v>
+        <v>8872847280000</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B24" s="21">
-        <v>8330900520000</v>
+        <v>4834565070000</v>
       </c>
       <c r="C24" s="21">
-        <v>8618577810000.001</v>
+        <v>5158447200000</v>
       </c>
       <c r="D24" s="21">
-        <v>9185286420000</v>
+        <v>5596783130000</v>
       </c>
       <c r="E24" s="21">
-        <v>9710471390000</v>
+        <v>6041480200000</v>
       </c>
       <c r="F24" s="21">
-        <v>10410440490000</v>
+        <v>6092514070000</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B25" s="21">
-        <v>820001320000</v>
+        <v>3379213670000</v>
       </c>
       <c r="C25" s="21">
-        <v>856208340000</v>
+        <v>3639820860000</v>
       </c>
       <c r="D25" s="21">
-        <v>928880390000</v>
+        <v>3963908180000</v>
       </c>
       <c r="E25" s="21">
-        <v>990011320000</v>
+        <v>4283597389999.9995</v>
       </c>
       <c r="F25" s="21">
-        <v>1052524480000</v>
+        <v>5160321840000</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B26" s="21">
-        <v>3820566880000</v>
+        <v>1128843240000</v>
       </c>
       <c r="C26" s="21">
-        <v>4093028940000</v>
+        <v>1249207780000</v>
       </c>
       <c r="D26" s="21">
-        <v>4646369950000</v>
+        <v>1298065710000</v>
       </c>
       <c r="E26" s="21">
-        <v>4886283310000</v>
+        <v>1497754240000</v>
       </c>
       <c r="F26" s="21">
-        <v>5437100330000</v>
+        <v>1709913700000</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B27" s="21">
-        <v>5398117330000</v>
+        <v>13794322800000</v>
       </c>
       <c r="C27" s="21">
-        <v>6041120360000</v>
+        <v>14502440230000</v>
       </c>
       <c r="D27" s="21">
-        <v>6696541270000</v>
+        <v>15542767970000</v>
       </c>
       <c r="E27" s="21">
-        <v>6782821690000</v>
+        <v>17220666040000</v>
       </c>
       <c r="F27" s="21">
-        <v>7159336750000</v>
+        <v>18427086620000</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="21">
-        <v>22828847850000</v>
+        <v>1202292830000</v>
       </c>
       <c r="C28" s="21">
-        <v>26446640470000</v>
+        <v>1383071490000</v>
       </c>
       <c r="D28" s="21">
-        <v>28775905000000</v>
+        <v>1501495650000</v>
       </c>
       <c r="E28" s="21">
-        <v>33424479830000</v>
+        <v>1552543090000</v>
       </c>
       <c r="F28" s="21">
-        <v>35436181830000</v>
+        <v>1616154590000</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29" s="21">
-        <v>4480516510000</v>
+        <v>22828847850000</v>
       </c>
       <c r="C29" s="21">
-        <v>4774189600000</v>
+        <v>26446640470000</v>
       </c>
       <c r="D29" s="21">
-        <v>5181178150000</v>
+        <v>28775905000000</v>
       </c>
       <c r="E29" s="21">
-        <v>5470032270000</v>
+        <v>33424479830000</v>
       </c>
       <c r="F29" s="21">
-        <v>5760812520000</v>
+        <v>35436181830000</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B30" s="21">
-        <v>1705673090000</v>
+        <v>5398117330000</v>
       </c>
       <c r="C30" s="21">
-        <v>1923480940000</v>
+        <v>6041120360000</v>
       </c>
       <c r="D30" s="21">
-        <v>2166293430000.0002</v>
+        <v>6696541270000</v>
       </c>
       <c r="E30" s="21">
-        <v>2238517420000</v>
+        <v>6782821690000</v>
       </c>
       <c r="F30" s="21">
-        <v>2357576300000</v>
+        <v>7159336750000</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B31" s="21">
-        <v>1202292830000</v>
+        <v>4480516510000</v>
       </c>
       <c r="C31" s="21">
-        <v>1383071490000</v>
+        <v>4774189600000</v>
       </c>
       <c r="D31" s="21">
-        <v>1501495650000</v>
+        <v>5181178150000</v>
       </c>
       <c r="E31" s="21">
-        <v>1552543090000</v>
+        <v>5470032270000</v>
       </c>
       <c r="F31" s="21">
-        <v>1616154590000</v>
+        <v>5760812520000</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B32" s="21">
-        <v>2860048110000</v>
+        <v>3820566880000</v>
       </c>
       <c r="C32" s="21">
-        <v>2981637870000</v>
+        <v>4093028940000</v>
       </c>
       <c r="D32" s="21">
-        <v>3287665670000</v>
+        <v>4646369950000</v>
       </c>
       <c r="E32" s="21">
-        <v>3617232370000</v>
+        <v>4886283310000</v>
       </c>
       <c r="F32" s="21">
-        <v>3598499470000</v>
+        <v>5437100330000</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B33" s="21">
-        <v>1352964580000</v>
+        <v>9652282950000</v>
       </c>
       <c r="C33" s="21">
-        <v>1448316990000</v>
+        <v>10343941880000</v>
       </c>
       <c r="D33" s="21">
-        <v>1574874760000</v>
+        <v>11224945440000</v>
       </c>
       <c r="E33" s="21">
-        <v>1624366690000</v>
+        <v>11954727400000</v>
       </c>
       <c r="F33" s="21">
-        <v>1744270020000</v>
+        <v>12685315150000</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B34" s="21">
-        <v>1128843240000</v>
+        <v>18469274070000</v>
       </c>
       <c r="C34" s="21">
-        <v>1249207780000</v>
+        <v>19617828090000</v>
       </c>
       <c r="D34" s="21">
-        <v>1298065710000</v>
+        <v>20833952610000</v>
       </c>
       <c r="E34" s="21">
-        <v>1497754240000</v>
+        <v>21712107570000</v>
       </c>
       <c r="F34" s="21">
-        <v>1709913700000</v>
+        <v>22763560290000</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B35" s="21">
-        <v>3379213670000</v>
+        <v>26190895070000</v>
       </c>
       <c r="C35" s="21">
-        <v>3639820860000</v>
+        <v>28611300440000</v>
       </c>
       <c r="D35" s="21">
-        <v>3963908180000</v>
+        <v>31055571700000</v>
       </c>
       <c r="E35" s="21">
-        <v>4283597389999.9995</v>
+        <v>31722155700000</v>
       </c>
       <c r="F35" s="21">
-        <v>5160321840000</v>
+        <v>32326513560000</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F35">
+    <sortCondition ref="A1:A35"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2199BE-4897-4DDB-9EA5-93588BBE15B5}">
+  <dimension ref="A1:F35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="25.84375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32">
+        <v>2017</v>
+      </c>
+      <c r="C1" s="32">
+        <v>2018</v>
+      </c>
+      <c r="D1" s="32">
+        <v>2019</v>
+      </c>
+      <c r="E1" s="32">
+        <v>2020</v>
+      </c>
+      <c r="F1" s="32">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27">
+        <f>Anggaran_Kes_Pend!B2 / PDRB!B2</f>
+        <v>3.1288801557570897E-2</v>
+      </c>
+      <c r="C2" s="27">
+        <f>Anggaran_Kes_Pend!C2 / PDRB!C2</f>
+        <v>3.1360227783684302E-2</v>
+      </c>
+      <c r="D2" s="27">
+        <f>Anggaran_Kes_Pend!D2 / PDRB!D2</f>
+        <v>3.2421157060893241E-2</v>
+      </c>
+      <c r="E2" s="27">
+        <f>Anggaran_Kes_Pend!E2 / PDRB!E2</f>
+        <v>3.0843824590771254E-2</v>
+      </c>
+      <c r="F2" s="27">
+        <f>Anggaran_Kes_Pend!F2 / PDRB!F2</f>
+        <v>1.2803894694895807E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27">
+        <f>Anggaran_Kes_Pend!B18 / PDRB!B18</f>
+        <v>2.8126568433393992E-2</v>
+      </c>
+      <c r="C3" s="27">
+        <f>Anggaran_Kes_Pend!C18 / PDRB!C18</f>
+        <v>2.947153972686007E-2</v>
+      </c>
+      <c r="D3" s="27">
+        <f>Anggaran_Kes_Pend!D18 / PDRB!D18</f>
+        <v>3.1563523834183323E-2</v>
+      </c>
+      <c r="E3" s="27">
+        <f>Anggaran_Kes_Pend!E18 / PDRB!E18</f>
+        <v>2.8546523962564692E-2</v>
+      </c>
+      <c r="F3" s="27">
+        <f>Anggaran_Kes_Pend!F18 / PDRB!F18</f>
+        <v>1.2378179844978791E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27">
+        <f>Anggaran_Kes_Pend!B17 / PDRB!B17</f>
+        <v>9.5851718830384028E-3</v>
+      </c>
+      <c r="C4" s="27">
+        <f>Anggaran_Kes_Pend!C17 / PDRB!C17</f>
+        <v>8.8717124115087059E-3</v>
+      </c>
+      <c r="D4" s="27">
+        <f>Anggaran_Kes_Pend!D17 / PDRB!D17</f>
+        <v>9.2416842854688465E-3</v>
+      </c>
+      <c r="E4" s="27">
+        <f>Anggaran_Kes_Pend!E17 / PDRB!E17</f>
+        <v>8.9457015282415966E-3</v>
+      </c>
+      <c r="F4" s="27">
+        <f>Anggaran_Kes_Pend!F17 / PDRB!F17</f>
+        <v>1.2835643727988144E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27">
+        <f>Anggaran_Kes_Pend!B8 / PDRB!B8</f>
+        <v>4.5205682963088009E-2</v>
+      </c>
+      <c r="C5" s="27">
+        <f>Anggaran_Kes_Pend!C8 / PDRB!C8</f>
+        <v>4.6748326830970362E-2</v>
+      </c>
+      <c r="D5" s="27">
+        <f>Anggaran_Kes_Pend!D8 / PDRB!D8</f>
+        <v>5.1912419457348181E-2</v>
+      </c>
+      <c r="E5" s="27">
+        <f>Anggaran_Kes_Pend!E8 / PDRB!E8</f>
+        <v>5.0995507040790415E-2</v>
+      </c>
+      <c r="F5" s="27">
+        <f>Anggaran_Kes_Pend!F8 / PDRB!F8</f>
+        <v>1.382197042224545E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27">
+        <f>Anggaran_Kes_Pend!B15 / PDRB!B15</f>
+        <v>1.8789160768598465E-2</v>
+      </c>
+      <c r="C6" s="27">
+        <f>Anggaran_Kes_Pend!C15 / PDRB!C15</f>
+        <v>1.8849820441445727E-2</v>
+      </c>
+      <c r="D6" s="27">
+        <f>Anggaran_Kes_Pend!D15 / PDRB!D15</f>
+        <v>2.07288042778455E-2</v>
+      </c>
+      <c r="E6" s="27">
+        <f>Anggaran_Kes_Pend!E15 / PDRB!E15</f>
+        <v>2.0144209690449916E-2</v>
+      </c>
+      <c r="F6" s="27">
+        <f>Anggaran_Kes_Pend!F15 / PDRB!F15</f>
+        <v>1.4579752062986956E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="27">
+        <f>Anggaran_Kes_Pend!B12 / PDRB!B12</f>
+        <v>4.0614251070275845E-2</v>
+      </c>
+      <c r="C7" s="27">
+        <f>Anggaran_Kes_Pend!C12 / PDRB!C12</f>
+        <v>4.1011239237822433E-2</v>
+      </c>
+      <c r="D7" s="27">
+        <f>Anggaran_Kes_Pend!D12 / PDRB!D12</f>
+        <v>4.4602003564974305E-2</v>
+      </c>
+      <c r="E7" s="27">
+        <f>Anggaran_Kes_Pend!E12 / PDRB!E12</f>
+        <v>4.5111081488589166E-2</v>
+      </c>
+      <c r="F7" s="27">
+        <f>Anggaran_Kes_Pend!F12 / PDRB!F12</f>
+        <v>1.2754067121063209E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="27">
+        <f>Anggaran_Kes_Pend!B30 / PDRB!B30</f>
+        <v>3.2297798183820003E-2</v>
+      </c>
+      <c r="C8" s="27">
+        <f>Anggaran_Kes_Pend!C30 / PDRB!C30</f>
+        <v>3.2524590954321461E-2</v>
+      </c>
+      <c r="D8" s="27">
+        <f>Anggaran_Kes_Pend!D30 / PDRB!D30</f>
+        <v>3.3916707472614778E-2</v>
+      </c>
+      <c r="E8" s="27">
+        <f>Anggaran_Kes_Pend!E30 / PDRB!E30</f>
+        <v>2.7462222279817611E-2</v>
+      </c>
+      <c r="F8" s="27">
+        <f>Anggaran_Kes_Pend!F30 / PDRB!F30</f>
+        <v>1.3262654944923178E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="27">
+        <f>Anggaran_Kes_Pend!B6 / PDRB!B6</f>
+        <v>6.8706510036667168E-2</v>
+      </c>
+      <c r="C9" s="27">
+        <f>Anggaran_Kes_Pend!C6 / PDRB!C6</f>
+        <v>6.7037364341626077E-2</v>
+      </c>
+      <c r="D9" s="27">
+        <f>Anggaran_Kes_Pend!D6 / PDRB!D6</f>
+        <v>7.3911634342943192E-2</v>
+      </c>
+      <c r="E9" s="27">
+        <f>Anggaran_Kes_Pend!E6 / PDRB!E6</f>
+        <v>7.1351945613788645E-2</v>
+      </c>
+      <c r="F9" s="27">
+        <f>Anggaran_Kes_Pend!F6 / PDRB!F6</f>
+        <v>1.2936491762944535E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="27">
+        <f>Anggaran_Kes_Pend!B13 / PDRB!B13</f>
+        <v>2.3260362134729113E-2</v>
+      </c>
+      <c r="C10" s="27">
+        <f>Anggaran_Kes_Pend!C13 / PDRB!C13</f>
+        <v>2.2801068609403761E-2</v>
+      </c>
+      <c r="D10" s="27">
+        <f>Anggaran_Kes_Pend!D13 / PDRB!D13</f>
+        <v>2.4955659276917411E-2</v>
+      </c>
+      <c r="E10" s="27">
+        <f>Anggaran_Kes_Pend!E13 / PDRB!E13</f>
+        <v>2.3205085835741171E-2</v>
+      </c>
+      <c r="F10" s="27">
+        <f>Anggaran_Kes_Pend!F13 / PDRB!F13</f>
+        <v>1.2712595526071546E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="27">
+        <f>Anggaran_Kes_Pend!B14 / PDRB!B14</f>
+        <v>2.6543097063447228E-2</v>
+      </c>
+      <c r="C11" s="27">
+        <f>Anggaran_Kes_Pend!C14 / PDRB!C14</f>
+        <v>2.6709980820351798E-2</v>
+      </c>
+      <c r="D11" s="27">
+        <f>Anggaran_Kes_Pend!D14 / PDRB!D14</f>
+        <v>2.8857213439987088E-2</v>
+      </c>
+      <c r="E11" s="27">
+        <f>Anggaran_Kes_Pend!E14 / PDRB!E14</f>
+        <v>2.8892262627829849E-2</v>
+      </c>
+      <c r="F11" s="27">
+        <f>Anggaran_Kes_Pend!F14 / PDRB!F14</f>
+        <v>1.3055848263478192E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="27">
+        <f>Anggaran_Kes_Pend!B16 / PDRB!B16</f>
+        <v>1.3109233401746558E-2</v>
+      </c>
+      <c r="C12" s="27">
+        <f>Anggaran_Kes_Pend!C16 / PDRB!C16</f>
+        <v>1.3208948029084077E-2</v>
+      </c>
+      <c r="D12" s="27">
+        <f>Anggaran_Kes_Pend!D16 / PDRB!D16</f>
+        <v>1.5117668366214696E-2</v>
+      </c>
+      <c r="E12" s="27">
+        <f>Anggaran_Kes_Pend!E16 / PDRB!E16</f>
+        <v>1.3968719019463356E-2</v>
+      </c>
+      <c r="F12" s="27">
+        <f>Anggaran_Kes_Pend!F16 / PDRB!F16</f>
+        <v>1.2496176691832589E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="27">
+        <f>Anggaran_Kes_Pend!B21 / PDRB!B21</f>
+        <v>6.6439986213925467E-2</v>
+      </c>
+      <c r="C13" s="27">
+        <f>Anggaran_Kes_Pend!C21 / PDRB!C21</f>
+        <v>6.4603593674599127E-2</v>
+      </c>
+      <c r="D13" s="27">
+        <f>Anggaran_Kes_Pend!D21 / PDRB!D21</f>
+        <v>7.1065529175480577E-2</v>
+      </c>
+      <c r="E13" s="27">
+        <f>Anggaran_Kes_Pend!E21 / PDRB!E21</f>
+        <v>7.4483489697630079E-2</v>
+      </c>
+      <c r="F13" s="27">
+        <f>Anggaran_Kes_Pend!F21 / PDRB!F21</f>
+        <v>1.2581954329432592E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="27">
+        <f>Anggaran_Kes_Pend!B23 / PDRB!B23</f>
+        <v>5.7761976381838435E-2</v>
+      </c>
+      <c r="C14" s="27">
+        <f>Anggaran_Kes_Pend!C23 / PDRB!C23</f>
+        <v>5.7787134210143441E-2</v>
+      </c>
+      <c r="D14" s="27">
+        <f>Anggaran_Kes_Pend!D23 / PDRB!D23</f>
+        <v>6.162588646325802E-2</v>
+      </c>
+      <c r="E14" s="27">
+        <f>Anggaran_Kes_Pend!E23 / PDRB!E23</f>
+        <v>5.9926283900614379E-2</v>
+      </c>
+      <c r="F14" s="27">
+        <f>Anggaran_Kes_Pend!F23 / PDRB!F23</f>
+        <v>1.2401144912188362E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="27">
+        <f>Anggaran_Kes_Pend!B22 / PDRB!B22</f>
+        <v>3.7099240354110198E-2</v>
+      </c>
+      <c r="C15" s="27">
+        <f>Anggaran_Kes_Pend!C22 / PDRB!C22</f>
+        <v>3.6485680484732157E-2</v>
+      </c>
+      <c r="D15" s="27">
+        <f>Anggaran_Kes_Pend!D22 / PDRB!D22</f>
+        <v>3.7213952443118981E-2</v>
+      </c>
+      <c r="E15" s="27">
+        <f>Anggaran_Kes_Pend!E22 / PDRB!E22</f>
+        <v>3.1023133841456583E-2</v>
+      </c>
+      <c r="F15" s="27">
+        <f>Anggaran_Kes_Pend!F22 / PDRB!F22</f>
+        <v>1.2892207569838969E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="27">
+        <f>Anggaran_Kes_Pend!B24 / PDRB!B24</f>
+        <v>4.8868451428637313E-2</v>
+      </c>
+      <c r="C16" s="27">
+        <f>Anggaran_Kes_Pend!C24 / PDRB!C24</f>
+        <v>4.8330947044327527E-2</v>
+      </c>
+      <c r="D16" s="27">
+        <f>Anggaran_Kes_Pend!D24 / PDRB!D24</f>
+        <v>5.2561347207136587E-2</v>
+      </c>
+      <c r="E16" s="27">
+        <f>Anggaran_Kes_Pend!E24 / PDRB!E24</f>
+        <v>5.448382813405845E-2</v>
+      </c>
+      <c r="F16" s="27">
+        <f>Anggaran_Kes_Pend!F24 / PDRB!F24</f>
+        <v>1.2601990006931482E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="27">
+        <f>Anggaran_Kes_Pend!B25 / PDRB!B25</f>
+        <v>1.6045605283281347E-2</v>
+      </c>
+      <c r="C17" s="27">
+        <f>Anggaran_Kes_Pend!C25 / PDRB!C25</f>
+        <v>1.920641385898007E-2</v>
+      </c>
+      <c r="D17" s="27">
+        <f>Anggaran_Kes_Pend!D25 / PDRB!D25</f>
+        <v>1.9895852996042854E-2</v>
+      </c>
+      <c r="E17" s="27">
+        <f>Anggaran_Kes_Pend!E25 / PDRB!E25</f>
+        <v>1.8201488216977323E-2</v>
+      </c>
+      <c r="F17" s="27">
+        <f>Anggaran_Kes_Pend!F25 / PDRB!F25</f>
+        <v>1.5270777002982471E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="27">
+        <f>Anggaran_Kes_Pend!B10 / PDRB!B10</f>
+        <v>3.3080129229963548E-2</v>
+      </c>
+      <c r="C18" s="27">
+        <f>Anggaran_Kes_Pend!C10 / PDRB!C10</f>
+        <v>3.3025295647094111E-2</v>
+      </c>
+      <c r="D18" s="27">
+        <f>Anggaran_Kes_Pend!D10 / PDRB!D10</f>
+        <v>3.723926545324361E-2</v>
+      </c>
+      <c r="E18" s="27">
+        <f>Anggaran_Kes_Pend!E10 / PDRB!E10</f>
+        <v>3.687169382930823E-2</v>
+      </c>
+      <c r="F18" s="27">
+        <f>Anggaran_Kes_Pend!F10 / PDRB!F10</f>
+        <v>1.3161085346812965E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="27">
+        <f>Anggaran_Kes_Pend!B11 / PDRB!B11</f>
+        <v>4.451993687394825E-2</v>
+      </c>
+      <c r="C19" s="27">
+        <f>Anggaran_Kes_Pend!C11 / PDRB!C11</f>
+        <v>4.5486212292283529E-2</v>
+      </c>
+      <c r="D19" s="27">
+        <f>Anggaran_Kes_Pend!D11 / PDRB!D11</f>
+        <v>4.9633494684797906E-2</v>
+      </c>
+      <c r="E19" s="27">
+        <f>Anggaran_Kes_Pend!E11 / PDRB!E11</f>
+        <v>4.7770809969675192E-2</v>
+      </c>
+      <c r="F19" s="27">
+        <f>Anggaran_Kes_Pend!F11 / PDRB!F11</f>
+        <v>1.241972518133035E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="27">
+        <f>Anggaran_Kes_Pend!B9 / PDRB!B9</f>
+        <v>4.788888834193529E-2</v>
+      </c>
+      <c r="C20" s="27">
+        <f>Anggaran_Kes_Pend!C9 / PDRB!C9</f>
+        <v>5.0018723841383395E-2</v>
+      </c>
+      <c r="D20" s="27">
+        <f>Anggaran_Kes_Pend!D9 / PDRB!D9</f>
+        <v>5.9049728816708981E-2</v>
+      </c>
+      <c r="E20" s="27">
+        <f>Anggaran_Kes_Pend!E9 / PDRB!E9</f>
+        <v>5.4581546000226779E-2</v>
+      </c>
+      <c r="F20" s="27">
+        <f>Anggaran_Kes_Pend!F9 / PDRB!F9</f>
+        <v>1.3404329290153198E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="27">
+        <f>Anggaran_Kes_Pend!B32 / PDRB!B32</f>
+        <v>3.1967877819562653E-2</v>
+      </c>
+      <c r="C21" s="27">
+        <f>Anggaran_Kes_Pend!C32 / PDRB!C32</f>
+        <v>3.1454228196852431E-2</v>
+      </c>
+      <c r="D21" s="27">
+        <f>Anggaran_Kes_Pend!D32 / PDRB!D32</f>
+        <v>3.5138530973437096E-2</v>
+      </c>
+      <c r="E21" s="27">
+        <f>Anggaran_Kes_Pend!E32 / PDRB!E32</f>
+        <v>3.426565665072321E-2</v>
+      </c>
+      <c r="F21" s="27">
+        <f>Anggaran_Kes_Pend!F32 / PDRB!F32</f>
+        <v>1.4231135066532325E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="27">
+        <f>Anggaran_Kes_Pend!B33 / PDRB!B33</f>
+        <v>4.189955005838461E-2</v>
+      </c>
+      <c r="C22" s="27">
+        <f>Anggaran_Kes_Pend!C33 / PDRB!C33</f>
+        <v>4.2057137355623893E-2</v>
+      </c>
+      <c r="D22" s="27">
+        <f>Anggaran_Kes_Pend!D33 / PDRB!D33</f>
+        <v>4.6385312374867135E-2</v>
+      </c>
+      <c r="E22" s="27">
+        <f>Anggaran_Kes_Pend!E33 / PDRB!E33</f>
+        <v>4.7298691086511808E-2</v>
+      </c>
+      <c r="F22" s="27">
+        <f>Anggaran_Kes_Pend!F33 / PDRB!F33</f>
+        <v>1.3142295160338208E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="27">
+        <f>Anggaran_Kes_Pend!B19 / PDRB!B19</f>
+        <v>3.7084271751116282E-2</v>
+      </c>
+      <c r="C23" s="27">
+        <f>Anggaran_Kes_Pend!C19 / PDRB!C19</f>
+        <v>3.7237880380138949E-2</v>
+      </c>
+      <c r="D23" s="27">
+        <f>Anggaran_Kes_Pend!D19 / PDRB!D19</f>
+        <v>4.2190820661583528E-2</v>
+      </c>
+      <c r="E23" s="27">
+        <f>Anggaran_Kes_Pend!E19 / PDRB!E19</f>
+        <v>3.9603991248501891E-2</v>
+      </c>
+      <c r="F23" s="27">
+        <f>Anggaran_Kes_Pend!F19 / PDRB!F19</f>
+        <v>1.2297411726435172E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="27">
+        <f>Anggaran_Kes_Pend!B20 / PDRB!B20</f>
+        <v>3.9333427621708994E-2</v>
+      </c>
+      <c r="C24" s="27">
+        <f>Anggaran_Kes_Pend!C20 / PDRB!C20</f>
+        <v>3.9546441559644638E-2</v>
+      </c>
+      <c r="D24" s="27">
+        <f>Anggaran_Kes_Pend!D20 / PDRB!D20</f>
+        <v>4.3121257253684889E-2</v>
+      </c>
+      <c r="E24" s="27">
+        <f>Anggaran_Kes_Pend!E20 / PDRB!E20</f>
+        <v>4.3626501212962632E-2</v>
+      </c>
+      <c r="F24" s="27">
+        <f>Anggaran_Kes_Pend!F20 / PDRB!F20</f>
+        <v>1.2923363534560559E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="27">
+        <f>Anggaran_Kes_Pend!B35 / PDRB!B35</f>
+        <v>3.532877311625543E-2</v>
+      </c>
+      <c r="C25" s="27">
+        <f>Anggaran_Kes_Pend!C35 / PDRB!C35</f>
+        <v>3.5781615863250675E-2</v>
+      </c>
+      <c r="D25" s="27">
+        <f>Anggaran_Kes_Pend!D35 / PDRB!D35</f>
+        <v>3.8284047443855371E-2</v>
+      </c>
+      <c r="E25" s="27">
+        <f>Anggaran_Kes_Pend!E35 / PDRB!E35</f>
+        <v>3.6891763664887285E-2</v>
+      </c>
+      <c r="F25" s="27">
+        <f>Anggaran_Kes_Pend!F35 / PDRB!F35</f>
+        <v>1.2342653228765732E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="27">
+        <f>Anggaran_Kes_Pend!B34 / PDRB!B34</f>
+        <v>4.4038196172589507E-2</v>
+      </c>
+      <c r="C26" s="27">
+        <f>Anggaran_Kes_Pend!C34 / PDRB!C34</f>
+        <v>4.3267998800892049E-2</v>
+      </c>
+      <c r="D26" s="27">
+        <f>Anggaran_Kes_Pend!D34 / PDRB!D34</f>
+        <v>4.5623672492970495E-2</v>
+      </c>
+      <c r="E26" s="27">
+        <f>Anggaran_Kes_Pend!E34 / PDRB!E34</f>
+        <v>4.4169221785441852E-2</v>
+      </c>
+      <c r="F26" s="27">
+        <f>Anggaran_Kes_Pend!F34 / PDRB!F34</f>
+        <v>1.2325097458473093E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="27">
+        <f>Anggaran_Kes_Pend!B5 / PDRB!B5</f>
+        <v>4.4911505837612241E-2</v>
+      </c>
+      <c r="C27" s="27">
+        <f>Anggaran_Kes_Pend!C5 / PDRB!C5</f>
+        <v>4.4549941162953861E-2</v>
+      </c>
+      <c r="D27" s="27">
+        <f>Anggaran_Kes_Pend!D5 / PDRB!D5</f>
+        <v>4.6987276618479665E-2</v>
+      </c>
+      <c r="E27" s="27">
+        <f>Anggaran_Kes_Pend!E5 / PDRB!E5</f>
+        <v>4.6061265231371336E-2</v>
+      </c>
+      <c r="F27" s="27">
+        <f>Anggaran_Kes_Pend!F5 / PDRB!F5</f>
+        <v>1.3481333564250055E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="27">
+        <f>Anggaran_Kes_Pend!B31 / PDRB!B31</f>
+        <v>3.7949058037932075E-2</v>
+      </c>
+      <c r="C28" s="27">
+        <f>Anggaran_Kes_Pend!C31 / PDRB!C31</f>
+        <v>3.6944740960732893E-2</v>
+      </c>
+      <c r="D28" s="27">
+        <f>Anggaran_Kes_Pend!D31 / PDRB!D31</f>
+        <v>3.9800712187938146E-2</v>
+      </c>
+      <c r="E28" s="27">
+        <f>Anggaran_Kes_Pend!E31 / PDRB!E31</f>
+        <v>3.9336385019135521E-2</v>
+      </c>
+      <c r="F28" s="27">
+        <f>Anggaran_Kes_Pend!F31 / PDRB!F31</f>
+        <v>1.2857474148666847E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="27">
+        <f>Anggaran_Kes_Pend!B28 / PDRB!B28</f>
+        <v>2.7665734438992486E-2</v>
+      </c>
+      <c r="C29" s="27">
+        <f>Anggaran_Kes_Pend!C28 / PDRB!C28</f>
+        <v>2.9829568369841523E-2</v>
+      </c>
+      <c r="D29" s="27">
+        <f>Anggaran_Kes_Pend!D28 / PDRB!D28</f>
+        <v>3.2340595524591655E-2</v>
+      </c>
+      <c r="E29" s="27">
+        <f>Anggaran_Kes_Pend!E28 / PDRB!E28</f>
+        <v>3.0840389219899216E-2</v>
+      </c>
+      <c r="F29" s="27">
+        <f>Anggaran_Kes_Pend!F28 / PDRB!F28</f>
+        <v>1.3442270881711904E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="27">
+        <f>Anggaran_Kes_Pend!B27 / PDRB!B27</f>
+        <v>1.8337099637028929E-2</v>
+      </c>
+      <c r="C30" s="27">
+        <f>Anggaran_Kes_Pend!C27 / PDRB!C27</f>
+        <v>1.9075945741648719E-2</v>
+      </c>
+      <c r="D30" s="27">
+        <f>Anggaran_Kes_Pend!D27 / PDRB!D27</f>
+        <v>2.1330910977237893E-2</v>
+      </c>
+      <c r="E30" s="27">
+        <f>Anggaran_Kes_Pend!E27 / PDRB!E27</f>
+        <v>2.0422720902981226E-2</v>
+      </c>
+      <c r="F30" s="27">
+        <f>Anggaran_Kes_Pend!F27 / PDRB!F27</f>
+        <v>1.3358456871837159E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="27">
+        <f>Anggaran_Kes_Pend!B29 / PDRB!B29</f>
+        <v>4.9437195411849988E-2</v>
+      </c>
+      <c r="C31" s="27">
+        <f>Anggaran_Kes_Pend!C29 / PDRB!C29</f>
+        <v>5.244012223522241E-2</v>
+      </c>
+      <c r="D31" s="27">
+        <f>Anggaran_Kes_Pend!D29 / PDRB!D29</f>
+        <v>5.70883249156569E-2</v>
+      </c>
+      <c r="E31" s="27">
+        <f>Anggaran_Kes_Pend!E29 / PDRB!E29</f>
+        <v>6.1303446336536345E-2</v>
+      </c>
+      <c r="F31" s="27">
+        <f>Anggaran_Kes_Pend!F29 / PDRB!F29</f>
+        <v>0.1552254501096077</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="27">
+        <f>Anggaran_Kes_Pend!B26 / PDRB!B26</f>
+        <v>1.4173508976475993E-2</v>
+      </c>
+      <c r="C32" s="27">
+        <f>Anggaran_Kes_Pend!C26 / PDRB!C26</f>
+        <v>1.4808590324726771E-2</v>
+      </c>
+      <c r="D32" s="27">
+        <f>Anggaran_Kes_Pend!D26 / PDRB!D26</f>
+        <v>1.5529211656854178E-2</v>
+      </c>
+      <c r="E32" s="27">
+        <f>Anggaran_Kes_Pend!E26 / PDRB!E26</f>
+        <v>1.760554737151698E-2</v>
+      </c>
+      <c r="F32" s="27">
+        <f>Anggaran_Kes_Pend!F26 / PDRB!F26</f>
+        <v>1.5147485845776071E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="27">
+        <f>Anggaran_Kes_Pend!B4 / PDRB!B4</f>
+        <v>3.7172043007059875E-2</v>
+      </c>
+      <c r="C33" s="27">
+        <f>Anggaran_Kes_Pend!C4 / PDRB!C4</f>
+        <v>3.7426340317490626E-2</v>
+      </c>
+      <c r="D33" s="27">
+        <f>Anggaran_Kes_Pend!D4 / PDRB!D4</f>
+        <v>4.2117824024670042E-2</v>
+      </c>
+      <c r="E33" s="27">
+        <f>Anggaran_Kes_Pend!E4 / PDRB!E4</f>
+        <v>4.0264033809231194E-2</v>
+      </c>
+      <c r="F33" s="27">
+        <f>Anggaran_Kes_Pend!F4 / PDRB!F4</f>
+        <v>1.2059265815301074E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="27">
+        <f>Anggaran_Kes_Pend!B7 / PDRB!B7</f>
+        <v>2.617469812538915E-2</v>
+      </c>
+      <c r="C34" s="27">
+        <f>Anggaran_Kes_Pend!C7 / PDRB!C7</f>
+        <v>2.5796565688867165E-2</v>
+      </c>
+      <c r="D34" s="27">
+        <f>Anggaran_Kes_Pend!D7 / PDRB!D7</f>
+        <v>2.8054012419819925E-2</v>
+      </c>
+      <c r="E34" s="27">
+        <f>Anggaran_Kes_Pend!E7 / PDRB!E7</f>
+        <v>2.9768643629805649E-2</v>
+      </c>
+      <c r="F34" s="27">
+        <f>Anggaran_Kes_Pend!F7 / PDRB!F7</f>
+        <v>1.3203111731849036E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="27">
+        <f>Anggaran_Kes_Pend!B3 / PDRB!B3</f>
+        <v>3.1497001584802321E-2</v>
+      </c>
+      <c r="C35" s="27">
+        <f>Anggaran_Kes_Pend!C3 / PDRB!C3</f>
+        <v>3.1214707571036858E-2</v>
+      </c>
+      <c r="D35" s="27">
+        <f>Anggaran_Kes_Pend!D3 / PDRB!D3</f>
+        <v>3.8282316135060231E-2</v>
+      </c>
+      <c r="E35" s="27">
+        <f>Anggaran_Kes_Pend!E3 / PDRB!E3</f>
+        <v>4.2578966293637527E-2</v>
+      </c>
+      <c r="F35" s="27">
+        <f>Anggaran_Kes_Pend!F3 / PDRB!F3</f>
+        <v>1.3114876183638173E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F35">
+    <sortCondition ref="A1:A35"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/data_true.xlsx
+++ b/data/data_true.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nanda\Documents\Erwin\My Working\Code Programming\GitHub\fhas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CEBC65-43F6-4968-A071-37EF26B14271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BF1A25-8C89-42A8-82DC-6BE49D5F1A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="10577" tabRatio="763" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="10577" tabRatio="763" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PDRB_per_Kapita" sheetId="7" r:id="rId1"/>
@@ -359,18 +359,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -446,9 +444,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -479,6 +474,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1537,16 +1535,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35">
         <v>2019</v>
       </c>
-      <c r="C1" s="36">
+      <c r="C1" s="35">
         <v>2020</v>
       </c>
-      <c r="D1" s="39">
+      <c r="D1" s="38">
         <v>2021</v>
       </c>
     </row>
@@ -1554,13 +1552,13 @@
       <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="36">
         <v>6.25E-2</v>
       </c>
-      <c r="C2" s="37">
+      <c r="C2" s="36">
         <v>0.14119999999999999</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1568,13 +1566,13 @@
       <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="36">
         <v>0.19500000000000001</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="36">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1582,13 +1580,13 @@
       <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="36">
         <v>0.26440000000000002</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="36">
         <v>-6.3600000000000004E-2</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1596,13 +1594,13 @@
       <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="36">
         <v>0.15379999999999999</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="36">
         <v>-0.06</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1610,13 +1608,13 @@
       <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="36">
         <v>0.1111</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="36">
         <v>-5.2600000000000001E-2</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1624,13 +1622,13 @@
       <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="36">
         <v>0.38390000000000002</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="36">
         <v>-0.23549999999999999</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1638,13 +1636,13 @@
       <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="36">
         <v>0.14460000000000001</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="36">
         <v>-3.1600000000000003E-2</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1652,13 +1650,13 @@
       <c r="A9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="36">
         <v>0.17119999999999999</v>
       </c>
-      <c r="C9" s="37">
-        <v>0</v>
-      </c>
-      <c r="D9" s="38">
+      <c r="C9" s="36">
+        <v>0</v>
+      </c>
+      <c r="D9" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1666,13 +1664,13 @@
       <c r="A10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="36">
         <v>0.26440000000000002</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="36">
         <v>-5.45E-2</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1680,13 +1678,13 @@
       <c r="A11" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="36">
         <v>0.18640000000000001</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="36">
         <v>-6.4299999999999996E-2</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1694,13 +1692,13 @@
       <c r="A12" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="37">
+      <c r="B12" s="36">
         <v>0.17119999999999999</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C12" s="36">
         <v>-2.3099999999999999E-2</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1708,13 +1706,13 @@
       <c r="A13" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="37">
+      <c r="B13" s="36">
         <v>0.1009</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="36">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1722,13 +1720,13 @@
       <c r="A14" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="37">
+      <c r="B14" s="36">
         <v>0.2397</v>
       </c>
-      <c r="C14" s="37">
-        <v>0</v>
-      </c>
-      <c r="D14" s="38">
+      <c r="C14" s="36">
+        <v>0</v>
+      </c>
+      <c r="D14" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1736,13 +1734,13 @@
       <c r="A15" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="37">
+      <c r="B15" s="36">
         <v>0.4894</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="36">
         <v>0.05</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1750,13 +1748,13 @@
       <c r="A16" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="37">
+      <c r="B16" s="36">
         <v>0.2195</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="36">
         <v>-8.5000000000000006E-2</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1764,13 +1762,13 @@
       <c r="A17" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="37">
+      <c r="B17" s="36">
         <v>9.5899999999999999E-2</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="36">
         <v>0.1875</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1778,13 +1776,13 @@
       <c r="A18" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="37">
+      <c r="B18" s="36">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="36">
         <v>8.6699999999999999E-2</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1792,13 +1790,13 @@
       <c r="A19" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="37">
+      <c r="B19" s="36">
         <v>0.223</v>
       </c>
-      <c r="C19" s="37">
-        <v>0</v>
-      </c>
-      <c r="D19" s="38">
+      <c r="C19" s="36">
+        <v>0</v>
+      </c>
+      <c r="D19" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1806,13 +1804,13 @@
       <c r="A20" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="37">
+      <c r="B20" s="36">
         <v>0.1111</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="36">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1820,13 +1818,13 @@
       <c r="A21" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="37">
+      <c r="B21" s="36">
         <v>0.44069999999999998</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="36">
         <v>-5.8999999999999999E-3</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1834,13 +1832,13 @@
       <c r="A22" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="37">
+      <c r="B22" s="36">
         <v>0.15040000000000001</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="36">
         <v>9.2299999999999993E-2</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1848,13 +1846,13 @@
       <c r="A23" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="37">
+      <c r="B23" s="36">
         <v>0.2162</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="36">
         <v>0.26669999999999999</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1862,13 +1860,13 @@
       <c r="A24" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="37">
+      <c r="B24" s="36">
         <v>8.43E-2</v>
       </c>
-      <c r="C24" s="37">
+      <c r="C24" s="36">
         <v>0.1111</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1876,13 +1874,13 @@
       <c r="A25" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="37">
+      <c r="B25" s="36">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="36">
         <v>3.85E-2</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D25" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1890,13 +1888,13 @@
       <c r="A26" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="37">
+      <c r="B26" s="36">
         <v>0.57530000000000003</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26" s="36">
         <v>-0.1</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1904,13 +1902,13 @@
       <c r="A27" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="37">
+      <c r="B27" s="36">
         <v>0.22450000000000001</v>
       </c>
-      <c r="C27" s="37">
+      <c r="C27" s="36">
         <v>-8.3000000000000001E-3</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1918,13 +1916,13 @@
       <c r="A28" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="37">
+      <c r="B28" s="36">
         <v>0.19570000000000001</v>
       </c>
-      <c r="C28" s="37">
+      <c r="C28" s="36">
         <v>-2.7300000000000001E-2</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1932,13 +1930,13 @@
       <c r="A29" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="37">
+      <c r="B29" s="36">
         <v>-0.25469999999999998</v>
       </c>
-      <c r="C29" s="37">
+      <c r="C29" s="36">
         <v>-6.6699999999999995E-2</v>
       </c>
-      <c r="D29" s="38">
+      <c r="D29" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1946,13 +1944,13 @@
       <c r="A30" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="37">
+      <c r="B30" s="36">
         <v>0.1111</v>
       </c>
-      <c r="C30" s="37">
+      <c r="C30" s="36">
         <v>3.1199999999999999E-2</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D30" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1960,13 +1958,13 @@
       <c r="A31" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="37">
+      <c r="B31" s="36">
         <v>0.25</v>
       </c>
-      <c r="C31" s="37">
+      <c r="C31" s="36">
         <v>3.85E-2</v>
       </c>
-      <c r="D31" s="38">
+      <c r="D31" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1974,13 +1972,13 @@
       <c r="A32" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="37">
+      <c r="B32" s="36">
         <v>0.25580000000000003</v>
       </c>
-      <c r="C32" s="37">
-        <v>0</v>
-      </c>
-      <c r="D32" s="38">
+      <c r="C32" s="36">
+        <v>0</v>
+      </c>
+      <c r="D32" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1988,13 +1986,13 @@
       <c r="A33" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="37">
+      <c r="B33" s="36">
         <v>0.1628</v>
       </c>
-      <c r="C33" s="37">
+      <c r="C33" s="36">
         <v>-0.1</v>
       </c>
-      <c r="D33" s="38">
+      <c r="D33" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2002,13 +2000,13 @@
       <c r="A34" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="37">
+      <c r="B34" s="36">
         <v>0.1321</v>
       </c>
-      <c r="C34" s="37">
+      <c r="C34" s="36">
         <v>-6.6699999999999995E-2</v>
       </c>
-      <c r="D34" s="38">
+      <c r="D34" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2016,13 +2014,13 @@
       <c r="A35" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="37">
+      <c r="B35" s="36">
         <v>0.1258</v>
       </c>
-      <c r="C35" s="37">
+      <c r="C35" s="36">
         <v>-4.1200000000000001E-2</v>
       </c>
-      <c r="D35" s="38">
+      <c r="D35" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2039,7 +2037,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2048,16 +2046,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35">
         <v>2019</v>
       </c>
-      <c r="C1" s="36">
+      <c r="C1" s="35">
         <v>2020</v>
       </c>
-      <c r="D1" s="39">
+      <c r="D1" s="38">
         <v>2021</v>
       </c>
     </row>
@@ -2065,13 +2063,13 @@
       <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="36">
         <v>0.1507</v>
       </c>
-      <c r="C2" s="37">
+      <c r="C2" s="36">
         <v>0.4078</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2079,13 +2077,13 @@
       <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="36">
         <v>0.3528</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="36">
         <v>-0.74990000000000001</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2093,13 +2091,13 @@
       <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="36">
         <v>0.45700000000000002</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="36">
         <v>0.35560000000000003</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2107,13 +2105,13 @@
       <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="36">
         <v>0.18229999999999999</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="36">
         <v>0.20619999999999999</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2121,13 +2119,13 @@
       <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="36">
         <v>0.21</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="36">
         <v>0.46039999999999998</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2135,13 +2133,13 @@
       <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="36">
         <v>0.35930000000000001</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="36">
         <v>0.23880000000000001</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2149,13 +2147,13 @@
       <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="36">
         <v>0.39700000000000002</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="36">
         <v>4.5400000000000003E-2</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2163,13 +2161,13 @@
       <c r="A9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="36">
         <v>0.26379999999999998</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="36">
         <v>0.1105</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2177,13 +2175,13 @@
       <c r="A10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="36">
         <v>0.84409999999999996</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="36">
         <v>0.28050000000000003</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2191,13 +2189,13 @@
       <c r="A11" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="36">
         <v>0.23480000000000001</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="36">
         <v>0.14810000000000001</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2205,13 +2203,13 @@
       <c r="A12" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="37">
+      <c r="B12" s="36">
         <v>0.18720000000000001</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C12" s="36">
         <v>0.48320000000000002</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2219,13 +2217,13 @@
       <c r="A13" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="37">
+      <c r="B13" s="36">
         <v>0.30320000000000003</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="36">
         <v>0.38919999999999999</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2233,13 +2231,13 @@
       <c r="A14" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="37">
+      <c r="B14" s="36">
         <v>0.29520000000000002</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14" s="36">
         <v>0.1178</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2247,13 +2245,13 @@
       <c r="A15" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="37">
+      <c r="B15" s="36">
         <v>0.33939999999999998</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="36">
         <v>8.8700000000000001E-2</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2261,13 +2259,13 @@
       <c r="A16" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="37">
+      <c r="B16" s="36">
         <v>0.45179999999999998</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="36">
         <v>0.215</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2275,13 +2273,13 @@
       <c r="A17" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="37">
+      <c r="B17" s="36">
         <v>4.8399999999999999E-2</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="36">
         <v>0.11310000000000001</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2289,13 +2287,13 @@
       <c r="A18" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="37">
+      <c r="B18" s="36">
         <v>2.8799999999999999E-2</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="36">
         <v>9.4600000000000004E-2</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2303,13 +2301,13 @@
       <c r="A19" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="37">
+      <c r="B19" s="36">
         <v>0.31940000000000002</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C19" s="36">
         <v>0.13300000000000001</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2317,13 +2315,13 @@
       <c r="A20" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="37">
+      <c r="B20" s="36">
         <v>0.24360000000000001</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="36">
         <v>0.11070000000000001</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2331,13 +2329,13 @@
       <c r="A21" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="37">
+      <c r="B21" s="36">
         <v>0.70779999999999998</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="36">
         <v>0.55069999999999997</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2345,13 +2343,13 @@
       <c r="A22" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="37">
+      <c r="B22" s="36">
         <v>0.16009999999999999</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="36">
         <v>0.47410000000000002</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2359,13 +2357,13 @@
       <c r="A23" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="37">
+      <c r="B23" s="36">
         <v>0.16689999999999999</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="36">
         <v>0.1288</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2373,13 +2371,13 @@
       <c r="A24" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="37">
+      <c r="B24" s="36">
         <v>0.55900000000000005</v>
       </c>
-      <c r="C24" s="37">
+      <c r="C24" s="36">
         <v>0.8054</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2387,13 +2385,13 @@
       <c r="A25" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="37">
+      <c r="B25" s="36">
         <v>0.25169999999999998</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="36">
         <v>0.64600000000000002</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D25" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2401,13 +2399,13 @@
       <c r="A26" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="37">
+      <c r="B26" s="36">
         <v>0.37080000000000002</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26" s="36">
         <v>0.32850000000000001</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2415,13 +2413,13 @@
       <c r="A27" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="37">
+      <c r="B27" s="36">
         <v>0.36599999999999999</v>
       </c>
-      <c r="C27" s="37">
+      <c r="C27" s="36">
         <v>0.32940000000000003</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2429,13 +2427,13 @@
       <c r="A28" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="37">
+      <c r="B28" s="36">
         <v>0.13400000000000001</v>
       </c>
-      <c r="C28" s="37">
+      <c r="C28" s="36">
         <v>-1.3899999999999999E-2</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2443,13 +2441,13 @@
       <c r="A29" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="37">
+      <c r="B29" s="36">
         <v>0.34320000000000001</v>
       </c>
-      <c r="C29" s="37">
+      <c r="C29" s="36">
         <v>-0.67210000000000003</v>
       </c>
-      <c r="D29" s="38">
+      <c r="D29" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2457,13 +2455,13 @@
       <c r="A30" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="37">
+      <c r="B30" s="36">
         <v>0.34539999999999998</v>
       </c>
-      <c r="C30" s="37">
+      <c r="C30" s="36">
         <v>0.22040000000000001</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D30" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2471,13 +2469,13 @@
       <c r="A31" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="37">
+      <c r="B31" s="36">
         <v>0.15590000000000001</v>
       </c>
-      <c r="C31" s="37">
+      <c r="C31" s="36">
         <v>0.25</v>
       </c>
-      <c r="D31" s="38">
+      <c r="D31" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2485,13 +2483,13 @@
       <c r="A32" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="37">
+      <c r="B32" s="36">
         <v>0.6704</v>
       </c>
-      <c r="C32" s="37">
+      <c r="C32" s="36">
         <v>0.2762</v>
       </c>
-      <c r="D32" s="38">
+      <c r="D32" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2499,13 +2497,13 @@
       <c r="A33" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="37">
+      <c r="B33" s="36">
         <v>0.29780000000000001</v>
       </c>
-      <c r="C33" s="37">
+      <c r="C33" s="36">
         <v>0.21629999999999999</v>
       </c>
-      <c r="D33" s="38">
+      <c r="D33" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2513,13 +2511,13 @@
       <c r="A34" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="37">
+      <c r="B34" s="36">
         <v>0.34570000000000001</v>
       </c>
-      <c r="C34" s="37">
+      <c r="C34" s="36">
         <v>0.4274</v>
       </c>
-      <c r="D34" s="38">
+      <c r="D34" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2527,13 +2525,13 @@
       <c r="A35" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="37">
+      <c r="B35" s="36">
         <v>0.30819999999999997</v>
       </c>
-      <c r="C35" s="37">
+      <c r="C35" s="36">
         <v>0.52090000000000003</v>
       </c>
-      <c r="D35" s="38">
+      <c r="D35" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2559,16 +2557,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35">
         <v>2019</v>
       </c>
-      <c r="C1" s="36">
+      <c r="C1" s="35">
         <v>2020</v>
       </c>
-      <c r="D1" s="39">
+      <c r="D1" s="38">
         <v>2021</v>
       </c>
     </row>
@@ -2576,13 +2574,13 @@
       <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="36">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="C2" s="37">
+      <c r="C2" s="36">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2590,13 +2588,13 @@
       <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="36">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2604,13 +2602,13 @@
       <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="36">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="36">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2618,13 +2616,13 @@
       <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="36">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="36">
         <v>1.4E-3</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2632,13 +2630,13 @@
       <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="36">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="36">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2646,13 +2644,13 @@
       <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="36">
         <v>1.8E-3</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="36">
         <v>1.5E-3</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2660,13 +2658,13 @@
       <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="36">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="36">
         <v>1.8E-3</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2674,13 +2672,13 @@
       <c r="A9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="36">
         <v>2E-3</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="36">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2688,13 +2686,13 @@
       <c r="A10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="36">
         <v>1.8E-3</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="36">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2702,13 +2700,13 @@
       <c r="A11" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="36">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="36">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2716,13 +2714,13 @@
       <c r="A12" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="37">
+      <c r="B12" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C12" s="36">
         <v>1.5E-3</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2730,13 +2728,13 @@
       <c r="A13" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="37">
+      <c r="B13" s="36">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="36">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2744,13 +2742,13 @@
       <c r="A14" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="37">
+      <c r="B14" s="36">
         <v>1.8E-3</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14" s="36">
         <v>1E-3</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2758,13 +2756,13 @@
       <c r="A15" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="37">
+      <c r="B15" s="36">
         <v>2.8E-3</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="36">
         <v>2.8E-3</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2772,13 +2770,13 @@
       <c r="A16" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="37">
+      <c r="B16" s="36">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="36">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2786,13 +2784,13 @@
       <c r="A17" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="37">
+      <c r="B17" s="36">
         <v>1.4E-3</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="36">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2800,13 +2798,13 @@
       <c r="A18" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="37">
+      <c r="B18" s="36">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="36">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2814,13 +2812,13 @@
       <c r="A19" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="37">
+      <c r="B19" s="36">
         <v>1.9E-3</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C19" s="36">
         <v>1.4E-3</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2828,13 +2826,13 @@
       <c r="A20" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="37">
+      <c r="B20" s="36">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="36">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2842,13 +2840,13 @@
       <c r="A21" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="37">
+      <c r="B21" s="36">
         <v>1.9E-3</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="36">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2856,13 +2854,13 @@
       <c r="A22" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="37">
+      <c r="B22" s="36">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="36">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2870,13 +2868,13 @@
       <c r="A23" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="37">
+      <c r="B23" s="36">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="36">
         <v>1.8E-3</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2884,13 +2882,13 @@
       <c r="A24" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="37">
+      <c r="B24" s="36">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="C24" s="37">
+      <c r="C24" s="36">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2898,13 +2896,13 @@
       <c r="A25" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="37">
+      <c r="B25" s="36">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="36">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D25" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2912,13 +2910,13 @@
       <c r="A26" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="37">
+      <c r="B26" s="36">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26" s="36">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2926,13 +2924,13 @@
       <c r="A27" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="37">
+      <c r="B27" s="36">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="C27" s="37">
+      <c r="C27" s="36">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2940,13 +2938,13 @@
       <c r="A28" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="37">
+      <c r="B28" s="36">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="C28" s="37">
+      <c r="C28" s="36">
         <v>1E-3</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2954,13 +2952,13 @@
       <c r="A29" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="37">
+      <c r="B29" s="36">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="C29" s="37">
+      <c r="C29" s="36">
         <v>2.8E-3</v>
       </c>
-      <c r="D29" s="38">
+      <c r="D29" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2968,13 +2966,13 @@
       <c r="A30" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="37">
+      <c r="B30" s="36">
         <v>2E-3</v>
       </c>
-      <c r="C30" s="37">
+      <c r="C30" s="36">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D30" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2982,13 +2980,13 @@
       <c r="A31" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="37">
+      <c r="B31" s="36">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="C31" s="37">
+      <c r="C31" s="36">
         <v>2E-3</v>
       </c>
-      <c r="D31" s="38">
+      <c r="D31" s="37">
         <v>0</v>
       </c>
     </row>
@@ -2996,13 +2994,13 @@
       <c r="A32" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="37">
+      <c r="B32" s="36">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="C32" s="37">
+      <c r="C32" s="36">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="D32" s="38">
+      <c r="D32" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3010,13 +3008,13 @@
       <c r="A33" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="37">
+      <c r="B33" s="36">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="C33" s="37">
+      <c r="C33" s="36">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="D33" s="38">
+      <c r="D33" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3024,13 +3022,13 @@
       <c r="A34" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="37">
+      <c r="B34" s="36">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="C34" s="37">
+      <c r="C34" s="36">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="D34" s="38">
+      <c r="D34" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3038,13 +3036,13 @@
       <c r="A35" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="37">
+      <c r="B35" s="36">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="C35" s="37">
+      <c r="C35" s="36">
         <v>1.4E-3</v>
       </c>
-      <c r="D35" s="38">
+      <c r="D35" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3079,7 +3077,7 @@
       <c r="C1" s="22">
         <v>2020</v>
       </c>
-      <c r="D1" s="39">
+      <c r="D1" s="38">
         <v>2021</v>
       </c>
     </row>
@@ -3087,13 +3085,13 @@
       <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="30">
         <v>0.97</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="31">
         <v>0.99</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3101,13 +3099,13 @@
       <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="32">
         <v>0.95</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="33">
         <v>0.96</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3115,13 +3113,13 @@
       <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="32">
         <v>0.91</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="33">
         <v>0.93</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3129,13 +3127,13 @@
       <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="32">
         <v>0.96</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="33">
         <v>0.93</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3143,13 +3141,13 @@
       <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="33">
-        <v>1</v>
-      </c>
-      <c r="C6" s="34">
-        <v>1</v>
-      </c>
-      <c r="D6" s="38">
+      <c r="B6" s="32">
+        <v>1</v>
+      </c>
+      <c r="C6" s="33">
+        <v>1</v>
+      </c>
+      <c r="D6" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3157,13 +3155,13 @@
       <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="32">
         <v>0.98</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="33">
         <v>0.93</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3171,13 +3169,13 @@
       <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="32">
         <v>0.89</v>
       </c>
-      <c r="C8" s="34">
-        <v>1</v>
-      </c>
-      <c r="D8" s="38">
+      <c r="C8" s="33">
+        <v>1</v>
+      </c>
+      <c r="D8" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3185,13 +3183,13 @@
       <c r="A9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <v>0.98</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="33">
         <v>0.91</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3199,13 +3197,13 @@
       <c r="A10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="33">
-        <v>1</v>
-      </c>
-      <c r="C10" s="34">
+      <c r="B10" s="32">
+        <v>1</v>
+      </c>
+      <c r="C10" s="33">
         <v>0.94</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3213,13 +3211,13 @@
       <c r="A11" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="32">
         <v>0.97</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="33">
         <v>0.98</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3227,13 +3225,13 @@
       <c r="A12" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="32">
         <v>0.98</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="33">
         <v>0.96</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3241,13 +3239,13 @@
       <c r="A13" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="32">
         <v>0.98</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="33">
         <v>0.99</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3255,13 +3253,13 @@
       <c r="A14" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="33">
-        <v>1</v>
-      </c>
-      <c r="C14" s="34">
+      <c r="B14" s="32">
+        <v>1</v>
+      </c>
+      <c r="C14" s="33">
         <v>0.92</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3269,13 +3267,13 @@
       <c r="A15" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="33">
-        <v>1</v>
-      </c>
-      <c r="C15" s="34">
+      <c r="B15" s="32">
+        <v>1</v>
+      </c>
+      <c r="C15" s="33">
         <v>0.92</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3283,13 +3281,13 @@
       <c r="A16" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="32">
         <v>0.99</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="33">
         <v>0.9</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3297,13 +3295,13 @@
       <c r="A17" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="33">
-        <v>1</v>
-      </c>
-      <c r="C17" s="34">
-        <v>1</v>
-      </c>
-      <c r="D17" s="38">
+      <c r="B17" s="32">
+        <v>1</v>
+      </c>
+      <c r="C17" s="33">
+        <v>1</v>
+      </c>
+      <c r="D17" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3311,13 +3309,13 @@
       <c r="A18" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="33">
-        <v>1</v>
-      </c>
-      <c r="C18" s="34">
-        <v>1</v>
-      </c>
-      <c r="D18" s="38">
+      <c r="B18" s="32">
+        <v>1</v>
+      </c>
+      <c r="C18" s="33">
+        <v>1</v>
+      </c>
+      <c r="D18" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3325,13 +3323,13 @@
       <c r="A19" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="33">
-        <v>1</v>
-      </c>
-      <c r="C19" s="34">
-        <v>1</v>
-      </c>
-      <c r="D19" s="38">
+      <c r="B19" s="32">
+        <v>1</v>
+      </c>
+      <c r="C19" s="33">
+        <v>1</v>
+      </c>
+      <c r="D19" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3339,13 +3337,13 @@
       <c r="A20" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="32">
         <v>0.96</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C20" s="33">
         <v>0.96</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3353,13 +3351,13 @@
       <c r="A21" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="33">
+      <c r="B21" s="32">
         <v>0.97</v>
       </c>
-      <c r="C21" s="34">
-        <v>1</v>
-      </c>
-      <c r="D21" s="38">
+      <c r="C21" s="33">
+        <v>1</v>
+      </c>
+      <c r="D21" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3367,13 +3365,13 @@
       <c r="A22" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="33">
+      <c r="B22" s="32">
         <v>0.92</v>
       </c>
-      <c r="C22" s="34">
-        <v>1</v>
-      </c>
-      <c r="D22" s="38">
+      <c r="C22" s="33">
+        <v>1</v>
+      </c>
+      <c r="D22" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3381,13 +3379,13 @@
       <c r="A23" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="33">
+      <c r="B23" s="32">
         <v>0.99</v>
       </c>
-      <c r="C23" s="34">
-        <v>1</v>
-      </c>
-      <c r="D23" s="38">
+      <c r="C23" s="33">
+        <v>1</v>
+      </c>
+      <c r="D23" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3395,13 +3393,13 @@
       <c r="A24" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="33">
-        <v>1</v>
-      </c>
-      <c r="C24" s="34">
-        <v>1</v>
-      </c>
-      <c r="D24" s="38">
+      <c r="B24" s="32">
+        <v>1</v>
+      </c>
+      <c r="C24" s="33">
+        <v>1</v>
+      </c>
+      <c r="D24" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3409,13 +3407,13 @@
       <c r="A25" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="33">
+      <c r="B25" s="32">
         <v>0.71</v>
       </c>
-      <c r="C25" s="34">
-        <v>1</v>
-      </c>
-      <c r="D25" s="38">
+      <c r="C25" s="33">
+        <v>1</v>
+      </c>
+      <c r="D25" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3423,13 +3421,13 @@
       <c r="A26" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="33">
+      <c r="B26" s="32">
         <v>0.89</v>
       </c>
-      <c r="C26" s="34">
-        <v>1</v>
-      </c>
-      <c r="D26" s="38">
+      <c r="C26" s="33">
+        <v>1</v>
+      </c>
+      <c r="D26" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3437,13 +3435,13 @@
       <c r="A27" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="33">
-        <v>1</v>
-      </c>
-      <c r="C27" s="34">
+      <c r="B27" s="32">
+        <v>1</v>
+      </c>
+      <c r="C27" s="33">
         <v>0.95</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3451,13 +3449,13 @@
       <c r="A28" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="33">
-        <v>1</v>
-      </c>
-      <c r="C28" s="34">
+      <c r="B28" s="32">
+        <v>1</v>
+      </c>
+      <c r="C28" s="33">
         <v>0.91</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3465,13 +3463,13 @@
       <c r="A29" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="33">
+      <c r="B29" s="32">
         <v>0.94</v>
       </c>
-      <c r="C29" s="34">
+      <c r="C29" s="33">
         <v>0.79</v>
       </c>
-      <c r="D29" s="38">
+      <c r="D29" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3479,13 +3477,13 @@
       <c r="A30" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="33">
+      <c r="B30" s="32">
         <v>0.92</v>
       </c>
-      <c r="C30" s="34">
+      <c r="C30" s="33">
         <v>0.97</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D30" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3493,13 +3491,13 @@
       <c r="A31" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="33">
+      <c r="B31" s="32">
         <v>0.96</v>
       </c>
-      <c r="C31" s="34">
+      <c r="C31" s="33">
         <v>0.98</v>
       </c>
-      <c r="D31" s="38">
+      <c r="D31" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3507,13 +3505,13 @@
       <c r="A32" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="33">
+      <c r="B32" s="32">
         <v>0.92</v>
       </c>
-      <c r="C32" s="34">
+      <c r="C32" s="33">
         <v>0.95</v>
       </c>
-      <c r="D32" s="38">
+      <c r="D32" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3521,13 +3519,13 @@
       <c r="A33" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="33">
+      <c r="B33" s="32">
         <v>0.98</v>
       </c>
-      <c r="C33" s="34">
+      <c r="C33" s="33">
         <v>0.95</v>
       </c>
-      <c r="D33" s="38">
+      <c r="D33" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3535,13 +3533,13 @@
       <c r="A34" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="33">
+      <c r="B34" s="32">
         <v>0.96</v>
       </c>
-      <c r="C34" s="34">
-        <v>1</v>
-      </c>
-      <c r="D34" s="38">
+      <c r="C34" s="33">
+        <v>1</v>
+      </c>
+      <c r="D34" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3549,13 +3547,13 @@
       <c r="A35" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="33">
+      <c r="B35" s="32">
         <v>0.97</v>
       </c>
-      <c r="C35" s="34">
+      <c r="C35" s="33">
         <v>0.97</v>
       </c>
-      <c r="D35" s="38">
+      <c r="D35" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3590,7 +3588,7 @@
       <c r="C1" s="22">
         <v>2020</v>
       </c>
-      <c r="D1" s="39">
+      <c r="D1" s="38">
         <v>2021</v>
       </c>
     </row>
@@ -3598,13 +3596,13 @@
       <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="28">
         <v>0.84</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="28">
         <v>0.97</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3612,13 +3610,13 @@
       <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="28">
         <v>0.9</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="28">
         <v>0.99</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3626,13 +3624,13 @@
       <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="28">
         <v>0.93</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="28">
         <v>0.89</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3640,13 +3638,13 @@
       <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="28">
         <v>0.88</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="28">
         <v>0.92</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3654,13 +3652,13 @@
       <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="29">
-        <v>1</v>
-      </c>
-      <c r="C6" s="29">
+      <c r="B6" s="28">
+        <v>1</v>
+      </c>
+      <c r="C6" s="28">
         <v>0.95</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3668,13 +3666,13 @@
       <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="28">
         <v>0.97</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="28">
         <v>0.72</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3682,13 +3680,13 @@
       <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="29">
-        <v>1</v>
-      </c>
-      <c r="C8" s="29">
+      <c r="B8" s="28">
+        <v>1</v>
+      </c>
+      <c r="C8" s="28">
         <v>0.97</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3696,13 +3694,13 @@
       <c r="A9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="28">
         <v>0.89</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="28">
         <v>0.98</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3710,13 +3708,13 @@
       <c r="A10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="29">
-        <v>1</v>
-      </c>
-      <c r="C10" s="29">
+      <c r="B10" s="28">
+        <v>1</v>
+      </c>
+      <c r="C10" s="28">
         <v>0.87</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3724,13 +3722,13 @@
       <c r="A11" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="28">
         <v>0.88</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="28">
         <v>0.85</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3738,13 +3736,13 @@
       <c r="A12" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="28">
         <v>0.9</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="28">
         <v>0.89</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3752,13 +3750,13 @@
       <c r="A13" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="28">
         <v>0.92</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="28">
         <v>0.98</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3766,13 +3764,13 @@
       <c r="A14" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="28">
         <v>0.99</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="28">
         <v>0.99</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3780,13 +3778,13 @@
       <c r="A15" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="28">
         <v>0.95</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="28">
         <v>0.95</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3794,13 +3792,13 @@
       <c r="A16" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="28">
         <v>0.95</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="28">
         <v>0.88</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3808,13 +3806,13 @@
       <c r="A17" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="29">
-        <v>1</v>
-      </c>
-      <c r="C17" s="29">
-        <v>1</v>
-      </c>
-      <c r="D17" s="38">
+      <c r="B17" s="28">
+        <v>1</v>
+      </c>
+      <c r="C17" s="28">
+        <v>1</v>
+      </c>
+      <c r="D17" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3822,13 +3820,13 @@
       <c r="A18" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="28">
         <v>0.96</v>
       </c>
-      <c r="C18" s="29">
-        <v>1</v>
-      </c>
-      <c r="D18" s="38">
+      <c r="C18" s="28">
+        <v>1</v>
+      </c>
+      <c r="D18" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3836,13 +3834,13 @@
       <c r="A19" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="29">
-        <v>1</v>
-      </c>
-      <c r="C19" s="29">
-        <v>1</v>
-      </c>
-      <c r="D19" s="38">
+      <c r="B19" s="28">
+        <v>1</v>
+      </c>
+      <c r="C19" s="28">
+        <v>1</v>
+      </c>
+      <c r="D19" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3850,13 +3848,13 @@
       <c r="A20" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="29">
+      <c r="B20" s="28">
         <v>0.86</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="28">
         <v>0.9</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3864,13 +3862,13 @@
       <c r="A21" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="29">
-        <v>1</v>
-      </c>
-      <c r="C21" s="29">
+      <c r="B21" s="28">
+        <v>1</v>
+      </c>
+      <c r="C21" s="28">
         <v>0.99</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3878,13 +3876,13 @@
       <c r="A22" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="29">
+      <c r="B22" s="28">
         <v>0.8</v>
       </c>
-      <c r="C22" s="29">
-        <v>1</v>
-      </c>
-      <c r="D22" s="38">
+      <c r="C22" s="28">
+        <v>1</v>
+      </c>
+      <c r="D22" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3892,13 +3890,13 @@
       <c r="A23" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="29">
+      <c r="B23" s="28">
         <v>0.89</v>
       </c>
-      <c r="C23" s="29">
-        <v>1</v>
-      </c>
-      <c r="D23" s="38">
+      <c r="C23" s="28">
+        <v>1</v>
+      </c>
+      <c r="D23" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3906,13 +3904,13 @@
       <c r="A24" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="29">
+      <c r="B24" s="28">
         <v>0.8</v>
       </c>
-      <c r="C24" s="29">
-        <v>1</v>
-      </c>
-      <c r="D24" s="38">
+      <c r="C24" s="28">
+        <v>1</v>
+      </c>
+      <c r="D24" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3920,13 +3918,13 @@
       <c r="A25" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B25" s="28">
         <v>0.85</v>
       </c>
-      <c r="C25" s="29">
-        <v>1</v>
-      </c>
-      <c r="D25" s="38">
+      <c r="C25" s="28">
+        <v>1</v>
+      </c>
+      <c r="D25" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3934,13 +3932,13 @@
       <c r="A26" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="29">
-        <v>1</v>
-      </c>
-      <c r="C26" s="29">
+      <c r="B26" s="28">
+        <v>1</v>
+      </c>
+      <c r="C26" s="28">
         <v>0.9</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3948,13 +3946,13 @@
       <c r="A27" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="29">
-        <v>1</v>
-      </c>
-      <c r="C27" s="29">
+      <c r="B27" s="28">
+        <v>1</v>
+      </c>
+      <c r="C27" s="28">
         <v>0.93</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3962,13 +3960,13 @@
       <c r="A28" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="29">
-        <v>1</v>
-      </c>
-      <c r="C28" s="29">
+      <c r="B28" s="28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="28">
         <v>0.97</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3976,13 +3974,13 @@
       <c r="A29" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="29">
+      <c r="B29" s="28">
         <v>0.56999999999999995</v>
       </c>
-      <c r="C29" s="29">
+      <c r="C29" s="28">
         <v>0.92</v>
       </c>
-      <c r="D29" s="38">
+      <c r="D29" s="37">
         <v>0</v>
       </c>
     </row>
@@ -3990,13 +3988,13 @@
       <c r="A30" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="29">
+      <c r="B30" s="28">
         <v>0.81</v>
       </c>
-      <c r="C30" s="29">
+      <c r="C30" s="28">
         <v>0.99</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D30" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4004,13 +4002,13 @@
       <c r="A31" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="29">
-        <v>1</v>
-      </c>
-      <c r="C31" s="29">
+      <c r="B31" s="28">
+        <v>1</v>
+      </c>
+      <c r="C31" s="28">
         <v>0.99</v>
       </c>
-      <c r="D31" s="38">
+      <c r="D31" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4018,13 +4016,13 @@
       <c r="A32" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="29">
+      <c r="B32" s="28">
         <v>0.93</v>
       </c>
-      <c r="C32" s="29">
+      <c r="C32" s="28">
         <v>0.94</v>
       </c>
-      <c r="D32" s="38">
+      <c r="D32" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4032,13 +4030,13 @@
       <c r="A33" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="29">
+      <c r="B33" s="28">
         <v>0.89</v>
       </c>
-      <c r="C33" s="29">
+      <c r="C33" s="28">
         <v>0.86</v>
       </c>
-      <c r="D33" s="38">
+      <c r="D33" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4046,13 +4044,13 @@
       <c r="A34" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="29">
+      <c r="B34" s="28">
         <v>0.86</v>
       </c>
-      <c r="C34" s="29">
+      <c r="C34" s="28">
         <v>0.93</v>
       </c>
-      <c r="D34" s="38">
+      <c r="D34" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4060,13 +4058,13 @@
       <c r="A35" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="29">
+      <c r="B35" s="28">
         <v>0.84</v>
       </c>
-      <c r="C35" s="29">
+      <c r="C35" s="28">
         <v>0.87</v>
       </c>
-      <c r="D35" s="38">
+      <c r="D35" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4101,7 +4099,7 @@
       <c r="C1" s="22">
         <v>2020</v>
       </c>
-      <c r="D1" s="39">
+      <c r="D1" s="38">
         <v>2021</v>
       </c>
     </row>
@@ -4109,13 +4107,13 @@
       <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="30">
         <v>0.7</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="31">
         <v>0.93</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4123,13 +4121,13 @@
       <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="32">
         <v>0.85</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="33">
         <v>0.19</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4137,13 +4135,13 @@
       <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="32">
         <v>0.9</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="33">
         <v>0.86</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4151,13 +4149,13 @@
       <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="32">
         <v>0.87</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="33">
         <v>0.85</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4165,13 +4163,13 @@
       <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="33">
-        <v>1</v>
-      </c>
-      <c r="C6" s="34">
-        <v>1</v>
-      </c>
-      <c r="D6" s="38">
+      <c r="B6" s="32">
+        <v>1</v>
+      </c>
+      <c r="C6" s="33">
+        <v>1</v>
+      </c>
+      <c r="D6" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4179,13 +4177,13 @@
       <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="32">
         <v>0.97</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="33">
         <v>0.82</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4193,13 +4191,13 @@
       <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="33">
-        <v>1</v>
-      </c>
-      <c r="C8" s="34">
-        <v>1</v>
-      </c>
-      <c r="D8" s="38">
+      <c r="B8" s="32">
+        <v>1</v>
+      </c>
+      <c r="C8" s="33">
+        <v>1</v>
+      </c>
+      <c r="D8" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4207,13 +4205,13 @@
       <c r="A9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <v>0.84</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="33">
         <v>0.86</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4221,13 +4219,13 @@
       <c r="A10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="33">
-        <v>1</v>
-      </c>
-      <c r="C10" s="34">
+      <c r="B10" s="32">
+        <v>1</v>
+      </c>
+      <c r="C10" s="33">
         <v>0.77</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4235,13 +4233,13 @@
       <c r="A11" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="32">
         <v>0.86</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="33">
         <v>0.67</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4249,13 +4247,13 @@
       <c r="A12" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="32">
         <v>0.89</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="33">
         <v>0.83</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4263,13 +4261,13 @@
       <c r="A13" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="32">
         <v>0.98</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="33">
         <v>0.87</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4277,13 +4275,13 @@
       <c r="A14" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="32">
         <v>0.98</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="33">
         <v>0.9</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4291,13 +4289,13 @@
       <c r="A15" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="32">
         <v>0.96</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="33">
         <v>0.92</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4305,13 +4303,13 @@
       <c r="A16" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="32">
         <v>0.92</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="33">
         <v>0.83</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4319,13 +4317,13 @@
       <c r="A17" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="33">
-        <v>1</v>
-      </c>
-      <c r="C17" s="34">
-        <v>1</v>
-      </c>
-      <c r="D17" s="38">
+      <c r="B17" s="32">
+        <v>1</v>
+      </c>
+      <c r="C17" s="33">
+        <v>1</v>
+      </c>
+      <c r="D17" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4333,13 +4331,13 @@
       <c r="A18" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="33">
+      <c r="B18" s="32">
         <v>0.85</v>
       </c>
-      <c r="C18" s="34">
-        <v>1</v>
-      </c>
-      <c r="D18" s="38">
+      <c r="C18" s="33">
+        <v>1</v>
+      </c>
+      <c r="D18" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4347,13 +4345,13 @@
       <c r="A19" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="33">
-        <v>1</v>
-      </c>
-      <c r="C19" s="34">
-        <v>1</v>
-      </c>
-      <c r="D19" s="38">
+      <c r="B19" s="32">
+        <v>1</v>
+      </c>
+      <c r="C19" s="33">
+        <v>1</v>
+      </c>
+      <c r="D19" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4361,13 +4359,13 @@
       <c r="A20" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="32">
         <v>0.86</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C20" s="33">
         <v>0.83</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4375,13 +4373,13 @@
       <c r="A21" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="33">
-        <v>1</v>
-      </c>
-      <c r="C21" s="34">
-        <v>1</v>
-      </c>
-      <c r="D21" s="38">
+      <c r="B21" s="32">
+        <v>1</v>
+      </c>
+      <c r="C21" s="33">
+        <v>1</v>
+      </c>
+      <c r="D21" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4389,13 +4387,13 @@
       <c r="A22" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="33">
+      <c r="B22" s="32">
         <v>0.79</v>
       </c>
-      <c r="C22" s="34">
-        <v>1</v>
-      </c>
-      <c r="D22" s="38">
+      <c r="C22" s="33">
+        <v>1</v>
+      </c>
+      <c r="D22" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4403,13 +4401,13 @@
       <c r="A23" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="33">
+      <c r="B23" s="32">
         <v>0.85</v>
       </c>
-      <c r="C23" s="34">
-        <v>1</v>
-      </c>
-      <c r="D23" s="38">
+      <c r="C23" s="33">
+        <v>1</v>
+      </c>
+      <c r="D23" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4417,13 +4415,13 @@
       <c r="A24" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="33">
+      <c r="B24" s="32">
         <v>0.99</v>
       </c>
-      <c r="C24" s="34">
-        <v>1</v>
-      </c>
-      <c r="D24" s="38">
+      <c r="C24" s="33">
+        <v>1</v>
+      </c>
+      <c r="D24" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4431,13 +4429,13 @@
       <c r="A25" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="33">
+      <c r="B25" s="32">
         <v>0.69</v>
       </c>
-      <c r="C25" s="34">
-        <v>1</v>
-      </c>
-      <c r="D25" s="38">
+      <c r="C25" s="33">
+        <v>1</v>
+      </c>
+      <c r="D25" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4445,13 +4443,13 @@
       <c r="A26" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="33">
-        <v>1</v>
-      </c>
-      <c r="C26" s="34">
-        <v>1</v>
-      </c>
-      <c r="D26" s="38">
+      <c r="B26" s="32">
+        <v>1</v>
+      </c>
+      <c r="C26" s="33">
+        <v>1</v>
+      </c>
+      <c r="D26" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4459,13 +4457,13 @@
       <c r="A27" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="33">
-        <v>1</v>
-      </c>
-      <c r="C27" s="34">
+      <c r="B27" s="32">
+        <v>1</v>
+      </c>
+      <c r="C27" s="33">
         <v>0.86</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4473,13 +4471,13 @@
       <c r="A28" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="33">
-        <v>1</v>
-      </c>
-      <c r="C28" s="34">
+      <c r="B28" s="32">
+        <v>1</v>
+      </c>
+      <c r="C28" s="33">
         <v>0.92</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4487,13 +4485,13 @@
       <c r="A29" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="33">
+      <c r="B29" s="32">
         <v>0.86</v>
       </c>
-      <c r="C29" s="34">
+      <c r="C29" s="33">
         <v>0.24</v>
       </c>
-      <c r="D29" s="38">
+      <c r="D29" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4501,13 +4499,13 @@
       <c r="A30" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="33">
+      <c r="B30" s="32">
         <v>0.85</v>
       </c>
-      <c r="C30" s="34">
+      <c r="C30" s="33">
         <v>0.96</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D30" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4515,13 +4513,13 @@
       <c r="A31" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="33">
-        <v>1</v>
-      </c>
-      <c r="C31" s="34">
+      <c r="B31" s="32">
+        <v>1</v>
+      </c>
+      <c r="C31" s="33">
         <v>0.87</v>
       </c>
-      <c r="D31" s="38">
+      <c r="D31" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4529,13 +4527,13 @@
       <c r="A32" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="33">
+      <c r="B32" s="32">
         <v>0.98</v>
       </c>
-      <c r="C32" s="34">
+      <c r="C32" s="33">
         <v>0.84</v>
       </c>
-      <c r="D32" s="38">
+      <c r="D32" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4543,13 +4541,13 @@
       <c r="A33" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="33">
+      <c r="B33" s="32">
         <v>0.84</v>
       </c>
-      <c r="C33" s="34">
+      <c r="C33" s="33">
         <v>0.86</v>
       </c>
-      <c r="D33" s="38">
+      <c r="D33" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4557,13 +4555,13 @@
       <c r="A34" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="33">
+      <c r="B34" s="32">
         <v>0.91</v>
       </c>
-      <c r="C34" s="34">
-        <v>1</v>
-      </c>
-      <c r="D34" s="38">
+      <c r="C34" s="33">
+        <v>1</v>
+      </c>
+      <c r="D34" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4571,13 +4569,13 @@
       <c r="A35" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="33">
+      <c r="B35" s="32">
         <v>0.85</v>
       </c>
-      <c r="C35" s="34">
+      <c r="C35" s="33">
         <v>0.85</v>
       </c>
-      <c r="D35" s="38">
+      <c r="D35" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4593,15 +4591,15 @@
   </sheetPr>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.15234375" style="28" customWidth="1"/>
-    <col min="2" max="3" width="9.23046875" style="28"/>
-    <col min="5" max="16384" width="9.23046875" style="28"/>
+    <col min="1" max="1" width="18.15234375" style="27" customWidth="1"/>
+    <col min="2" max="3" width="9.23046875" style="27"/>
+    <col min="5" max="16384" width="9.23046875" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
@@ -4614,7 +4612,7 @@
       <c r="C1" s="22">
         <v>2020</v>
       </c>
-      <c r="D1" s="39">
+      <c r="D1" s="38">
         <v>2021</v>
       </c>
     </row>
@@ -4622,13 +4620,13 @@
       <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="28">
         <v>0.99719999999999998</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="28">
         <v>0.99719999999999998</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4636,13 +4634,13 @@
       <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="28">
         <v>0.99839999999999995</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="28">
         <v>0.99839999999999995</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4650,13 +4648,13 @@
       <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="28">
         <v>0.99909999999999999</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="28">
         <v>0.99909999999999999</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4664,13 +4662,13 @@
       <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="28">
         <v>0.99819999999999998</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="28">
         <v>0.999</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4678,13 +4676,13 @@
       <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="30">
-        <v>1</v>
-      </c>
-      <c r="C6" s="30">
-        <v>1</v>
-      </c>
-      <c r="D6" s="38">
+      <c r="B6" s="29">
+        <v>1</v>
+      </c>
+      <c r="C6" s="29">
+        <v>1</v>
+      </c>
+      <c r="D6" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4692,13 +4690,13 @@
       <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="28">
         <v>0.99960000000000004</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="28">
         <v>0.99839999999999995</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4706,13 +4704,13 @@
       <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="28">
         <v>0.99990000000000001</v>
       </c>
-      <c r="C8" s="30">
-        <v>1</v>
-      </c>
-      <c r="D8" s="38">
+      <c r="C8" s="29">
+        <v>1</v>
+      </c>
+      <c r="D8" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4720,13 +4718,13 @@
       <c r="A9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="28">
         <v>0.99839999999999995</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="28">
         <v>0.99809999999999999</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4734,13 +4732,13 @@
       <c r="A10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="28">
         <v>0.99990000000000001</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="28">
         <v>0.99809999999999999</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4748,13 +4746,13 @@
       <c r="A11" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="28">
         <v>0.99790000000000001</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="28">
         <v>0.99880000000000002</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4762,13 +4760,13 @@
       <c r="A12" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="28">
         <v>0.99819999999999998</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="28">
         <v>0.99819999999999998</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4776,13 +4774,13 @@
       <c r="A13" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="28">
         <v>0.99970000000000003</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="28">
         <v>0.99950000000000006</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4790,13 +4788,13 @@
       <c r="A14" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="28">
         <v>0.99829999999999997</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="28">
         <v>0.99850000000000005</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4804,13 +4802,13 @@
       <c r="A15" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="28">
         <v>0.99939999999999996</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="28">
         <v>0.99909999999999999</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4818,13 +4816,13 @@
       <c r="A16" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="28">
         <v>0.99890000000000001</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="28">
         <v>0.99850000000000005</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4832,13 +4830,13 @@
       <c r="A17" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="29">
         <v>1.0001</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="28">
         <v>0.99990000000000001</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4846,13 +4844,13 @@
       <c r="A18" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="30">
-        <v>1</v>
-      </c>
-      <c r="C18" s="29">
+      <c r="B18" s="29">
+        <v>1</v>
+      </c>
+      <c r="C18" s="28">
         <v>0.99990000000000001</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4860,13 +4858,13 @@
       <c r="A19" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="30">
-        <v>1</v>
-      </c>
-      <c r="C19" s="30">
+      <c r="B19" s="29">
+        <v>1</v>
+      </c>
+      <c r="C19" s="29">
         <v>1.0001</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4874,13 +4872,13 @@
       <c r="A20" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="29">
+      <c r="B20" s="28">
         <v>0.998</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="28">
         <v>0.99860000000000004</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4888,13 +4886,13 @@
       <c r="A21" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="30">
+      <c r="B21" s="29">
         <v>1.0001</v>
       </c>
-      <c r="C21" s="30">
-        <v>1</v>
-      </c>
-      <c r="D21" s="38">
+      <c r="C21" s="29">
+        <v>1</v>
+      </c>
+      <c r="D21" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4902,13 +4900,13 @@
       <c r="A22" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="29">
+      <c r="B22" s="28">
         <v>0.99839999999999995</v>
       </c>
-      <c r="C22" s="30">
+      <c r="C22" s="29">
         <v>1.0001</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4916,13 +4914,13 @@
       <c r="A23" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="29">
+      <c r="B23" s="28">
         <v>0.99809999999999999</v>
       </c>
-      <c r="C23" s="30">
-        <v>1</v>
-      </c>
-      <c r="D23" s="38">
+      <c r="C23" s="29">
+        <v>1</v>
+      </c>
+      <c r="D23" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4930,13 +4928,13 @@
       <c r="A24" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="29">
+      <c r="B24" s="28">
         <v>0.99890000000000001</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="28">
         <v>0.99990000000000001</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4944,13 +4942,13 @@
       <c r="A25" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B25" s="28">
         <v>0.99850000000000005</v>
       </c>
-      <c r="C25" s="30">
-        <v>1</v>
-      </c>
-      <c r="D25" s="38">
+      <c r="C25" s="29">
+        <v>1</v>
+      </c>
+      <c r="D25" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4958,13 +4956,13 @@
       <c r="A26" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="30">
+      <c r="B26" s="29">
         <v>1.0001</v>
       </c>
-      <c r="C26" s="30">
-        <v>1</v>
-      </c>
-      <c r="D26" s="38">
+      <c r="C26" s="29">
+        <v>1</v>
+      </c>
+      <c r="D26" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4972,13 +4970,13 @@
       <c r="A27" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="30">
+      <c r="B27" s="29">
         <v>1.0001</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C27" s="28">
         <v>0.99870000000000003</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4986,13 +4984,13 @@
       <c r="A28" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="30">
-        <v>1</v>
-      </c>
-      <c r="C28" s="29">
+      <c r="B28" s="29">
+        <v>1</v>
+      </c>
+      <c r="C28" s="28">
         <v>0.99929999999999997</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28" s="37">
         <v>0</v>
       </c>
     </row>
@@ -5000,13 +4998,13 @@
       <c r="A29" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="29">
+      <c r="B29" s="28">
         <v>0.99839999999999995</v>
       </c>
-      <c r="C29" s="29">
+      <c r="C29" s="28">
         <v>0.99819999999999998</v>
       </c>
-      <c r="D29" s="38">
+      <c r="D29" s="37">
         <v>0</v>
       </c>
     </row>
@@ -5014,13 +5012,13 @@
       <c r="A30" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="29">
+      <c r="B30" s="28">
         <v>0.99860000000000004</v>
       </c>
-      <c r="C30" s="29">
+      <c r="C30" s="28">
         <v>0.99950000000000006</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D30" s="37">
         <v>0</v>
       </c>
     </row>
@@ -5028,13 +5026,13 @@
       <c r="A31" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="30">
-        <v>1</v>
-      </c>
-      <c r="C31" s="29">
+      <c r="B31" s="29">
+        <v>1</v>
+      </c>
+      <c r="C31" s="28">
         <v>0.99929999999999997</v>
       </c>
-      <c r="D31" s="38">
+      <c r="D31" s="37">
         <v>0</v>
       </c>
     </row>
@@ -5042,13 +5040,13 @@
       <c r="A32" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="29">
+      <c r="B32" s="28">
         <v>0.99990000000000001</v>
       </c>
-      <c r="C32" s="29">
+      <c r="C32" s="28">
         <v>0.99839999999999995</v>
       </c>
-      <c r="D32" s="38">
+      <c r="D32" s="37">
         <v>0</v>
       </c>
     </row>
@@ -5056,13 +5054,13 @@
       <c r="A33" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="29">
+      <c r="B33" s="28">
         <v>0.99809999999999999</v>
       </c>
-      <c r="C33" s="29">
+      <c r="C33" s="28">
         <v>0.99839999999999995</v>
       </c>
-      <c r="D33" s="38">
+      <c r="D33" s="37">
         <v>0</v>
       </c>
     </row>
@@ -5070,13 +5068,13 @@
       <c r="A34" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="29">
+      <c r="B34" s="28">
         <v>0.999</v>
       </c>
-      <c r="C34" s="30">
-        <v>1</v>
-      </c>
-      <c r="D34" s="38">
+      <c r="C34" s="29">
+        <v>1</v>
+      </c>
+      <c r="D34" s="37">
         <v>0</v>
       </c>
     </row>
@@ -5084,13 +5082,13 @@
       <c r="A35" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="29">
+      <c r="B35" s="28">
         <v>0.99850000000000005</v>
       </c>
-      <c r="C35" s="29">
+      <c r="C35" s="28">
         <v>0.99860000000000004</v>
       </c>
-      <c r="D35" s="38">
+      <c r="D35" s="37">
         <v>0</v>
       </c>
     </row>
@@ -5107,508 +5105,510 @@
   </sheetPr>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="1" max="1" width="20.4609375" customWidth="1"/>
     <col min="2" max="3" width="12.53515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.23046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39">
         <v>2019</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="39">
         <v>2020</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="39">
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="36">
         <v>3.2899999999999999E-2</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="36">
         <v>3.4299999999999997E-2</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="36">
         <v>3.3799999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="36">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="36">
         <v>4.1799999999999997E-2</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="36">
         <v>4.3900000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="36">
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="36">
         <v>4.2799999999999998E-2</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="36">
         <v>4.1300000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="36">
         <v>4.7800000000000002E-2</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="36">
         <v>0.05</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="36">
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="36">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="36">
         <v>7.7100000000000002E-2</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="36">
         <v>7.7200000000000005E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="36">
         <v>2.76E-2</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="36">
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="36">
         <v>3.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="36">
         <v>5.2600000000000001E-2</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="36">
         <v>5.3600000000000002E-2</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="36">
         <v>5.3699999999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="36">
         <v>5.6099999999999997E-2</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="36">
         <v>6.1899999999999997E-2</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="36">
         <v>5.7099999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="36">
         <v>3.6600000000000001E-2</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="36">
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="36">
         <v>3.8600000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="36">
         <v>4.9200000000000001E-2</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="36">
         <v>5.04E-2</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="36">
         <v>4.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="36">
         <v>4.3700000000000003E-2</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="36">
         <v>4.8099999999999997E-2</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="36">
         <v>4.6199999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="36">
         <v>2.52E-2</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="36">
         <v>2.5100000000000001E-2</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="36">
         <v>2.4799999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="36">
         <v>2.86E-2</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="36">
         <v>3.1099999999999999E-2</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="36">
         <v>3.09E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="36">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="36">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="36">
         <v>2.23E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="36">
         <v>1.41E-2</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="36">
         <v>1.6E-2</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="36">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="36">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="36">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="36">
         <v>9.4999999999999998E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="36">
         <v>3.1399999999999997E-2</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="36">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="36">
         <v>2.9600000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="36">
         <v>4.0099999999999997E-2</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="36">
         <v>4.2900000000000001E-2</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="36">
         <v>4.1200000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="36">
         <v>4.2700000000000002E-2</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="36">
         <v>4.5900000000000003E-2</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="36">
         <v>4.5400000000000003E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="27">
+      <c r="B21" s="36">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="36">
         <v>7.8200000000000006E-2</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="36">
         <v>7.4099999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="27">
+      <c r="B22" s="36">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="36">
         <v>3.8399999999999997E-2</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="36">
         <v>3.3300000000000003E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="36">
         <v>6.2100000000000002E-2</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="36">
         <v>6.2899999999999998E-2</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="36">
         <v>6.3299999999999995E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="27">
+      <c r="B24" s="36">
         <v>5.2400000000000002E-2</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="36">
         <v>5.67E-2</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="36">
         <v>5.4899999999999997E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="27">
+      <c r="B25" s="36">
         <v>2.0899999999999998E-2</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="36">
         <v>2.1499999999999998E-2</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="36">
         <v>2.1899999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="27">
+      <c r="B26" s="36">
         <v>1.54E-2</v>
       </c>
-      <c r="C26" s="27">
+      <c r="C26" s="36">
         <v>1.7899999999999999E-2</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="36">
         <v>2.01E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="27">
+      <c r="B27" s="36">
         <v>2.0400000000000001E-2</v>
       </c>
-      <c r="C27" s="27">
+      <c r="C27" s="36">
         <v>2.3599999999999999E-2</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D27" s="36">
         <v>2.1899999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="27">
+      <c r="B28" s="36">
         <v>3.2399999999999998E-2</v>
       </c>
-      <c r="C28" s="27">
+      <c r="C28" s="36">
         <v>3.3399999999999999E-2</v>
       </c>
-      <c r="D28" s="27">
+      <c r="D28" s="36">
         <v>3.2099999999999997E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="27">
+      <c r="B29" s="36">
         <v>5.7099999999999998E-2</v>
       </c>
-      <c r="C29" s="27">
+      <c r="C29" s="36">
         <v>6.6299999999999998E-2</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D29" s="36">
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="27">
+      <c r="B30" s="36">
         <v>3.61E-2</v>
       </c>
-      <c r="C30" s="27">
+      <c r="C30" s="36">
         <v>3.44E-2</v>
       </c>
-      <c r="D30" s="27">
+      <c r="D30" s="36">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="27">
+      <c r="B31" s="36">
         <v>4.0099999999999997E-2</v>
       </c>
-      <c r="C31" s="27">
+      <c r="C31" s="36">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="D31" s="27">
+      <c r="D31" s="36">
         <v>4.1399999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="27">
+      <c r="B32" s="36">
         <v>3.5700000000000003E-2</v>
       </c>
-      <c r="C32" s="27">
+      <c r="C32" s="36">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="D32" s="27">
+      <c r="D32" s="36">
         <v>3.8100000000000002E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="27">
+      <c r="B33" s="36">
         <v>4.5600000000000002E-2</v>
       </c>
-      <c r="C33" s="27">
+      <c r="C33" s="36">
         <v>4.9399999999999999E-2</v>
       </c>
-      <c r="D33" s="27">
+      <c r="D33" s="36">
         <v>5.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="27">
+      <c r="B34" s="36">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C34" s="36">
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="D34" s="27">
+      <c r="D34" s="36">
         <v>4.6300000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="27">
+      <c r="B35" s="36">
         <v>3.8800000000000001E-2</v>
       </c>
-      <c r="C35" s="27">
+      <c r="C35" s="36">
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="D35" s="27">
+      <c r="D35" s="36">
         <v>3.7600000000000001E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6854,7 +6854,7 @@
   </sheetPr>
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -9028,16 +9028,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35">
         <v>2019</v>
       </c>
-      <c r="C1" s="36">
+      <c r="C1" s="35">
         <v>2020</v>
       </c>
-      <c r="D1" s="39">
+      <c r="D1" s="38">
         <v>2021</v>
       </c>
     </row>
@@ -9045,13 +9045,13 @@
       <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="36">
         <v>-1.11E-2</v>
       </c>
-      <c r="C2" s="37">
+      <c r="C2" s="36">
         <v>2.41E-2</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="37">
         <v>0</v>
       </c>
     </row>
@@ -9059,13 +9059,13 @@
       <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="36">
         <v>-3.9100000000000003E-2</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="36">
         <v>4.2700000000000002E-2</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="37">
         <v>0</v>
       </c>
     </row>
@@ -9073,13 +9073,13 @@
       <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="36">
         <v>-8.4599999999999995E-2</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="36">
         <v>0.12690000000000001</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="37">
         <v>0</v>
       </c>
     </row>
@@ -9087,13 +9087,13 @@
       <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="36">
         <v>-3.5999999999999999E-3</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="36">
         <v>7.1599999999999997E-2</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="37">
         <v>0</v>
       </c>
     </row>
@@ -9101,13 +9101,13 @@
       <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="36">
         <v>-8.3000000000000001E-3</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="36">
         <v>2.24E-2</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="37">
         <v>0</v>
       </c>
     </row>
@@ -9115,13 +9115,13 @@
       <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="36">
         <v>-8.6E-3</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="36">
         <v>6.5699999999999995E-2</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="37">
         <v>0</v>
       </c>
     </row>
@@ -9129,13 +9129,13 @@
       <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="36">
         <v>-0.1193</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="36">
         <v>0.16650000000000001</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="37">
         <v>0</v>
       </c>
     </row>
@@ -9143,13 +9143,13 @@
       <c r="A9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="36">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="36">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="37">
         <v>0</v>
       </c>
     </row>
@@ -9157,13 +9157,13 @@
       <c r="A10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="36">
         <v>2.0400000000000001E-2</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="36">
         <v>3.61E-2</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="37">
         <v>0</v>
       </c>
     </row>
@@ -9171,13 +9171,13 @@
       <c r="A11" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="36">
         <v>-2.3999999999999998E-3</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="36">
         <v>2.9100000000000001E-2</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="37">
         <v>0</v>
       </c>
     </row>
@@ -9185,13 +9185,13 @@
       <c r="A12" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="37">
+      <c r="B12" s="36">
         <v>2.7300000000000001E-2</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C12" s="36">
         <v>6.4199999999999993E-2</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="37">
         <v>0</v>
       </c>
     </row>
@@ -9199,13 +9199,13 @@
       <c r="A13" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="37">
+      <c r="B13" s="36">
         <v>1.26E-2</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="36">
         <v>4.7699999999999999E-2</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="37">
         <v>0</v>
       </c>
     </row>
@@ -9213,13 +9213,13 @@
       <c r="A14" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="37">
+      <c r="B14" s="36">
         <v>4.9299999999999997E-2</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14" s="36">
         <v>7.4800000000000005E-2</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="37">
         <v>0</v>
       </c>
     </row>
@@ -9227,13 +9227,13 @@
       <c r="A15" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="37">
+      <c r="B15" s="36">
         <v>-1.24E-2</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="36">
         <v>7.1900000000000006E-2</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="37">
         <v>0</v>
       </c>
     </row>
@@ -9241,13 +9241,13 @@
       <c r="A16" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="37">
+      <c r="B16" s="36">
         <v>2.3199999999999998E-2</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="36">
         <v>9.5799999999999996E-2</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="37">
         <v>0</v>
       </c>
     </row>
@@ -9255,13 +9255,13 @@
       <c r="A17" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="37">
+      <c r="B17" s="36">
         <v>6.54E-2</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="36">
         <v>5.0599999999999999E-2</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="37">
         <v>0</v>
       </c>
     </row>
@@ -9269,13 +9269,13 @@
       <c r="A18" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="37">
+      <c r="B18" s="36">
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="36">
         <v>9.8699999999999996E-2</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="37">
         <v>0</v>
       </c>
     </row>
@@ -9283,13 +9283,13 @@
       <c r="A19" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="37">
+      <c r="B19" s="36">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C19" s="36">
         <v>8.8499999999999995E-2</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="37">
         <v>0</v>
       </c>
     </row>
@@ -9297,13 +9297,13 @@
       <c r="A20" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="37">
+      <c r="B20" s="36">
         <v>-1.0200000000000001E-2</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="36">
         <v>4.9399999999999999E-2</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="37">
         <v>0</v>
       </c>
     </row>
@@ -9311,13 +9311,13 @@
       <c r="A21" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="37">
+      <c r="B21" s="36">
         <v>-3.8899999999999997E-2</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="36">
         <v>6.93E-2</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="37">
         <v>0</v>
       </c>
     </row>
@@ -9325,13 +9325,13 @@
       <c r="A22" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="37">
+      <c r="B22" s="36">
         <v>-7.5300000000000006E-2</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="36">
         <v>0.16170000000000001</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="37">
         <v>0</v>
       </c>
     </row>
@@ -9339,13 +9339,13 @@
       <c r="A23" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="37">
+      <c r="B23" s="36">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="36">
         <v>1.54E-2</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="37">
         <v>0</v>
       </c>
     </row>
@@ -9353,13 +9353,13 @@
       <c r="A24" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="37">
+      <c r="B24" s="36">
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="C24" s="37">
+      <c r="C24" s="36">
         <v>2.93E-2</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="37">
         <v>0</v>
       </c>
     </row>
@@ -9367,13 +9367,13 @@
       <c r="A25" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="37">
+      <c r="B25" s="36">
         <v>-0.27679999999999999</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="36">
         <v>0.53149999999999997</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D25" s="37">
         <v>0</v>
       </c>
     </row>
@@ -9381,13 +9381,13 @@
       <c r="A26" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="37">
+      <c r="B26" s="36">
         <v>-0.1343</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26" s="36">
         <v>3.0300000000000001E-2</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="37">
         <v>0</v>
       </c>
     </row>
@@ -9395,13 +9395,13 @@
       <c r="A27" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="37">
+      <c r="B27" s="36">
         <v>3.9E-2</v>
       </c>
-      <c r="C27" s="37">
+      <c r="C27" s="36">
         <v>6.25E-2</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="37">
         <v>0</v>
       </c>
     </row>
@@ -9409,13 +9409,13 @@
       <c r="A28" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="37">
+      <c r="B28" s="36">
         <v>-9.5999999999999992E-3</v>
       </c>
-      <c r="C28" s="37">
+      <c r="C28" s="36">
         <v>3.5799999999999998E-2</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28" s="37">
         <v>0</v>
       </c>
     </row>
@@ -9423,13 +9423,13 @@
       <c r="A29" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="37">
+      <c r="B29" s="36">
         <v>-3.6499999999999998E-2</v>
       </c>
-      <c r="C29" s="37">
+      <c r="C29" s="36">
         <v>3.49E-2</v>
       </c>
-      <c r="D29" s="38">
+      <c r="D29" s="37">
         <v>0</v>
       </c>
     </row>
@@ -9437,13 +9437,13 @@
       <c r="A30" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="37">
+      <c r="B30" s="36">
         <v>-7.0999999999999994E-2</v>
       </c>
-      <c r="C30" s="37">
+      <c r="C30" s="36">
         <v>0.14430000000000001</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D30" s="37">
         <v>0</v>
       </c>
     </row>
@@ -9451,13 +9451,13 @@
       <c r="A31" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="37">
+      <c r="B31" s="36">
         <v>-5.6500000000000002E-2</v>
       </c>
-      <c r="C31" s="37">
+      <c r="C31" s="36">
         <v>5.8200000000000002E-2</v>
       </c>
-      <c r="D31" s="38">
+      <c r="D31" s="37">
         <v>0</v>
       </c>
     </row>
@@ -9465,13 +9465,13 @@
       <c r="A32" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="37">
+      <c r="B32" s="36">
         <v>-6.5600000000000006E-2</v>
       </c>
-      <c r="C32" s="37">
+      <c r="C32" s="36">
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="D32" s="38">
+      <c r="D32" s="37">
         <v>0</v>
       </c>
     </row>
@@ -9479,13 +9479,13 @@
       <c r="A33" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="37">
+      <c r="B33" s="36">
         <v>-2E-3</v>
       </c>
-      <c r="C33" s="37">
+      <c r="C33" s="36">
         <v>4.3499999999999997E-2</v>
       </c>
-      <c r="D33" s="38">
+      <c r="D33" s="37">
         <v>0</v>
       </c>
     </row>
@@ -9493,13 +9493,13 @@
       <c r="A34" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="37">
+      <c r="B34" s="36">
         <v>-1.15E-2</v>
       </c>
-      <c r="C34" s="37">
+      <c r="C34" s="36">
         <v>8.0299999999999996E-2</v>
       </c>
-      <c r="D34" s="38">
+      <c r="D34" s="37">
         <v>0</v>
       </c>
     </row>
@@ -9507,13 +9507,13 @@
       <c r="A35" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="37">
+      <c r="B35" s="36">
         <v>-7.3000000000000001E-3</v>
       </c>
-      <c r="C35" s="37">
+      <c r="C35" s="36">
         <v>5.21E-2</v>
       </c>
-      <c r="D35" s="38">
+      <c r="D35" s="37">
         <v>0</v>
       </c>
     </row>

--- a/data/data_true.xlsx
+++ b/data/data_true.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nanda\Documents\Erwin\My Working\Code Programming\GitHub\fhas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BF1A25-8C89-42A8-82DC-6BE49D5F1A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A69AF4F-C279-49B3-AB6F-2E8C133E6F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="10577" tabRatio="763" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="10577" tabRatio="763" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PDRB_per_Kapita" sheetId="7" r:id="rId1"/>
+    <sheet name="Pendapatan_per_Kapita_per_bulan" sheetId="7" r:id="rId1"/>
     <sheet name="Anggaran_Kesehatan_per_Kapita" sheetId="11" r:id="rId2"/>
     <sheet name="Anggaran_Kesehatan" sheetId="2" r:id="rId3"/>
     <sheet name="Cakupan_JKN" sheetId="3" r:id="rId4"/>
@@ -160,19 +160,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -233,6 +228,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -260,7 +262,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -371,21 +373,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -394,7 +426,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -403,82 +435,97 @@
     <xf numFmtId="4" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Comma [0] 2" xfId="2" xr:uid="{1AD2B53B-7EA4-4400-B9A6-59AC090BACCC}"/>
+    <cellStyle name="Currency [0] 2" xfId="3" xr:uid="{41928125-E4E1-49AE-B69D-7BF4F014F7DB}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
@@ -795,726 +842,621 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="21.07421875" style="13" customWidth="1"/>
-    <col min="2" max="3" width="21.3046875" customWidth="1"/>
-    <col min="4" max="4" width="21.23046875" customWidth="1"/>
-    <col min="5" max="5" width="20.23046875" customWidth="1"/>
-    <col min="6" max="6" width="20.84375" customWidth="1"/>
+    <col min="2" max="3" width="21.3046875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="21.23046875" style="36" customWidth="1"/>
+    <col min="5" max="5" width="20.23046875" style="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12">
-        <v>2017</v>
-      </c>
-      <c r="C1" s="12">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41">
         <v>2018</v>
       </c>
-      <c r="D1" s="12">
+      <c r="C1" s="41">
         <v>2019</v>
       </c>
-      <c r="E1" s="12">
+      <c r="D1" s="41">
         <v>2020</v>
       </c>
-      <c r="F1" s="12">
+      <c r="E1" s="41">
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="20">
-        <v>155910977000000</v>
-      </c>
-      <c r="C2" s="20">
-        <v>164162978200000</v>
-      </c>
-      <c r="D2" s="20">
-        <v>166372320700000</v>
-      </c>
-      <c r="E2" s="20">
-        <v>184976301600000</v>
-      </c>
-      <c r="F2" s="20">
-        <v>487826762000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="42">
+        <v>2460104.1666666665</v>
+      </c>
+      <c r="C2" s="42">
+        <v>2573255</v>
+      </c>
+      <c r="D2" s="42">
+        <v>2636115</v>
+      </c>
+      <c r="E2" s="42">
+        <v>2890038.3333333335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20">
-        <v>233636772700000</v>
-      </c>
-      <c r="C3" s="20">
-        <v>251934097800000</v>
-      </c>
-      <c r="D3" s="20">
-        <v>223900894600000</v>
-      </c>
-      <c r="E3" s="20">
-        <v>219800030500000</v>
-      </c>
-      <c r="F3" s="20">
-        <v>735885780000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
+      <c r="B3" s="42">
+        <v>4536121.666666667</v>
+      </c>
+      <c r="C3" s="42">
+        <v>4812996.666666667</v>
+      </c>
+      <c r="D3" s="42">
+        <v>4328341.666666667</v>
+      </c>
+      <c r="E3" s="42">
+        <v>4198434.166666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="20">
-        <v>613804414400000</v>
-      </c>
-      <c r="C4" s="20">
-        <v>661321340800000</v>
-      </c>
-      <c r="D4" s="20">
-        <v>625979345100000</v>
-      </c>
-      <c r="E4" s="20">
-        <v>665921915500000</v>
-      </c>
-      <c r="F4" s="20">
-        <v>2281636409000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+      <c r="B4" s="42">
+        <v>4030845.8333333335</v>
+      </c>
+      <c r="C4" s="42">
+        <v>4334499.166666667</v>
+      </c>
+      <c r="D4" s="42">
+        <v>4394705.833333333</v>
+      </c>
+      <c r="E4" s="42">
+        <v>4600887.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="20">
-        <v>66402993050000</v>
-      </c>
-      <c r="C5" s="20">
-        <v>72098240450000</v>
-      </c>
-      <c r="D5" s="20">
-        <v>73305267040000</v>
-      </c>
-      <c r="E5" s="20">
-        <v>79576326260000</v>
-      </c>
-      <c r="F5" s="20">
-        <v>298225841000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
+      <c r="B5" s="42">
+        <v>2818510.8333333335</v>
+      </c>
+      <c r="C5" s="42">
+        <v>3047107.5</v>
+      </c>
+      <c r="D5" s="42">
+        <v>3046041.6666666665</v>
+      </c>
+      <c r="E5" s="42">
+        <v>3261952.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="20">
-        <v>129818357900000</v>
-      </c>
-      <c r="C6" s="20">
-        <v>141047688000000</v>
-      </c>
-      <c r="D6" s="20">
-        <v>138306833300000.02</v>
-      </c>
-      <c r="E6" s="20">
-        <v>149369169100000</v>
-      </c>
-      <c r="F6" s="20">
-        <v>891936631000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="42">
+        <v>2844744.1666666665</v>
+      </c>
+      <c r="C6" s="42">
+        <v>3038310.8333333335</v>
+      </c>
+      <c r="D6" s="42">
+        <v>3145435</v>
+      </c>
+      <c r="E6" s="42">
+        <v>3352485.8333333335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="20">
-        <v>2592606572000000</v>
-      </c>
-      <c r="C7" s="20">
-        <v>2815636157000000</v>
-      </c>
-      <c r="D7" s="20">
-        <v>2768189733000000</v>
-      </c>
-      <c r="E7" s="20">
-        <v>2914581083000000</v>
-      </c>
-      <c r="F7" s="20">
-        <v>6786069438000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
+      <c r="B7" s="42">
+        <v>20639874.166666668</v>
+      </c>
+      <c r="C7" s="42">
+        <v>22337687.5</v>
+      </c>
+      <c r="D7" s="42">
+        <v>21891843.333333332</v>
+      </c>
+      <c r="E7" s="42">
+        <v>22892465.833333332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="20">
-        <v>37731386370000</v>
-      </c>
-      <c r="C8" s="20">
-        <v>41145449910000</v>
-      </c>
-      <c r="D8" s="20">
-        <v>41729772040000</v>
-      </c>
-      <c r="E8" s="20">
-        <v>43896365580000</v>
-      </c>
-      <c r="F8" s="20">
-        <v>170567309000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
+      <c r="B8" s="42">
+        <v>2652301.6666666665</v>
+      </c>
+      <c r="C8" s="42">
+        <v>2914720.8333333335</v>
+      </c>
+      <c r="D8" s="42">
+        <v>2974430.8333333335</v>
+      </c>
+      <c r="E8" s="42">
+        <v>3097537.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="20">
-        <v>207878694300000</v>
-      </c>
-      <c r="C9" s="20">
-        <v>216927708200000</v>
-      </c>
-      <c r="D9" s="20">
-        <v>206242611000000</v>
-      </c>
-      <c r="E9" s="20">
-        <v>233725458600000</v>
-      </c>
-      <c r="F9" s="20">
-        <v>995507958000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
+      <c r="B9" s="42">
+        <v>4666005.833333333</v>
+      </c>
+      <c r="C9" s="42">
+        <v>4943159.166666667</v>
+      </c>
+      <c r="D9" s="42">
+        <v>4772483.333333333</v>
+      </c>
+      <c r="E9" s="42">
+        <v>5186370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="20">
-        <v>1960627652000000</v>
-      </c>
-      <c r="C10" s="20">
-        <v>2123153711000000</v>
-      </c>
-      <c r="D10" s="20">
-        <v>2084620246000000</v>
-      </c>
-      <c r="E10" s="20">
-        <v>2209822384000000</v>
-      </c>
-      <c r="F10" s="20">
-        <v>6485781610000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
+      <c r="B10" s="42">
+        <v>4852074.166666667</v>
+      </c>
+      <c r="C10" s="42">
+        <v>5069071.666666667</v>
+      </c>
+      <c r="D10" s="42">
+        <v>4857144.166666667</v>
+      </c>
+      <c r="E10" s="42">
+        <v>5432768.333333333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="20">
-        <v>1268261166000000</v>
-      </c>
-      <c r="C11" s="20">
-        <v>1360960131000000</v>
-      </c>
-      <c r="D11" s="20">
-        <v>1347922689000000</v>
-      </c>
-      <c r="E11" s="20">
-        <v>1420799908000000</v>
-      </c>
-      <c r="F11" s="20">
-        <v>5646290705000000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
+      <c r="B11" s="42">
+        <v>3356053.3333333335</v>
+      </c>
+      <c r="C11" s="42">
+        <v>3609099.1666666665</v>
+      </c>
+      <c r="D11" s="42">
+        <v>3607391.6666666665</v>
+      </c>
+      <c r="E11" s="42">
+        <v>3774965</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="20">
-        <v>2188766345000000</v>
-      </c>
-      <c r="C12" s="20">
-        <v>2345548552000000</v>
-      </c>
-      <c r="D12" s="20">
-        <v>2299791052000000</v>
-      </c>
-      <c r="E12" s="20">
-        <v>2454498796000000</v>
-      </c>
-      <c r="F12" s="20">
-        <v>8889510587000000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
+      <c r="B12" s="42">
+        <v>3064246.6666666665</v>
+      </c>
+      <c r="C12" s="42">
+        <v>3282345.8333333335</v>
+      </c>
+      <c r="D12" s="42">
+        <v>3081999.1666666665</v>
+      </c>
+      <c r="E12" s="42">
+        <v>3222425.8333333335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="20">
-        <v>194138220800000</v>
-      </c>
-      <c r="C13" s="20">
-        <v>212150332200000</v>
-      </c>
-      <c r="D13" s="20">
-        <v>214001753700000</v>
-      </c>
-      <c r="E13" s="20">
-        <v>231321163300000</v>
-      </c>
-      <c r="F13" s="20">
-        <v>451572532000000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
+      <c r="B13" s="42">
+        <v>4617550.833333333</v>
+      </c>
+      <c r="C13" s="42">
+        <v>4917930.833333333</v>
+      </c>
+      <c r="D13" s="42">
+        <v>4720034.166666667</v>
+      </c>
+      <c r="E13" s="42">
+        <v>5003610.833333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="20">
-        <v>171684055900000</v>
-      </c>
-      <c r="C14" s="20">
-        <v>180557639200000</v>
-      </c>
-      <c r="D14" s="20">
-        <v>179094106600000</v>
-      </c>
-      <c r="E14" s="20">
-        <v>192576581200000</v>
-      </c>
-      <c r="F14" s="20">
-        <v>455702656000000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
+      <c r="B14" s="42">
+        <v>3234560.8333333335</v>
+      </c>
+      <c r="C14" s="42">
+        <v>3503784.1666666665</v>
+      </c>
+      <c r="D14" s="42">
+        <v>3302646.6666666665</v>
+      </c>
+      <c r="E14" s="42">
+        <v>3523575</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="20">
-        <v>138616134699999.98</v>
-      </c>
-      <c r="C15" s="20">
-        <v>150046095600000</v>
-      </c>
-      <c r="D15" s="20">
-        <v>152187394300000</v>
-      </c>
-      <c r="E15" s="20">
-        <v>170001210900000</v>
-      </c>
-      <c r="F15" s="20">
-        <v>260448084000000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
+      <c r="B15" s="42">
+        <v>3420523.3333333335</v>
+      </c>
+      <c r="C15" s="42">
+        <v>3568630</v>
+      </c>
+      <c r="D15" s="42">
+        <v>3673672.5</v>
+      </c>
+      <c r="E15" s="42">
+        <v>3892723.3333333335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="20">
-        <v>635498679800000</v>
-      </c>
-      <c r="C16" s="20">
-        <v>652480257400000</v>
-      </c>
-      <c r="D16" s="20">
-        <v>607586183100000</v>
-      </c>
-      <c r="E16" s="20">
-        <v>695158330300000</v>
-      </c>
-      <c r="F16" s="20">
-        <v>833090052000000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
+      <c r="B16" s="42">
+        <v>4342269.166666667</v>
+      </c>
+      <c r="C16" s="42">
+        <v>4718781.666666667</v>
+      </c>
+      <c r="D16" s="42">
+        <v>4762090</v>
+      </c>
+      <c r="E16" s="42">
+        <v>5242737.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="20">
-        <v>85548942680000</v>
-      </c>
-      <c r="C17" s="20">
-        <v>96509929570000</v>
-      </c>
-      <c r="D17" s="20">
-        <v>100509859600000</v>
-      </c>
-      <c r="E17" s="20">
-        <v>110668941600000</v>
-      </c>
-      <c r="F17" s="20">
-        <v>82000132000000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="2" t="s">
+      <c r="B17" s="42">
+        <v>14513735</v>
+      </c>
+      <c r="C17" s="42">
+        <v>15021591.666666666</v>
+      </c>
+      <c r="D17" s="42">
+        <v>13479725.833333334</v>
+      </c>
+      <c r="E17" s="42">
+        <v>15211735</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="20">
-        <v>73113281660000</v>
-      </c>
-      <c r="C18" s="20">
-        <v>75794959500000</v>
-      </c>
-      <c r="D18" s="20">
-        <v>75495257200000</v>
-      </c>
-      <c r="E18" s="20">
-        <v>85942704030000</v>
-      </c>
-      <c r="F18" s="20">
-        <v>205642572000000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
+      <c r="B18" s="42">
+        <v>9951156.666666666</v>
+      </c>
+      <c r="C18" s="42">
+        <v>11562584.166666666</v>
+      </c>
+      <c r="D18" s="42">
+        <v>11971428.333333334</v>
+      </c>
+      <c r="E18" s="42">
+        <v>12923385</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="20">
-        <v>248822233100000</v>
-      </c>
-      <c r="C19" s="20">
-        <v>267631477900000</v>
-      </c>
-      <c r="D19" s="20">
-        <v>254227859800000</v>
-      </c>
-      <c r="E19" s="20">
-        <v>275636327700000</v>
-      </c>
-      <c r="F19" s="20">
-        <v>922739131000000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="2" t="s">
+      <c r="B19" s="42">
+        <v>4173495.8333333335</v>
+      </c>
+      <c r="C19" s="42">
+        <v>4352733.333333333</v>
+      </c>
+      <c r="D19" s="42">
+        <v>4333875.833333333</v>
+      </c>
+      <c r="E19" s="42">
+        <v>4861568.333333333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="20">
-        <v>332446070700000</v>
-      </c>
-      <c r="C20" s="20">
-        <v>356676828400000</v>
-      </c>
-      <c r="D20" s="20">
-        <v>353530038800000</v>
-      </c>
-      <c r="E20" s="20">
-        <v>371903171900000</v>
-      </c>
-      <c r="F20" s="20">
-        <v>1307624346000000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
+      <c r="B20" s="42">
+        <v>9705116.666666666</v>
+      </c>
+      <c r="C20" s="42">
+        <v>9949555</v>
+      </c>
+      <c r="D20" s="42">
+        <v>10294097.5</v>
+      </c>
+      <c r="E20" s="42">
+        <v>10843769.166666666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="20">
-        <v>43047090660000</v>
-      </c>
-      <c r="C21" s="20">
-        <v>46152817520000</v>
-      </c>
-      <c r="D21" s="20">
-        <v>46262452530000</v>
-      </c>
-      <c r="E21" s="20">
-        <v>48564217180000</v>
-      </c>
-      <c r="F21" s="20">
-        <v>286004811000000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="2" t="s">
+      <c r="B21" s="42">
+        <v>3309705</v>
+      </c>
+      <c r="C21" s="42">
+        <v>3514360</v>
+      </c>
+      <c r="D21" s="42">
+        <v>3278877.5</v>
+      </c>
+      <c r="E21" s="42">
+        <v>3412535</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="20">
-        <v>36468794700000</v>
-      </c>
-      <c r="C22" s="20">
-        <v>39695490690000</v>
-      </c>
-      <c r="D22" s="20">
-        <v>42319470430000</v>
-      </c>
-      <c r="E22" s="20">
-        <v>52359851790000</v>
-      </c>
-      <c r="F22" s="20">
-        <v>135296458000000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="2" t="s">
+      <c r="B22" s="42">
+        <v>2022385</v>
+      </c>
+      <c r="C22" s="42">
+        <v>2174753.3333333335</v>
+      </c>
+      <c r="D22" s="42">
+        <v>2091150.8333333333</v>
+      </c>
+      <c r="E22" s="42">
+        <v>2172748.3333333335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="20">
-        <v>123868015400000</v>
-      </c>
-      <c r="C23" s="20">
-        <v>132500099800000</v>
-      </c>
-      <c r="D23" s="20">
-        <v>133613744200000</v>
-      </c>
-      <c r="E23" s="20">
-        <v>140153319100000</v>
-      </c>
-      <c r="F23" s="20">
-        <v>715486138000000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="2" t="s">
+      <c r="B23" s="42">
+        <v>2465510</v>
+      </c>
+      <c r="C23" s="42">
+        <v>2677080</v>
+      </c>
+      <c r="D23" s="42">
+        <v>2757119.1666666665</v>
+      </c>
+      <c r="E23" s="42">
+        <v>3358526.6666666665</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="20">
-        <v>98930187650000</v>
-      </c>
-      <c r="C24" s="20">
-        <v>106731763300000</v>
-      </c>
-      <c r="D24" s="20">
-        <v>106480968000000</v>
-      </c>
-      <c r="E24" s="20">
-        <v>110885751000000</v>
-      </c>
-      <c r="F24" s="20">
-        <v>483456507000000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="2" t="s">
+      <c r="B24" s="42">
+        <v>2058830.8333333333</v>
+      </c>
+      <c r="C24" s="42">
+        <v>2143009.1666666665</v>
+      </c>
+      <c r="D24" s="42">
+        <v>2098630</v>
+      </c>
+      <c r="E24" s="42">
+        <v>2166873.3333333335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="20">
-        <v>210600573200000</v>
-      </c>
-      <c r="C25" s="20">
-        <v>189510696100000</v>
-      </c>
-      <c r="D25" s="20">
-        <v>199232884400000</v>
-      </c>
-      <c r="E25" s="20">
-        <v>235343249900000</v>
-      </c>
-      <c r="F25" s="20">
-        <v>337921367000000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="2" t="s">
+      <c r="B25" s="42">
+        <v>1534795</v>
+      </c>
+      <c r="C25" s="42">
+        <v>1635835</v>
+      </c>
+      <c r="D25" s="42">
+        <v>1671392.5</v>
+      </c>
+      <c r="E25" s="42">
+        <v>1715094.1666666667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="20">
-        <v>79644584970000</v>
-      </c>
-      <c r="C26" s="20">
-        <v>84356967990000</v>
-      </c>
-      <c r="D26" s="20">
-        <v>83588641760000</v>
-      </c>
-      <c r="E26" s="20">
-        <v>85072858480000</v>
-      </c>
-      <c r="F26" s="20">
-        <v>112884324000000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="2" t="s">
+      <c r="B26" s="42">
+        <v>5282140</v>
+      </c>
+      <c r="C26" s="42">
+        <v>4718245.833333333</v>
+      </c>
+      <c r="D26" s="42">
+        <v>3868929.1666666665</v>
+      </c>
+      <c r="E26" s="42">
+        <v>4502855</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="20">
-        <v>752263066300000</v>
-      </c>
-      <c r="C27" s="20">
-        <v>760247508900000</v>
-      </c>
-      <c r="D27" s="20">
-        <v>728649985300000</v>
-      </c>
-      <c r="E27" s="20">
-        <v>843211153000000</v>
-      </c>
-      <c r="F27" s="20">
-        <v>1379432280000000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" s="2" t="s">
+      <c r="B27" s="42">
+        <v>7079835.833333333</v>
+      </c>
+      <c r="C27" s="42">
+        <v>7295197.5</v>
+      </c>
+      <c r="D27" s="42">
+        <v>6161050</v>
+      </c>
+      <c r="E27" s="42">
+        <v>6128250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="20">
-        <v>43457831660000</v>
-      </c>
-      <c r="C28" s="20">
-        <v>46365789570000</v>
-      </c>
-      <c r="D28" s="20">
-        <v>46427581980000</v>
-      </c>
-      <c r="E28" s="20">
-        <v>50341228800000</v>
-      </c>
-      <c r="F28" s="20">
-        <v>120229283000000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="2" t="s">
+      <c r="B28" s="42">
+        <v>9198741.666666666</v>
+      </c>
+      <c r="C28" s="42">
+        <v>9268917.5</v>
+      </c>
+      <c r="D28" s="42">
+        <v>9527645</v>
+      </c>
+      <c r="E28" s="42">
+        <v>10821049.166666666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="20">
-        <v>461774735800000</v>
-      </c>
-      <c r="C29" s="20">
-        <v>504320725100000</v>
-      </c>
-      <c r="D29" s="20">
-        <v>504059368400000</v>
-      </c>
-      <c r="E29" s="20">
-        <v>545230029100000</v>
-      </c>
-      <c r="F29" s="20">
-        <v>228288478500000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="2" t="s">
+      <c r="B29" s="42">
+        <v>2671590.8333333335</v>
+      </c>
+      <c r="C29" s="42">
+        <v>2842652.5</v>
+      </c>
+      <c r="D29" s="42">
+        <v>2734139.1666666665</v>
+      </c>
+      <c r="E29" s="42">
+        <v>2919668.3333333335</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="20">
-        <v>167135768800000</v>
-      </c>
-      <c r="C30" s="20">
-        <v>185740087200000</v>
-      </c>
-      <c r="D30" s="20">
-        <v>197440782700000</v>
-      </c>
-      <c r="E30" s="20">
-        <v>246987356700000</v>
-      </c>
-      <c r="F30" s="20">
-        <v>539811733000000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" s="2" t="s">
+      <c r="B30" s="42">
+        <v>4386840</v>
+      </c>
+      <c r="C30" s="42">
+        <v>4765178.333333333</v>
+      </c>
+      <c r="D30" s="42">
+        <v>4639649.166666667</v>
+      </c>
+      <c r="E30" s="42">
+        <v>4971353.333333333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="20">
-        <v>118066606700000</v>
-      </c>
-      <c r="C31" s="20">
-        <v>129225147500000</v>
-      </c>
-      <c r="D31" s="20">
-        <v>130178026100000</v>
-      </c>
-      <c r="E31" s="20">
-        <v>139057828199999.98</v>
-      </c>
-      <c r="F31" s="20">
-        <v>448051651000000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" s="2" t="s">
+      <c r="B31" s="42">
+        <v>4626555</v>
+      </c>
+      <c r="C31" s="42">
+        <v>5088002.5</v>
+      </c>
+      <c r="D31" s="42">
+        <v>5525522.5000000009</v>
+      </c>
+      <c r="E31" s="42">
+        <v>6811086.666666667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="20">
-        <v>119512684000000</v>
-      </c>
-      <c r="C32" s="20">
-        <v>130126510000000</v>
-      </c>
-      <c r="D32" s="20">
-        <v>132230056900000</v>
-      </c>
-      <c r="E32" s="20">
-        <v>142600019600000</v>
-      </c>
-      <c r="F32" s="20">
-        <v>382056688000000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="2" t="s">
+      <c r="B32" s="42">
+        <v>3707674.1666666665</v>
+      </c>
+      <c r="C32" s="42">
+        <v>4042845.8333333335</v>
+      </c>
+      <c r="D32" s="42">
+        <v>4145432.5</v>
+      </c>
+      <c r="E32" s="42">
+        <v>4357830.833333333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="20">
-        <v>230367222000000</v>
-      </c>
-      <c r="C33" s="20">
-        <v>245949737200000</v>
-      </c>
-      <c r="D33" s="20">
-        <v>241993529100000</v>
-      </c>
-      <c r="E33" s="20">
-        <v>252749645400000</v>
-      </c>
-      <c r="F33" s="20">
-        <v>965228295000000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34" s="2" t="s">
+      <c r="B33" s="42">
+        <v>4008784.1666666665</v>
+      </c>
+      <c r="C33" s="42">
+        <v>4347751.666666667</v>
+      </c>
+      <c r="D33" s="42">
+        <v>4210094.166666667</v>
+      </c>
+      <c r="E33" s="42">
+        <v>4503598.333333333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="20">
-        <v>419392156700000</v>
-      </c>
-      <c r="C34" s="20">
-        <v>453402714100000</v>
-      </c>
-      <c r="D34" s="20">
-        <v>456647864400000</v>
-      </c>
-      <c r="E34" s="20">
-        <v>491566450400000</v>
-      </c>
-      <c r="F34" s="20">
-        <v>1846927407000000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" s="2" t="s">
+      <c r="B34" s="42">
+        <v>3566888.3333333335</v>
+      </c>
+      <c r="C34" s="42">
+        <v>3740459.1666666665</v>
+      </c>
+      <c r="D34" s="42">
+        <v>3653639.1666666665</v>
+      </c>
+      <c r="E34" s="42">
+        <v>3774479.1666666665</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="20">
-        <v>741347427600000</v>
-      </c>
-      <c r="C35" s="20">
-        <v>799608954200000</v>
-      </c>
-      <c r="D35" s="20">
-        <v>811188308800000</v>
-      </c>
-      <c r="E35" s="20">
-        <v>859870945400000</v>
-      </c>
-      <c r="F35" s="20">
-        <v>2619089507000000</v>
+      <c r="B35" s="42">
+        <v>4175389.1666666665</v>
+      </c>
+      <c r="C35" s="42">
+        <v>4446591.666666667</v>
+      </c>
+      <c r="D35" s="42">
+        <v>4507034.166666667</v>
+      </c>
+      <c r="E35" s="42">
+        <v>4790620</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F35">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E35">
     <sortCondition ref="A1:A35"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1535,492 +1477,492 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34">
         <v>2019</v>
       </c>
-      <c r="C1" s="35">
+      <c r="C1" s="34">
         <v>2020</v>
       </c>
-      <c r="D1" s="38">
+      <c r="D1" s="37">
         <v>2021</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="36">
+      <c r="A2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="35">
         <v>6.25E-2</v>
       </c>
-      <c r="C2" s="36">
+      <c r="C2" s="35">
         <v>0.14119999999999999</v>
       </c>
-      <c r="D2" s="37">
+      <c r="D2" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="35">
         <v>0.19500000000000001</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="35">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="35">
         <v>0.26440000000000002</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="35">
         <v>-6.3600000000000004E-2</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="35">
         <v>0.15379999999999999</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="35">
         <v>-0.06</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="35">
         <v>0.1111</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="35">
         <v>-5.2600000000000001E-2</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="35">
         <v>0.38390000000000002</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="35">
         <v>-0.23549999999999999</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="35">
         <v>0.14460000000000001</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="35">
         <v>-3.1600000000000003E-2</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="35">
         <v>0.17119999999999999</v>
       </c>
-      <c r="C9" s="36">
-        <v>0</v>
-      </c>
-      <c r="D9" s="37">
+      <c r="C9" s="35">
+        <v>0</v>
+      </c>
+      <c r="D9" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="35">
         <v>0.26440000000000002</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="35">
         <v>-5.45E-2</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="35">
         <v>0.18640000000000001</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="35">
         <v>-6.4299999999999996E-2</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="35">
         <v>0.17119999999999999</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="35">
         <v>-2.3099999999999999E-2</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="35">
         <v>0.1009</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="35">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="35">
         <v>0.2397</v>
       </c>
-      <c r="C14" s="36">
-        <v>0</v>
-      </c>
-      <c r="D14" s="37">
+      <c r="C14" s="35">
+        <v>0</v>
+      </c>
+      <c r="D14" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="35">
         <v>0.4894</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="35">
         <v>0.05</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="35">
         <v>0.2195</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="35">
         <v>-8.5000000000000006E-2</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="35">
         <v>9.5899999999999999E-2</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="35">
         <v>0.1875</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D17" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="35">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="35">
         <v>8.6699999999999999E-2</v>
       </c>
-      <c r="D18" s="37">
+      <c r="D18" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="35">
         <v>0.223</v>
       </c>
-      <c r="C19" s="36">
-        <v>0</v>
-      </c>
-      <c r="D19" s="37">
+      <c r="C19" s="35">
+        <v>0</v>
+      </c>
+      <c r="D19" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="35">
         <v>0.1111</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="35">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="D20" s="37">
+      <c r="D20" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="36">
+      <c r="B21" s="35">
         <v>0.44069999999999998</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="35">
         <v>-5.8999999999999999E-3</v>
       </c>
-      <c r="D21" s="37">
+      <c r="D21" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="36">
+      <c r="B22" s="35">
         <v>0.15040000000000001</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="35">
         <v>9.2299999999999993E-2</v>
       </c>
-      <c r="D22" s="37">
+      <c r="D22" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="35">
         <v>0.2162</v>
       </c>
-      <c r="C23" s="36">
+      <c r="C23" s="35">
         <v>0.26669999999999999</v>
       </c>
-      <c r="D23" s="37">
+      <c r="D23" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="36">
+      <c r="B24" s="35">
         <v>8.43E-2</v>
       </c>
-      <c r="C24" s="36">
+      <c r="C24" s="35">
         <v>0.1111</v>
       </c>
-      <c r="D24" s="37">
+      <c r="D24" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="36">
+      <c r="B25" s="35">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="C25" s="36">
+      <c r="C25" s="35">
         <v>3.85E-2</v>
       </c>
-      <c r="D25" s="37">
+      <c r="D25" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="36">
+      <c r="B26" s="35">
         <v>0.57530000000000003</v>
       </c>
-      <c r="C26" s="36">
+      <c r="C26" s="35">
         <v>-0.1</v>
       </c>
-      <c r="D26" s="37">
+      <c r="D26" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="36">
+      <c r="B27" s="35">
         <v>0.22450000000000001</v>
       </c>
-      <c r="C27" s="36">
+      <c r="C27" s="35">
         <v>-8.3000000000000001E-3</v>
       </c>
-      <c r="D27" s="37">
+      <c r="D27" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="36">
+      <c r="B28" s="35">
         <v>0.19570000000000001</v>
       </c>
-      <c r="C28" s="36">
+      <c r="C28" s="35">
         <v>-2.7300000000000001E-2</v>
       </c>
-      <c r="D28" s="37">
+      <c r="D28" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="36">
+      <c r="B29" s="35">
         <v>-0.25469999999999998</v>
       </c>
-      <c r="C29" s="36">
+      <c r="C29" s="35">
         <v>-6.6699999999999995E-2</v>
       </c>
-      <c r="D29" s="37">
+      <c r="D29" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="36">
+      <c r="B30" s="35">
         <v>0.1111</v>
       </c>
-      <c r="C30" s="36">
+      <c r="C30" s="35">
         <v>3.1199999999999999E-2</v>
       </c>
-      <c r="D30" s="37">
+      <c r="D30" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="36">
+      <c r="B31" s="35">
         <v>0.25</v>
       </c>
-      <c r="C31" s="36">
+      <c r="C31" s="35">
         <v>3.85E-2</v>
       </c>
-      <c r="D31" s="37">
+      <c r="D31" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="36">
+      <c r="B32" s="35">
         <v>0.25580000000000003</v>
       </c>
-      <c r="C32" s="36">
-        <v>0</v>
-      </c>
-      <c r="D32" s="37">
+      <c r="C32" s="35">
+        <v>0</v>
+      </c>
+      <c r="D32" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="36">
+      <c r="B33" s="35">
         <v>0.1628</v>
       </c>
-      <c r="C33" s="36">
+      <c r="C33" s="35">
         <v>-0.1</v>
       </c>
-      <c r="D33" s="37">
+      <c r="D33" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="36">
+      <c r="B34" s="35">
         <v>0.1321</v>
       </c>
-      <c r="C34" s="36">
+      <c r="C34" s="35">
         <v>-6.6699999999999995E-2</v>
       </c>
-      <c r="D34" s="37">
+      <c r="D34" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="36">
+      <c r="B35" s="35">
         <v>0.1258</v>
       </c>
-      <c r="C35" s="36">
+      <c r="C35" s="35">
         <v>-4.1200000000000001E-2</v>
       </c>
-      <c r="D35" s="37">
+      <c r="D35" s="36">
         <v>0</v>
       </c>
     </row>
@@ -2046,492 +1988,492 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34">
         <v>2019</v>
       </c>
-      <c r="C1" s="35">
+      <c r="C1" s="34">
         <v>2020</v>
       </c>
-      <c r="D1" s="38">
+      <c r="D1" s="37">
         <v>2021</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="36">
+      <c r="A2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="35">
         <v>0.1507</v>
       </c>
-      <c r="C2" s="36">
+      <c r="C2" s="35">
         <v>0.4078</v>
       </c>
-      <c r="D2" s="37">
+      <c r="D2" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="35">
         <v>0.3528</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="35">
         <v>-0.74990000000000001</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="35">
         <v>0.45700000000000002</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="35">
         <v>0.35560000000000003</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="35">
         <v>0.18229999999999999</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="35">
         <v>0.20619999999999999</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="35">
         <v>0.21</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="35">
         <v>0.46039999999999998</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="35">
         <v>0.35930000000000001</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="35">
         <v>0.23880000000000001</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="35">
         <v>0.39700000000000002</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="35">
         <v>4.5400000000000003E-2</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="35">
         <v>0.26379999999999998</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="35">
         <v>0.1105</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="35">
         <v>0.84409999999999996</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="35">
         <v>0.28050000000000003</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="35">
         <v>0.23480000000000001</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="35">
         <v>0.14810000000000001</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="35">
         <v>0.18720000000000001</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="35">
         <v>0.48320000000000002</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="35">
         <v>0.30320000000000003</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="35">
         <v>0.38919999999999999</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="35">
         <v>0.29520000000000002</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="35">
         <v>0.1178</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="35">
         <v>0.33939999999999998</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="35">
         <v>8.8700000000000001E-2</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="35">
         <v>0.45179999999999998</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="35">
         <v>0.215</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="35">
         <v>4.8399999999999999E-2</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="35">
         <v>0.11310000000000001</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D17" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="35">
         <v>2.8799999999999999E-2</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="35">
         <v>9.4600000000000004E-2</v>
       </c>
-      <c r="D18" s="37">
+      <c r="D18" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="35">
         <v>0.31940000000000002</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="35">
         <v>0.13300000000000001</v>
       </c>
-      <c r="D19" s="37">
+      <c r="D19" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="35">
         <v>0.24360000000000001</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="35">
         <v>0.11070000000000001</v>
       </c>
-      <c r="D20" s="37">
+      <c r="D20" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="36">
+      <c r="B21" s="35">
         <v>0.70779999999999998</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="35">
         <v>0.55069999999999997</v>
       </c>
-      <c r="D21" s="37">
+      <c r="D21" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="36">
+      <c r="B22" s="35">
         <v>0.16009999999999999</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="35">
         <v>0.47410000000000002</v>
       </c>
-      <c r="D22" s="37">
+      <c r="D22" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="35">
         <v>0.16689999999999999</v>
       </c>
-      <c r="C23" s="36">
+      <c r="C23" s="35">
         <v>0.1288</v>
       </c>
-      <c r="D23" s="37">
+      <c r="D23" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="36">
+      <c r="B24" s="35">
         <v>0.55900000000000005</v>
       </c>
-      <c r="C24" s="36">
+      <c r="C24" s="35">
         <v>0.8054</v>
       </c>
-      <c r="D24" s="37">
+      <c r="D24" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="36">
+      <c r="B25" s="35">
         <v>0.25169999999999998</v>
       </c>
-      <c r="C25" s="36">
+      <c r="C25" s="35">
         <v>0.64600000000000002</v>
       </c>
-      <c r="D25" s="37">
+      <c r="D25" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="36">
+      <c r="B26" s="35">
         <v>0.37080000000000002</v>
       </c>
-      <c r="C26" s="36">
+      <c r="C26" s="35">
         <v>0.32850000000000001</v>
       </c>
-      <c r="D26" s="37">
+      <c r="D26" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="36">
+      <c r="B27" s="35">
         <v>0.36599999999999999</v>
       </c>
-      <c r="C27" s="36">
+      <c r="C27" s="35">
         <v>0.32940000000000003</v>
       </c>
-      <c r="D27" s="37">
+      <c r="D27" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="36">
+      <c r="B28" s="35">
         <v>0.13400000000000001</v>
       </c>
-      <c r="C28" s="36">
+      <c r="C28" s="35">
         <v>-1.3899999999999999E-2</v>
       </c>
-      <c r="D28" s="37">
+      <c r="D28" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="36">
+      <c r="B29" s="35">
         <v>0.34320000000000001</v>
       </c>
-      <c r="C29" s="36">
+      <c r="C29" s="35">
         <v>-0.67210000000000003</v>
       </c>
-      <c r="D29" s="37">
+      <c r="D29" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="36">
+      <c r="B30" s="35">
         <v>0.34539999999999998</v>
       </c>
-      <c r="C30" s="36">
+      <c r="C30" s="35">
         <v>0.22040000000000001</v>
       </c>
-      <c r="D30" s="37">
+      <c r="D30" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="36">
+      <c r="B31" s="35">
         <v>0.15590000000000001</v>
       </c>
-      <c r="C31" s="36">
+      <c r="C31" s="35">
         <v>0.25</v>
       </c>
-      <c r="D31" s="37">
+      <c r="D31" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="36">
+      <c r="B32" s="35">
         <v>0.6704</v>
       </c>
-      <c r="C32" s="36">
+      <c r="C32" s="35">
         <v>0.2762</v>
       </c>
-      <c r="D32" s="37">
+      <c r="D32" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="36">
+      <c r="B33" s="35">
         <v>0.29780000000000001</v>
       </c>
-      <c r="C33" s="36">
+      <c r="C33" s="35">
         <v>0.21629999999999999</v>
       </c>
-      <c r="D33" s="37">
+      <c r="D33" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="36">
+      <c r="B34" s="35">
         <v>0.34570000000000001</v>
       </c>
-      <c r="C34" s="36">
+      <c r="C34" s="35">
         <v>0.4274</v>
       </c>
-      <c r="D34" s="37">
+      <c r="D34" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="36">
+      <c r="B35" s="35">
         <v>0.30819999999999997</v>
       </c>
-      <c r="C35" s="36">
+      <c r="C35" s="35">
         <v>0.52090000000000003</v>
       </c>
-      <c r="D35" s="37">
+      <c r="D35" s="36">
         <v>0</v>
       </c>
     </row>
@@ -2557,492 +2499,492 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34">
         <v>2019</v>
       </c>
-      <c r="C1" s="35">
+      <c r="C1" s="34">
         <v>2020</v>
       </c>
-      <c r="D1" s="38">
+      <c r="D1" s="37">
         <v>2021</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="36">
+      <c r="A2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="35">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="C2" s="36">
+      <c r="C2" s="35">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="D2" s="37">
+      <c r="D2" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="35">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="35">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="35">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="35">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="35">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="35">
         <v>1.4E-3</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="35">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="35">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="35">
         <v>1.8E-3</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="35">
         <v>1.5E-3</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="35">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="35">
         <v>1.8E-3</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="35">
         <v>2E-3</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="35">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="35">
         <v>1.8E-3</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="35">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="35">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="35">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="35">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="35">
         <v>1.5E-3</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="35">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="35">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="35">
         <v>1.8E-3</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="35">
         <v>1E-3</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="35">
         <v>2.8E-3</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="35">
         <v>2.8E-3</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="35">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="35">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="35">
         <v>1.4E-3</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="35">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D17" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="35">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="35">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="D18" s="37">
+      <c r="D18" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="35">
         <v>1.9E-3</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="35">
         <v>1.4E-3</v>
       </c>
-      <c r="D19" s="37">
+      <c r="D19" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="35">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="35">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="D20" s="37">
+      <c r="D20" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="36">
+      <c r="B21" s="35">
         <v>1.9E-3</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="35">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="D21" s="37">
+      <c r="D21" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="36">
+      <c r="B22" s="35">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="35">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="D22" s="37">
+      <c r="D22" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="35">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="C23" s="36">
+      <c r="C23" s="35">
         <v>1.8E-3</v>
       </c>
-      <c r="D23" s="37">
+      <c r="D23" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="36">
+      <c r="B24" s="35">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="C24" s="36">
+      <c r="C24" s="35">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="D24" s="37">
+      <c r="D24" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="36">
+      <c r="B25" s="35">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="C25" s="36">
+      <c r="C25" s="35">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="D25" s="37">
+      <c r="D25" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="36">
+      <c r="B26" s="35">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="C26" s="36">
+      <c r="C26" s="35">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="D26" s="37">
+      <c r="D26" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="36">
+      <c r="B27" s="35">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="C27" s="36">
+      <c r="C27" s="35">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="D27" s="37">
+      <c r="D27" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="36">
+      <c r="B28" s="35">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="C28" s="36">
+      <c r="C28" s="35">
         <v>1E-3</v>
       </c>
-      <c r="D28" s="37">
+      <c r="D28" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="36">
+      <c r="B29" s="35">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="C29" s="36">
+      <c r="C29" s="35">
         <v>2.8E-3</v>
       </c>
-      <c r="D29" s="37">
+      <c r="D29" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="36">
+      <c r="B30" s="35">
         <v>2E-3</v>
       </c>
-      <c r="C30" s="36">
+      <c r="C30" s="35">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="D30" s="37">
+      <c r="D30" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="36">
+      <c r="B31" s="35">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="C31" s="36">
+      <c r="C31" s="35">
         <v>2E-3</v>
       </c>
-      <c r="D31" s="37">
+      <c r="D31" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="36">
+      <c r="B32" s="35">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="C32" s="36">
+      <c r="C32" s="35">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="D32" s="37">
+      <c r="D32" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="36">
+      <c r="B33" s="35">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="C33" s="36">
+      <c r="C33" s="35">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="D33" s="37">
+      <c r="D33" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="36">
+      <c r="B34" s="35">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="C34" s="36">
+      <c r="C34" s="35">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="D34" s="37">
+      <c r="D34" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="36">
+      <c r="B35" s="35">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="C35" s="36">
+      <c r="C35" s="35">
         <v>1.4E-3</v>
       </c>
-      <c r="D35" s="37">
+      <c r="D35" s="36">
         <v>0</v>
       </c>
     </row>
@@ -3071,489 +3013,489 @@
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22">
+      <c r="B1" s="21">
         <v>2019</v>
       </c>
-      <c r="C1" s="22">
+      <c r="C1" s="21">
         <v>2020</v>
       </c>
-      <c r="D1" s="38">
+      <c r="D1" s="37">
         <v>2021</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="30">
+      <c r="A2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="29">
         <v>0.97</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="30">
         <v>0.99</v>
       </c>
-      <c r="D2" s="37">
+      <c r="D2" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="31">
         <v>0.95</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="32">
         <v>0.96</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="31">
         <v>0.91</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="32">
         <v>0.93</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="31">
         <v>0.96</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="32">
         <v>0.93</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="32">
-        <v>1</v>
-      </c>
-      <c r="C6" s="33">
-        <v>1</v>
-      </c>
-      <c r="D6" s="37">
+      <c r="B6" s="31">
+        <v>1</v>
+      </c>
+      <c r="C6" s="32">
+        <v>1</v>
+      </c>
+      <c r="D6" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="31">
         <v>0.98</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="32">
         <v>0.93</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="31">
         <v>0.89</v>
       </c>
-      <c r="C8" s="33">
-        <v>1</v>
-      </c>
-      <c r="D8" s="37">
+      <c r="C8" s="32">
+        <v>1</v>
+      </c>
+      <c r="D8" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="31">
         <v>0.98</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="32">
         <v>0.91</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="32">
-        <v>1</v>
-      </c>
-      <c r="C10" s="33">
+      <c r="B10" s="31">
+        <v>1</v>
+      </c>
+      <c r="C10" s="32">
         <v>0.94</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="31">
         <v>0.97</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="32">
         <v>0.98</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="31">
         <v>0.98</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="32">
         <v>0.96</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="31">
         <v>0.98</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="32">
         <v>0.99</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="32">
-        <v>1</v>
-      </c>
-      <c r="C14" s="33">
+      <c r="B14" s="31">
+        <v>1</v>
+      </c>
+      <c r="C14" s="32">
         <v>0.92</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="32">
-        <v>1</v>
-      </c>
-      <c r="C15" s="33">
+      <c r="B15" s="31">
+        <v>1</v>
+      </c>
+      <c r="C15" s="32">
         <v>0.92</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="31">
         <v>0.99</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="32">
         <v>0.9</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="32">
-        <v>1</v>
-      </c>
-      <c r="C17" s="33">
-        <v>1</v>
-      </c>
-      <c r="D17" s="37">
+      <c r="B17" s="31">
+        <v>1</v>
+      </c>
+      <c r="C17" s="32">
+        <v>1</v>
+      </c>
+      <c r="D17" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="32">
-        <v>1</v>
-      </c>
-      <c r="C18" s="33">
-        <v>1</v>
-      </c>
-      <c r="D18" s="37">
+      <c r="B18" s="31">
+        <v>1</v>
+      </c>
+      <c r="C18" s="32">
+        <v>1</v>
+      </c>
+      <c r="D18" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="32">
-        <v>1</v>
-      </c>
-      <c r="C19" s="33">
-        <v>1</v>
-      </c>
-      <c r="D19" s="37">
+      <c r="B19" s="31">
+        <v>1</v>
+      </c>
+      <c r="C19" s="32">
+        <v>1</v>
+      </c>
+      <c r="D19" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B20" s="31">
         <v>0.96</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="32">
         <v>0.96</v>
       </c>
-      <c r="D20" s="37">
+      <c r="D20" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B21" s="31">
         <v>0.97</v>
       </c>
-      <c r="C21" s="33">
-        <v>1</v>
-      </c>
-      <c r="D21" s="37">
+      <c r="C21" s="32">
+        <v>1</v>
+      </c>
+      <c r="D21" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="32">
+      <c r="B22" s="31">
         <v>0.92</v>
       </c>
-      <c r="C22" s="33">
-        <v>1</v>
-      </c>
-      <c r="D22" s="37">
+      <c r="C22" s="32">
+        <v>1</v>
+      </c>
+      <c r="D22" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="32">
+      <c r="B23" s="31">
         <v>0.99</v>
       </c>
-      <c r="C23" s="33">
-        <v>1</v>
-      </c>
-      <c r="D23" s="37">
+      <c r="C23" s="32">
+        <v>1</v>
+      </c>
+      <c r="D23" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="32">
-        <v>1</v>
-      </c>
-      <c r="C24" s="33">
-        <v>1</v>
-      </c>
-      <c r="D24" s="37">
+      <c r="B24" s="31">
+        <v>1</v>
+      </c>
+      <c r="C24" s="32">
+        <v>1</v>
+      </c>
+      <c r="D24" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="32">
+      <c r="B25" s="31">
         <v>0.71</v>
       </c>
-      <c r="C25" s="33">
-        <v>1</v>
-      </c>
-      <c r="D25" s="37">
+      <c r="C25" s="32">
+        <v>1</v>
+      </c>
+      <c r="D25" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="32">
+      <c r="B26" s="31">
         <v>0.89</v>
       </c>
-      <c r="C26" s="33">
-        <v>1</v>
-      </c>
-      <c r="D26" s="37">
+      <c r="C26" s="32">
+        <v>1</v>
+      </c>
+      <c r="D26" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="32">
-        <v>1</v>
-      </c>
-      <c r="C27" s="33">
+      <c r="B27" s="31">
+        <v>1</v>
+      </c>
+      <c r="C27" s="32">
         <v>0.95</v>
       </c>
-      <c r="D27" s="37">
+      <c r="D27" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="32">
-        <v>1</v>
-      </c>
-      <c r="C28" s="33">
+      <c r="B28" s="31">
+        <v>1</v>
+      </c>
+      <c r="C28" s="32">
         <v>0.91</v>
       </c>
-      <c r="D28" s="37">
+      <c r="D28" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="32">
+      <c r="B29" s="31">
         <v>0.94</v>
       </c>
-      <c r="C29" s="33">
+      <c r="C29" s="32">
         <v>0.79</v>
       </c>
-      <c r="D29" s="37">
+      <c r="D29" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="32">
+      <c r="B30" s="31">
         <v>0.92</v>
       </c>
-      <c r="C30" s="33">
+      <c r="C30" s="32">
         <v>0.97</v>
       </c>
-      <c r="D30" s="37">
+      <c r="D30" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="32">
+      <c r="B31" s="31">
         <v>0.96</v>
       </c>
-      <c r="C31" s="33">
+      <c r="C31" s="32">
         <v>0.98</v>
       </c>
-      <c r="D31" s="37">
+      <c r="D31" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="32">
+      <c r="B32" s="31">
         <v>0.92</v>
       </c>
-      <c r="C32" s="33">
+      <c r="C32" s="32">
         <v>0.95</v>
       </c>
-      <c r="D32" s="37">
+      <c r="D32" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="32">
+      <c r="B33" s="31">
         <v>0.98</v>
       </c>
-      <c r="C33" s="33">
+      <c r="C33" s="32">
         <v>0.95</v>
       </c>
-      <c r="D33" s="37">
+      <c r="D33" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="32">
+      <c r="B34" s="31">
         <v>0.96</v>
       </c>
-      <c r="C34" s="33">
-        <v>1</v>
-      </c>
-      <c r="D34" s="37">
+      <c r="C34" s="32">
+        <v>1</v>
+      </c>
+      <c r="D34" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="32">
+      <c r="B35" s="31">
         <v>0.97</v>
       </c>
-      <c r="C35" s="33">
+      <c r="C35" s="32">
         <v>0.97</v>
       </c>
-      <c r="D35" s="37">
+      <c r="D35" s="36">
         <v>0</v>
       </c>
     </row>
@@ -3582,489 +3524,489 @@
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22">
+      <c r="B1" s="21">
         <v>2019</v>
       </c>
-      <c r="C1" s="22">
+      <c r="C1" s="21">
         <v>2020</v>
       </c>
-      <c r="D1" s="38">
+      <c r="D1" s="37">
         <v>2021</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="28">
+      <c r="A2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27">
         <v>0.84</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="27">
         <v>0.97</v>
       </c>
-      <c r="D2" s="37">
+      <c r="D2" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="27">
         <v>0.9</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="27">
         <v>0.99</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="27">
         <v>0.93</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="27">
         <v>0.89</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="27">
         <v>0.88</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="27">
         <v>0.92</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="28">
-        <v>1</v>
-      </c>
-      <c r="C6" s="28">
+      <c r="B6" s="27">
+        <v>1</v>
+      </c>
+      <c r="C6" s="27">
         <v>0.95</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="27">
         <v>0.97</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="27">
         <v>0.72</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="28">
-        <v>1</v>
-      </c>
-      <c r="C8" s="28">
+      <c r="B8" s="27">
+        <v>1</v>
+      </c>
+      <c r="C8" s="27">
         <v>0.97</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="27">
         <v>0.89</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="27">
         <v>0.98</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="28">
-        <v>1</v>
-      </c>
-      <c r="C10" s="28">
+      <c r="B10" s="27">
+        <v>1</v>
+      </c>
+      <c r="C10" s="27">
         <v>0.87</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="27">
         <v>0.88</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="27">
         <v>0.85</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="27">
         <v>0.9</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="27">
         <v>0.89</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="27">
         <v>0.92</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="27">
         <v>0.98</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="27">
         <v>0.99</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="27">
         <v>0.99</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="27">
         <v>0.95</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="27">
         <v>0.95</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="27">
         <v>0.95</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="27">
         <v>0.88</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="28">
-        <v>1</v>
-      </c>
-      <c r="C17" s="28">
-        <v>1</v>
-      </c>
-      <c r="D17" s="37">
+      <c r="B17" s="27">
+        <v>1</v>
+      </c>
+      <c r="C17" s="27">
+        <v>1</v>
+      </c>
+      <c r="D17" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="27">
         <v>0.96</v>
       </c>
-      <c r="C18" s="28">
-        <v>1</v>
-      </c>
-      <c r="D18" s="37">
+      <c r="C18" s="27">
+        <v>1</v>
+      </c>
+      <c r="D18" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="28">
-        <v>1</v>
-      </c>
-      <c r="C19" s="28">
-        <v>1</v>
-      </c>
-      <c r="D19" s="37">
+      <c r="B19" s="27">
+        <v>1</v>
+      </c>
+      <c r="C19" s="27">
+        <v>1</v>
+      </c>
+      <c r="D19" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="28">
+      <c r="B20" s="27">
         <v>0.86</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="27">
         <v>0.9</v>
       </c>
-      <c r="D20" s="37">
+      <c r="D20" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="28">
-        <v>1</v>
-      </c>
-      <c r="C21" s="28">
+      <c r="B21" s="27">
+        <v>1</v>
+      </c>
+      <c r="C21" s="27">
         <v>0.99</v>
       </c>
-      <c r="D21" s="37">
+      <c r="D21" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="28">
+      <c r="B22" s="27">
         <v>0.8</v>
       </c>
-      <c r="C22" s="28">
-        <v>1</v>
-      </c>
-      <c r="D22" s="37">
+      <c r="C22" s="27">
+        <v>1</v>
+      </c>
+      <c r="D22" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="28">
+      <c r="B23" s="27">
         <v>0.89</v>
       </c>
-      <c r="C23" s="28">
-        <v>1</v>
-      </c>
-      <c r="D23" s="37">
+      <c r="C23" s="27">
+        <v>1</v>
+      </c>
+      <c r="D23" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="28">
+      <c r="B24" s="27">
         <v>0.8</v>
       </c>
-      <c r="C24" s="28">
-        <v>1</v>
-      </c>
-      <c r="D24" s="37">
+      <c r="C24" s="27">
+        <v>1</v>
+      </c>
+      <c r="D24" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="28">
+      <c r="B25" s="27">
         <v>0.85</v>
       </c>
-      <c r="C25" s="28">
-        <v>1</v>
-      </c>
-      <c r="D25" s="37">
+      <c r="C25" s="27">
+        <v>1</v>
+      </c>
+      <c r="D25" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="28">
-        <v>1</v>
-      </c>
-      <c r="C26" s="28">
+      <c r="B26" s="27">
+        <v>1</v>
+      </c>
+      <c r="C26" s="27">
         <v>0.9</v>
       </c>
-      <c r="D26" s="37">
+      <c r="D26" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="28">
-        <v>1</v>
-      </c>
-      <c r="C27" s="28">
+      <c r="B27" s="27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="27">
         <v>0.93</v>
       </c>
-      <c r="D27" s="37">
+      <c r="D27" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="28">
-        <v>1</v>
-      </c>
-      <c r="C28" s="28">
+      <c r="B28" s="27">
+        <v>1</v>
+      </c>
+      <c r="C28" s="27">
         <v>0.97</v>
       </c>
-      <c r="D28" s="37">
+      <c r="D28" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="28">
+      <c r="B29" s="27">
         <v>0.56999999999999995</v>
       </c>
-      <c r="C29" s="28">
+      <c r="C29" s="27">
         <v>0.92</v>
       </c>
-      <c r="D29" s="37">
+      <c r="D29" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="28">
+      <c r="B30" s="27">
         <v>0.81</v>
       </c>
-      <c r="C30" s="28">
+      <c r="C30" s="27">
         <v>0.99</v>
       </c>
-      <c r="D30" s="37">
+      <c r="D30" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="28">
-        <v>1</v>
-      </c>
-      <c r="C31" s="28">
+      <c r="B31" s="27">
+        <v>1</v>
+      </c>
+      <c r="C31" s="27">
         <v>0.99</v>
       </c>
-      <c r="D31" s="37">
+      <c r="D31" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="28">
+      <c r="B32" s="27">
         <v>0.93</v>
       </c>
-      <c r="C32" s="28">
+      <c r="C32" s="27">
         <v>0.94</v>
       </c>
-      <c r="D32" s="37">
+      <c r="D32" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="28">
+      <c r="B33" s="27">
         <v>0.89</v>
       </c>
-      <c r="C33" s="28">
+      <c r="C33" s="27">
         <v>0.86</v>
       </c>
-      <c r="D33" s="37">
+      <c r="D33" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="28">
+      <c r="B34" s="27">
         <v>0.86</v>
       </c>
-      <c r="C34" s="28">
+      <c r="C34" s="27">
         <v>0.93</v>
       </c>
-      <c r="D34" s="37">
+      <c r="D34" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="28">
+      <c r="B35" s="27">
         <v>0.84</v>
       </c>
-      <c r="C35" s="28">
+      <c r="C35" s="27">
         <v>0.87</v>
       </c>
-      <c r="D35" s="37">
+      <c r="D35" s="36">
         <v>0</v>
       </c>
     </row>
@@ -4093,489 +4035,489 @@
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22">
+      <c r="B1" s="21">
         <v>2019</v>
       </c>
-      <c r="C1" s="22">
+      <c r="C1" s="21">
         <v>2020</v>
       </c>
-      <c r="D1" s="38">
+      <c r="D1" s="37">
         <v>2021</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="30">
+      <c r="A2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="29">
         <v>0.7</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="30">
         <v>0.93</v>
       </c>
-      <c r="D2" s="37">
+      <c r="D2" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="31">
         <v>0.85</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="32">
         <v>0.19</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="31">
         <v>0.9</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="32">
         <v>0.86</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="31">
         <v>0.87</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="32">
         <v>0.85</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="32">
-        <v>1</v>
-      </c>
-      <c r="C6" s="33">
-        <v>1</v>
-      </c>
-      <c r="D6" s="37">
+      <c r="B6" s="31">
+        <v>1</v>
+      </c>
+      <c r="C6" s="32">
+        <v>1</v>
+      </c>
+      <c r="D6" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="31">
         <v>0.97</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="32">
         <v>0.82</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="32">
-        <v>1</v>
-      </c>
-      <c r="C8" s="33">
-        <v>1</v>
-      </c>
-      <c r="D8" s="37">
+      <c r="B8" s="31">
+        <v>1</v>
+      </c>
+      <c r="C8" s="32">
+        <v>1</v>
+      </c>
+      <c r="D8" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="31">
         <v>0.84</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="32">
         <v>0.86</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="32">
-        <v>1</v>
-      </c>
-      <c r="C10" s="33">
+      <c r="B10" s="31">
+        <v>1</v>
+      </c>
+      <c r="C10" s="32">
         <v>0.77</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="31">
         <v>0.86</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="32">
         <v>0.67</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="31">
         <v>0.89</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="32">
         <v>0.83</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="31">
         <v>0.98</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="32">
         <v>0.87</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="31">
         <v>0.98</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="32">
         <v>0.9</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="31">
         <v>0.96</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="32">
         <v>0.92</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="31">
         <v>0.92</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="32">
         <v>0.83</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="32">
-        <v>1</v>
-      </c>
-      <c r="C17" s="33">
-        <v>1</v>
-      </c>
-      <c r="D17" s="37">
+      <c r="B17" s="31">
+        <v>1</v>
+      </c>
+      <c r="C17" s="32">
+        <v>1</v>
+      </c>
+      <c r="D17" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="32">
+      <c r="B18" s="31">
         <v>0.85</v>
       </c>
-      <c r="C18" s="33">
-        <v>1</v>
-      </c>
-      <c r="D18" s="37">
+      <c r="C18" s="32">
+        <v>1</v>
+      </c>
+      <c r="D18" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="32">
-        <v>1</v>
-      </c>
-      <c r="C19" s="33">
-        <v>1</v>
-      </c>
-      <c r="D19" s="37">
+      <c r="B19" s="31">
+        <v>1</v>
+      </c>
+      <c r="C19" s="32">
+        <v>1</v>
+      </c>
+      <c r="D19" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B20" s="31">
         <v>0.86</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="32">
         <v>0.83</v>
       </c>
-      <c r="D20" s="37">
+      <c r="D20" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="32">
-        <v>1</v>
-      </c>
-      <c r="C21" s="33">
-        <v>1</v>
-      </c>
-      <c r="D21" s="37">
+      <c r="B21" s="31">
+        <v>1</v>
+      </c>
+      <c r="C21" s="32">
+        <v>1</v>
+      </c>
+      <c r="D21" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="32">
+      <c r="B22" s="31">
         <v>0.79</v>
       </c>
-      <c r="C22" s="33">
-        <v>1</v>
-      </c>
-      <c r="D22" s="37">
+      <c r="C22" s="32">
+        <v>1</v>
+      </c>
+      <c r="D22" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="32">
+      <c r="B23" s="31">
         <v>0.85</v>
       </c>
-      <c r="C23" s="33">
-        <v>1</v>
-      </c>
-      <c r="D23" s="37">
+      <c r="C23" s="32">
+        <v>1</v>
+      </c>
+      <c r="D23" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="32">
+      <c r="B24" s="31">
         <v>0.99</v>
       </c>
-      <c r="C24" s="33">
-        <v>1</v>
-      </c>
-      <c r="D24" s="37">
+      <c r="C24" s="32">
+        <v>1</v>
+      </c>
+      <c r="D24" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="32">
+      <c r="B25" s="31">
         <v>0.69</v>
       </c>
-      <c r="C25" s="33">
-        <v>1</v>
-      </c>
-      <c r="D25" s="37">
+      <c r="C25" s="32">
+        <v>1</v>
+      </c>
+      <c r="D25" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="32">
-        <v>1</v>
-      </c>
-      <c r="C26" s="33">
-        <v>1</v>
-      </c>
-      <c r="D26" s="37">
+      <c r="B26" s="31">
+        <v>1</v>
+      </c>
+      <c r="C26" s="32">
+        <v>1</v>
+      </c>
+      <c r="D26" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="32">
-        <v>1</v>
-      </c>
-      <c r="C27" s="33">
+      <c r="B27" s="31">
+        <v>1</v>
+      </c>
+      <c r="C27" s="32">
         <v>0.86</v>
       </c>
-      <c r="D27" s="37">
+      <c r="D27" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="32">
-        <v>1</v>
-      </c>
-      <c r="C28" s="33">
+      <c r="B28" s="31">
+        <v>1</v>
+      </c>
+      <c r="C28" s="32">
         <v>0.92</v>
       </c>
-      <c r="D28" s="37">
+      <c r="D28" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="32">
+      <c r="B29" s="31">
         <v>0.86</v>
       </c>
-      <c r="C29" s="33">
+      <c r="C29" s="32">
         <v>0.24</v>
       </c>
-      <c r="D29" s="37">
+      <c r="D29" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="32">
+      <c r="B30" s="31">
         <v>0.85</v>
       </c>
-      <c r="C30" s="33">
+      <c r="C30" s="32">
         <v>0.96</v>
       </c>
-      <c r="D30" s="37">
+      <c r="D30" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="32">
-        <v>1</v>
-      </c>
-      <c r="C31" s="33">
+      <c r="B31" s="31">
+        <v>1</v>
+      </c>
+      <c r="C31" s="32">
         <v>0.87</v>
       </c>
-      <c r="D31" s="37">
+      <c r="D31" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="32">
+      <c r="B32" s="31">
         <v>0.98</v>
       </c>
-      <c r="C32" s="33">
+      <c r="C32" s="32">
         <v>0.84</v>
       </c>
-      <c r="D32" s="37">
+      <c r="D32" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="32">
+      <c r="B33" s="31">
         <v>0.84</v>
       </c>
-      <c r="C33" s="33">
+      <c r="C33" s="32">
         <v>0.86</v>
       </c>
-      <c r="D33" s="37">
+      <c r="D33" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="32">
+      <c r="B34" s="31">
         <v>0.91</v>
       </c>
-      <c r="C34" s="33">
-        <v>1</v>
-      </c>
-      <c r="D34" s="37">
+      <c r="C34" s="32">
+        <v>1</v>
+      </c>
+      <c r="D34" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="32">
+      <c r="B35" s="31">
         <v>0.85</v>
       </c>
-      <c r="C35" s="33">
+      <c r="C35" s="32">
         <v>0.85</v>
       </c>
-      <c r="D35" s="37">
+      <c r="D35" s="36">
         <v>0</v>
       </c>
     </row>
@@ -4591,504 +4533,504 @@
   </sheetPr>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.15234375" style="27" customWidth="1"/>
-    <col min="2" max="3" width="9.23046875" style="27"/>
-    <col min="5" max="16384" width="9.23046875" style="27"/>
+    <col min="1" max="1" width="18.15234375" style="26" customWidth="1"/>
+    <col min="2" max="3" width="9.23046875" style="26"/>
+    <col min="5" max="16384" width="9.23046875" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22">
+      <c r="B1" s="21">
         <v>2019</v>
       </c>
-      <c r="C1" s="22">
+      <c r="C1" s="21">
         <v>2020</v>
       </c>
-      <c r="D1" s="38">
+      <c r="D1" s="37">
         <v>2021</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="28">
+      <c r="A2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27">
         <v>0.99719999999999998</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="27">
         <v>0.99719999999999998</v>
       </c>
-      <c r="D2" s="37">
+      <c r="D2" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="27">
         <v>0.99839999999999995</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="27">
         <v>0.99839999999999995</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="27">
         <v>0.99909999999999999</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="27">
         <v>0.99909999999999999</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="27">
         <v>0.99819999999999998</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="27">
         <v>0.999</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="29">
-        <v>1</v>
-      </c>
-      <c r="C6" s="29">
-        <v>1</v>
-      </c>
-      <c r="D6" s="37">
+      <c r="B6" s="28">
+        <v>1</v>
+      </c>
+      <c r="C6" s="28">
+        <v>1</v>
+      </c>
+      <c r="D6" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="27">
         <v>0.99960000000000004</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="27">
         <v>0.99839999999999995</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="27">
         <v>0.99990000000000001</v>
       </c>
-      <c r="C8" s="29">
-        <v>1</v>
-      </c>
-      <c r="D8" s="37">
+      <c r="C8" s="28">
+        <v>1</v>
+      </c>
+      <c r="D8" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="27">
         <v>0.99839999999999995</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="27">
         <v>0.99809999999999999</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="27">
         <v>0.99990000000000001</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="27">
         <v>0.99809999999999999</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="27">
         <v>0.99790000000000001</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="27">
         <v>0.99880000000000002</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="27">
         <v>0.99819999999999998</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="27">
         <v>0.99819999999999998</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="27">
         <v>0.99970000000000003</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="27">
         <v>0.99950000000000006</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="27">
         <v>0.99829999999999997</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="27">
         <v>0.99850000000000005</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="27">
         <v>0.99939999999999996</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="27">
         <v>0.99909999999999999</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="27">
         <v>0.99890000000000001</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="27">
         <v>0.99850000000000005</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="28">
         <v>1.0001</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="27">
         <v>0.99990000000000001</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D17" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="29">
-        <v>1</v>
-      </c>
-      <c r="C18" s="28">
+      <c r="B18" s="28">
+        <v>1</v>
+      </c>
+      <c r="C18" s="27">
         <v>0.99990000000000001</v>
       </c>
-      <c r="D18" s="37">
+      <c r="D18" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="29">
-        <v>1</v>
-      </c>
-      <c r="C19" s="29">
+      <c r="B19" s="28">
+        <v>1</v>
+      </c>
+      <c r="C19" s="28">
         <v>1.0001</v>
       </c>
-      <c r="D19" s="37">
+      <c r="D19" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="28">
+      <c r="B20" s="27">
         <v>0.998</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="27">
         <v>0.99860000000000004</v>
       </c>
-      <c r="D20" s="37">
+      <c r="D20" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="29">
+      <c r="B21" s="28">
         <v>1.0001</v>
       </c>
-      <c r="C21" s="29">
-        <v>1</v>
-      </c>
-      <c r="D21" s="37">
+      <c r="C21" s="28">
+        <v>1</v>
+      </c>
+      <c r="D21" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="28">
+      <c r="B22" s="27">
         <v>0.99839999999999995</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="28">
         <v>1.0001</v>
       </c>
-      <c r="D22" s="37">
+      <c r="D22" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="28">
+      <c r="B23" s="27">
         <v>0.99809999999999999</v>
       </c>
-      <c r="C23" s="29">
-        <v>1</v>
-      </c>
-      <c r="D23" s="37">
+      <c r="C23" s="28">
+        <v>1</v>
+      </c>
+      <c r="D23" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="28">
+      <c r="B24" s="27">
         <v>0.99890000000000001</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="27">
         <v>0.99990000000000001</v>
       </c>
-      <c r="D24" s="37">
+      <c r="D24" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="28">
+      <c r="B25" s="27">
         <v>0.99850000000000005</v>
       </c>
-      <c r="C25" s="29">
-        <v>1</v>
-      </c>
-      <c r="D25" s="37">
+      <c r="C25" s="28">
+        <v>1</v>
+      </c>
+      <c r="D25" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="29">
+      <c r="B26" s="28">
         <v>1.0001</v>
       </c>
-      <c r="C26" s="29">
-        <v>1</v>
-      </c>
-      <c r="D26" s="37">
+      <c r="C26" s="28">
+        <v>1</v>
+      </c>
+      <c r="D26" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="29">
+      <c r="B27" s="28">
         <v>1.0001</v>
       </c>
-      <c r="C27" s="28">
+      <c r="C27" s="27">
         <v>0.99870000000000003</v>
       </c>
-      <c r="D27" s="37">
+      <c r="D27" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="29">
-        <v>1</v>
-      </c>
-      <c r="C28" s="28">
+      <c r="B28" s="28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="27">
         <v>0.99929999999999997</v>
       </c>
-      <c r="D28" s="37">
+      <c r="D28" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="28">
+      <c r="B29" s="27">
         <v>0.99839999999999995</v>
       </c>
-      <c r="C29" s="28">
+      <c r="C29" s="27">
         <v>0.99819999999999998</v>
       </c>
-      <c r="D29" s="37">
+      <c r="D29" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="28">
+      <c r="B30" s="27">
         <v>0.99860000000000004</v>
       </c>
-      <c r="C30" s="28">
+      <c r="C30" s="27">
         <v>0.99950000000000006</v>
       </c>
-      <c r="D30" s="37">
+      <c r="D30" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="29">
-        <v>1</v>
-      </c>
-      <c r="C31" s="28">
+      <c r="B31" s="28">
+        <v>1</v>
+      </c>
+      <c r="C31" s="27">
         <v>0.99929999999999997</v>
       </c>
-      <c r="D31" s="37">
+      <c r="D31" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="28">
+      <c r="B32" s="27">
         <v>0.99990000000000001</v>
       </c>
-      <c r="C32" s="28">
+      <c r="C32" s="27">
         <v>0.99839999999999995</v>
       </c>
-      <c r="D32" s="37">
+      <c r="D32" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="28">
+      <c r="B33" s="27">
         <v>0.99809999999999999</v>
       </c>
-      <c r="C33" s="28">
+      <c r="C33" s="27">
         <v>0.99839999999999995</v>
       </c>
-      <c r="D33" s="37">
+      <c r="D33" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="28">
+      <c r="B34" s="27">
         <v>0.999</v>
       </c>
-      <c r="C34" s="29">
-        <v>1</v>
-      </c>
-      <c r="D34" s="37">
+      <c r="C34" s="28">
+        <v>1</v>
+      </c>
+      <c r="D34" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="28">
+      <c r="B35" s="27">
         <v>0.99850000000000005</v>
       </c>
-      <c r="C35" s="28">
+      <c r="C35" s="27">
         <v>0.99860000000000004</v>
       </c>
-      <c r="D35" s="37">
+      <c r="D35" s="36">
         <v>0</v>
       </c>
     </row>
@@ -5105,8 +5047,8 @@
   </sheetPr>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5116,494 +5058,494 @@
     <col min="4" max="4" width="14.23046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="39">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44">
         <v>2019</v>
       </c>
-      <c r="C1" s="39">
+      <c r="C1" s="44">
         <v>2020</v>
       </c>
-      <c r="D1" s="39">
+      <c r="D1" s="44">
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36">
-        <v>3.2899999999999999E-2</v>
-      </c>
-      <c r="C2" s="36">
-        <v>3.4299999999999997E-2</v>
-      </c>
-      <c r="D2" s="36">
-        <v>3.3799999999999997E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B2" s="43">
+        <v>368123.77686414612</v>
+      </c>
+      <c r="C2" s="43">
+        <v>388937.75691434083</v>
+      </c>
+      <c r="D2" s="43">
+        <v>339207.86907169083</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="36">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="C3" s="36">
-        <v>4.1799999999999997E-2</v>
-      </c>
-      <c r="D3" s="36">
-        <v>4.3900000000000002E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B3" s="43">
+        <v>88336.263546286107</v>
+      </c>
+      <c r="C3" s="43">
+        <v>98333.581434224354</v>
+      </c>
+      <c r="D3" s="43">
+        <v>122747.2007430574</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="36">
-        <v>3.9899999999999998E-2</v>
-      </c>
-      <c r="C4" s="36">
-        <v>4.2799999999999998E-2</v>
-      </c>
-      <c r="D4" s="36">
-        <v>4.1300000000000003E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B4" s="43">
+        <v>29149.505415005151</v>
+      </c>
+      <c r="C4" s="43">
+        <v>38269.691020081736</v>
+      </c>
+      <c r="D4" s="43">
+        <v>77957.436117107907</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="36">
-        <v>4.7800000000000002E-2</v>
-      </c>
-      <c r="C5" s="36">
-        <v>0.05</v>
-      </c>
-      <c r="D5" s="36">
-        <v>5.0500000000000003E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B5" s="43">
+        <v>185048.95979814383</v>
+      </c>
+      <c r="C5" s="43">
+        <v>120232.76011969613</v>
+      </c>
+      <c r="D5" s="43">
+        <v>212895.81044622933</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="C6" s="36">
-        <v>7.7100000000000002E-2</v>
-      </c>
-      <c r="D6" s="36">
-        <v>7.7200000000000005E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B6" s="43">
+        <v>44177.81492542522</v>
+      </c>
+      <c r="C6" s="43">
+        <v>25908.290101041028</v>
+      </c>
+      <c r="D6" s="43">
+        <v>57249.370401944674</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="36">
-        <v>2.76E-2</v>
-      </c>
-      <c r="C7" s="36">
-        <v>3.1300000000000001E-2</v>
-      </c>
-      <c r="D7" s="36">
-        <v>3.0700000000000002E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B7" s="43">
+        <v>858414.58283670188</v>
+      </c>
+      <c r="C7" s="43">
+        <v>413102.64263501758</v>
+      </c>
+      <c r="D7" s="43">
+        <v>973760.56377101957</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="36">
-        <v>5.2600000000000001E-2</v>
-      </c>
-      <c r="C8" s="36">
-        <v>5.3600000000000002E-2</v>
-      </c>
-      <c r="D8" s="36">
-        <v>5.3699999999999998E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B8" s="43">
+        <v>111871.55145103706</v>
+      </c>
+      <c r="C8" s="43">
+        <v>99303.161938801321</v>
+      </c>
+      <c r="D8" s="43">
+        <v>142668.42905031296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="36">
-        <v>5.6099999999999997E-2</v>
-      </c>
-      <c r="C9" s="36">
-        <v>6.1899999999999997E-2</v>
-      </c>
-      <c r="D9" s="36">
-        <v>5.7099999999999998E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B9" s="43">
+        <v>132357.11401143795</v>
+      </c>
+      <c r="C9" s="43">
+        <v>84999.507543382715</v>
+      </c>
+      <c r="D9" s="43">
+        <v>134826.02421496523</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="36">
-        <v>3.6600000000000001E-2</v>
-      </c>
-      <c r="C10" s="36">
-        <v>3.9100000000000003E-2</v>
-      </c>
-      <c r="D10" s="36">
-        <v>3.8600000000000002E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B10" s="43">
+        <v>21150.567080198762</v>
+      </c>
+      <c r="C10" s="43">
+        <v>13866.767157763916</v>
+      </c>
+      <c r="D10" s="43">
+        <v>40984.454359089759</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="36">
-        <v>4.9200000000000001E-2</v>
-      </c>
-      <c r="C11" s="36">
-        <v>5.04E-2</v>
-      </c>
-      <c r="D11" s="36">
-        <v>4.9399999999999999E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B11" s="43">
+        <v>11665.463072773317</v>
+      </c>
+      <c r="C11" s="43">
+        <v>49322.369209947552</v>
+      </c>
+      <c r="D11" s="43">
+        <v>78214.490131456056</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="36">
-        <v>4.3700000000000003E-2</v>
-      </c>
-      <c r="C12" s="36">
-        <v>4.8099999999999997E-2</v>
-      </c>
-      <c r="D12" s="36">
-        <v>4.6199999999999998E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B12" s="43">
+        <v>91424.261238125982</v>
+      </c>
+      <c r="C12" s="43">
+        <v>76956.77834749411</v>
+      </c>
+      <c r="D12" s="43">
+        <v>123052.1452180184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="36">
-        <v>2.52E-2</v>
-      </c>
-      <c r="C13" s="36">
-        <v>2.5100000000000001E-2</v>
-      </c>
-      <c r="D13" s="36">
-        <v>2.4799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B13" s="43">
+        <v>86715.18063995085</v>
+      </c>
+      <c r="C13" s="43">
+        <v>40275.04808007992</v>
+      </c>
+      <c r="D13" s="43">
+        <v>100838.55018114066</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="36">
-        <v>2.86E-2</v>
-      </c>
-      <c r="C14" s="36">
-        <v>3.1099999999999999E-2</v>
-      </c>
-      <c r="D14" s="36">
-        <v>3.09E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B14" s="43">
+        <v>248551.10681379409</v>
+      </c>
+      <c r="C14" s="43">
+        <v>177315.33731481049</v>
+      </c>
+      <c r="D14" s="43">
+        <v>259313.99244803726</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="36">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="C15" s="36">
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="D15" s="36">
-        <v>2.23E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B15" s="43">
+        <v>175070.10106443128</v>
+      </c>
+      <c r="C15" s="43">
+        <v>81134.281191657661</v>
+      </c>
+      <c r="D15" s="43">
+        <v>170408.43296751453</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="36">
-        <v>1.41E-2</v>
-      </c>
-      <c r="C16" s="36">
-        <v>1.6E-2</v>
-      </c>
-      <c r="D16" s="36">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B16" s="43">
+        <v>295591.03053607483</v>
+      </c>
+      <c r="C16" s="43">
+        <v>280296.9256926215</v>
+      </c>
+      <c r="D16" s="43">
+        <v>358506.28835415019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="36">
-        <v>9.5999999999999992E-3</v>
-      </c>
-      <c r="C17" s="36">
-        <v>9.7999999999999997E-3</v>
-      </c>
-      <c r="D17" s="36">
-        <v>9.4999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B17" s="43">
+        <v>445259.19373484765</v>
+      </c>
+      <c r="C17" s="43">
+        <v>389213.27114760026</v>
+      </c>
+      <c r="D17" s="43">
+        <v>367479.63121744891</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="36">
-        <v>3.1399999999999997E-2</v>
-      </c>
-      <c r="C18" s="36">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="D18" s="36">
-        <v>2.9600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B18" s="43">
+        <v>169668.06625304942</v>
+      </c>
+      <c r="C18" s="43">
+        <v>108435.69768625664</v>
+      </c>
+      <c r="D18" s="43">
+        <v>164144.9902171494</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="36">
-        <v>4.0099999999999997E-2</v>
-      </c>
-      <c r="C19" s="36">
-        <v>4.2900000000000001E-2</v>
-      </c>
-      <c r="D19" s="36">
-        <v>4.1200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B19" s="43">
+        <v>137429.09476586813</v>
+      </c>
+      <c r="C19" s="43">
+        <v>108957.42274525222</v>
+      </c>
+      <c r="D19" s="43">
+        <v>135227.01270723256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="36">
-        <v>4.2700000000000002E-2</v>
-      </c>
-      <c r="C20" s="36">
-        <v>4.5900000000000003E-2</v>
-      </c>
-      <c r="D20" s="36">
-        <v>4.5400000000000003E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B20" s="43">
+        <v>70495.018328563659</v>
+      </c>
+      <c r="C20" s="43">
+        <v>47093.047496720486</v>
+      </c>
+      <c r="D20" s="43">
+        <v>83057.453648410097</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="36">
-        <v>7.1199999999999999E-2</v>
-      </c>
-      <c r="C21" s="36">
-        <v>7.8200000000000006E-2</v>
-      </c>
-      <c r="D21" s="36">
-        <v>7.4099999999999999E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B21" s="43">
+        <v>143818.50784351144</v>
+      </c>
+      <c r="C21" s="43">
+        <v>80510.465930602644</v>
+      </c>
+      <c r="D21" s="43">
+        <v>163200.63403634256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="36">
-        <v>3.9699999999999999E-2</v>
-      </c>
-      <c r="C22" s="36">
-        <v>3.8399999999999997E-2</v>
-      </c>
-      <c r="D22" s="36">
-        <v>3.3300000000000003E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B22" s="43">
+        <v>163987.4768544145</v>
+      </c>
+      <c r="C22" s="43">
+        <v>162517.19537888686</v>
+      </c>
+      <c r="D22" s="43">
+        <v>308258.1625563064</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="36">
-        <v>6.2100000000000002E-2</v>
-      </c>
-      <c r="C23" s="36">
-        <v>6.2899999999999998E-2</v>
-      </c>
-      <c r="D23" s="36">
-        <v>6.3299999999999995E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B23" s="43">
+        <v>107913.73945706272</v>
+      </c>
+      <c r="C23" s="43">
+        <v>102010.57859190379</v>
+      </c>
+      <c r="D23" s="43">
+        <v>110131.41020187437</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="36">
-        <v>5.2400000000000002E-2</v>
-      </c>
-      <c r="C24" s="36">
-        <v>5.67E-2</v>
-      </c>
-      <c r="D24" s="36">
-        <v>5.4899999999999997E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B24" s="43">
+        <v>58676.918740835354</v>
+      </c>
+      <c r="C24" s="43">
+        <v>39219.464576261475</v>
+      </c>
+      <c r="D24" s="43">
+        <v>95391.999567564242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="36">
-        <v>2.0899999999999998E-2</v>
-      </c>
-      <c r="C25" s="36">
-        <v>2.1499999999999998E-2</v>
-      </c>
-      <c r="D25" s="36">
-        <v>2.1899999999999999E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B25" s="43">
+        <v>244408.3779030056</v>
+      </c>
+      <c r="C25" s="43">
+        <v>220750.53632201822</v>
+      </c>
+      <c r="D25" s="43">
+        <v>380203.97952493309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="36">
-        <v>1.54E-2</v>
-      </c>
-      <c r="C26" s="36">
-        <v>1.7899999999999999E-2</v>
-      </c>
-      <c r="D26" s="36">
-        <v>2.01E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B26" s="43">
+        <v>131808.03900166045</v>
+      </c>
+      <c r="C26" s="43">
+        <v>218750.89498478701</v>
+      </c>
+      <c r="D26" s="43">
+        <v>164411.1581867155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="36">
-        <v>2.0400000000000001E-2</v>
-      </c>
-      <c r="C27" s="36">
-        <v>2.3599999999999999E-2</v>
-      </c>
-      <c r="D27" s="36">
-        <v>2.1899999999999999E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B27" s="43">
+        <v>114079.56126508756</v>
+      </c>
+      <c r="C27" s="43">
+        <v>103181.32832294136</v>
+      </c>
+      <c r="D27" s="43">
+        <v>161497.68163567284</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="36">
-        <v>3.2399999999999998E-2</v>
-      </c>
-      <c r="C28" s="36">
-        <v>3.3399999999999999E-2</v>
-      </c>
-      <c r="D28" s="36">
-        <v>3.2099999999999997E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B28" s="43">
+        <v>128724.91202913478</v>
+      </c>
+      <c r="C28" s="43">
+        <v>80699.584368521872</v>
+      </c>
+      <c r="D28" s="43">
+        <v>154177.82163043058</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="36">
-        <v>5.7099999999999998E-2</v>
-      </c>
-      <c r="C29" s="36">
-        <v>6.6299999999999998E-2</v>
-      </c>
-      <c r="D29" s="36">
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B29" s="43">
+        <v>104069.39399947616</v>
+      </c>
+      <c r="C29" s="43">
+        <v>54680.207741931416</v>
+      </c>
+      <c r="D29" s="43">
+        <v>106669.74055694445</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="36">
-        <v>3.61E-2</v>
-      </c>
-      <c r="C30" s="36">
-        <v>3.44E-2</v>
-      </c>
-      <c r="D30" s="36">
-        <v>2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B30" s="43">
+        <v>139427.03555631635</v>
+      </c>
+      <c r="C30" s="43">
+        <v>113199.90404133758</v>
+      </c>
+      <c r="D30" s="43">
+        <v>159447.11777741232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="36">
-        <v>4.0099999999999997E-2</v>
-      </c>
-      <c r="C31" s="36">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="D31" s="36">
-        <v>4.1399999999999999E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B31" s="43">
+        <v>117030.68379584789</v>
+      </c>
+      <c r="C31" s="43">
+        <v>79879.399423728493</v>
+      </c>
+      <c r="D31" s="43">
+        <v>274477.23107080051</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="36">
-        <v>3.5700000000000003E-2</v>
-      </c>
-      <c r="C32" s="36">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="D32" s="36">
-        <v>3.8100000000000002E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B32" s="43">
+        <v>111946.22253758871</v>
+      </c>
+      <c r="C32" s="43">
+        <v>166868.11077758766</v>
+      </c>
+      <c r="D32" s="43">
+        <v>311366.60798736679</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="36">
-        <v>4.5600000000000002E-2</v>
-      </c>
-      <c r="C33" s="36">
-        <v>4.9399999999999999E-2</v>
-      </c>
-      <c r="D33" s="36">
-        <v>5.0200000000000002E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B33" s="43">
+        <v>130381.96139360892</v>
+      </c>
+      <c r="C33" s="43">
+        <v>91088.603808839282</v>
+      </c>
+      <c r="D33" s="43">
+        <v>156268.12288027885</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="36">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="C34" s="36">
-        <v>4.7500000000000001E-2</v>
-      </c>
-      <c r="D34" s="36">
-        <v>4.6300000000000001E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B34" s="43">
+        <v>56410.717395729182</v>
+      </c>
+      <c r="C34" s="43">
+        <v>27376.062580782022</v>
+      </c>
+      <c r="D34" s="43">
+        <v>31988.255740175024</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="36">
-        <v>3.8800000000000001E-2</v>
-      </c>
-      <c r="C35" s="36">
-        <v>3.9100000000000003E-2</v>
-      </c>
-      <c r="D35" s="36">
-        <v>3.7600000000000001E-2</v>
+      <c r="B35" s="43">
+        <v>39998.64465435742</v>
+      </c>
+      <c r="C35" s="43">
+        <v>24197.026145394098</v>
+      </c>
+      <c r="D35" s="43">
+        <v>47026.211685743416</v>
       </c>
     </row>
   </sheetData>
@@ -5619,8 +5561,8 @@
   </sheetPr>
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -7498,13 +7440,13 @@
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="22">
         <v>2.8742000000000001</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="23">
         <v>3.3073000000000001</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="23">
         <v>4.6558999999999999</v>
       </c>
     </row>
@@ -7512,13 +7454,13 @@
       <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="24">
         <v>4.8830999999999998</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="25">
         <v>6.6056999999999997</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="25">
         <v>1.6517999999999999</v>
       </c>
     </row>
@@ -7526,13 +7468,13 @@
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="24">
         <v>1.8372999999999999</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="25">
         <v>2.6768999999999998</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="25">
         <v>3.6288</v>
       </c>
     </row>
@@ -7540,13 +7482,13 @@
       <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="24">
         <v>2.1757</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="25">
         <v>2.5722999999999998</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="25">
         <v>3.1027999999999998</v>
       </c>
     </row>
@@ -7554,13 +7496,13 @@
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="24">
         <v>5.3120000000000003</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="25">
         <v>6.4272999999999998</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="25">
         <v>9.3864000000000001</v>
       </c>
     </row>
@@ -7568,13 +7510,13 @@
       <c r="A7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="24">
         <v>7.5114000000000001</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="25">
         <v>10.2105</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="25">
         <v>12.649100000000001</v>
       </c>
     </row>
@@ -7582,13 +7524,13 @@
       <c r="A8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="24">
         <v>2.3290999999999999</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="25">
         <v>3.2538</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="25">
         <v>3.4015</v>
       </c>
     </row>
@@ -7596,13 +7538,13 @@
       <c r="A9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="24">
         <v>2.1844000000000001</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="25">
         <v>2.7606999999999999</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="25">
         <v>3.0657999999999999</v>
       </c>
     </row>
@@ -7610,13 +7552,13 @@
       <c r="A10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="24">
         <v>1.2626999999999999</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="25">
         <v>2.3283999999999998</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="25">
         <v>2.9817</v>
       </c>
     </row>
@@ -7624,13 +7566,13 @@
       <c r="A11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="24">
         <v>2.0369000000000002</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="25">
         <v>2.5150999999999999</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="25">
         <v>2.8875000000000002</v>
       </c>
     </row>
@@ -7638,13 +7580,13 @@
       <c r="A12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="24">
         <v>2.1297999999999999</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="25">
         <v>2.5285000000000002</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="25">
         <v>3.7504</v>
       </c>
     </row>
@@ -7652,13 +7594,13 @@
       <c r="A13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="24">
         <v>1.2445999999999999</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="25">
         <v>1.6220000000000001</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="25">
         <v>2.2532000000000001</v>
       </c>
     </row>
@@ -7666,13 +7608,13 @@
       <c r="A14" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="24">
         <v>2.1109</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="25">
         <v>2.7339000000000002</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="25">
         <v>3.056</v>
       </c>
     </row>
@@ -7680,13 +7622,13 @@
       <c r="A15" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="24">
         <v>1.8983000000000001</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="25">
         <v>2.5425</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="25">
         <v>2.7681</v>
       </c>
     </row>
@@ -7694,13 +7636,13 @@
       <c r="A16" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="24">
         <v>2.7986</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="25">
         <v>4.0631000000000004</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="25">
         <v>4.9367000000000001</v>
       </c>
     </row>
@@ -7708,13 +7650,13 @@
       <c r="A17" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="24">
         <v>3.8239999999999998</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="25">
         <v>4.0090000000000003</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="25">
         <v>4.4626000000000001</v>
       </c>
     </row>
@@ -7722,13 +7664,13 @@
       <c r="A18" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="24">
         <v>3.2803</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="25">
         <v>3.3746</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="25">
         <v>3.6937000000000002</v>
       </c>
     </row>
@@ -7736,13 +7678,13 @@
       <c r="A19" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="24">
         <v>2.9176000000000002</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="25">
         <v>3.8492999999999999</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="25">
         <v>4.3613999999999997</v>
       </c>
     </row>
@@ -7750,13 +7692,13 @@
       <c r="A20" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="24">
         <v>1.5488999999999999</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="25">
         <v>1.9261999999999999</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="25">
         <v>2.1394000000000002</v>
       </c>
     </row>
@@ -7764,13 +7706,13 @@
       <c r="A21" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="24">
         <v>1.3401000000000001</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="25">
         <v>2.2886000000000002</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="25">
         <v>3.5489000000000002</v>
       </c>
     </row>
@@ -7778,13 +7720,13 @@
       <c r="A22" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="24">
         <v>1.7966</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="25">
         <v>2.0842000000000001</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="25">
         <v>3.0722999999999998</v>
       </c>
     </row>
@@ -7792,13 +7734,13 @@
       <c r="A23" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="24">
         <v>1.6496999999999999</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="25">
         <v>1.925</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="25">
         <v>2.1728999999999998</v>
       </c>
     </row>
@@ -7806,13 +7748,13 @@
       <c r="A24" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="24">
         <v>0.75039999999999996</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="25">
         <v>1.1698999999999999</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="25">
         <v>2.1120999999999999</v>
       </c>
     </row>
@@ -7820,13 +7762,13 @@
       <c r="A25" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25" s="24">
         <v>1.3444</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="25">
         <v>1.6828000000000001</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="25">
         <v>2.7698999999999998</v>
       </c>
     </row>
@@ -7834,13 +7776,13 @@
       <c r="A26" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="24">
         <v>2.3454000000000002</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="25">
         <v>3.2149999999999999</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="25">
         <v>4.2712000000000003</v>
       </c>
     </row>
@@ -7848,13 +7790,13 @@
       <c r="A27" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="24">
         <v>2</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="25">
         <v>2.7319</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D27" s="25">
         <v>3.6316999999999999</v>
       </c>
     </row>
@@ -7862,13 +7804,13 @@
       <c r="A28" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="24">
         <v>1.5229999999999999</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="25">
         <v>1.7270000000000001</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28" s="25">
         <v>1.7030000000000001</v>
       </c>
     </row>
@@ -7876,13 +7818,13 @@
       <c r="A29" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B29" s="24">
         <v>2.2631999999999999</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="25">
         <v>3.0398000000000001</v>
       </c>
-      <c r="D29" s="26">
+      <c r="D29" s="25">
         <v>0.99670000000000003</v>
       </c>
     </row>
@@ -7890,13 +7832,13 @@
       <c r="A30" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="25">
+      <c r="B30" s="24">
         <v>1.7028000000000001</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="25">
         <v>2.2909000000000002</v>
       </c>
-      <c r="D30" s="26">
+      <c r="D30" s="25">
         <v>2.7959000000000001</v>
       </c>
     </row>
@@ -7904,13 +7846,13 @@
       <c r="A31" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="25">
+      <c r="B31" s="24">
         <v>1.8208</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C31" s="25">
         <v>2.1046999999999998</v>
       </c>
-      <c r="D31" s="26">
+      <c r="D31" s="25">
         <v>2.6309</v>
       </c>
     </row>
@@ -7918,13 +7860,13 @@
       <c r="A32" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="25">
+      <c r="B32" s="24">
         <v>3.6806999999999999</v>
       </c>
-      <c r="C32" s="26">
+      <c r="C32" s="25">
         <v>6.1482999999999999</v>
       </c>
-      <c r="D32" s="26">
+      <c r="D32" s="25">
         <v>7.8464</v>
       </c>
     </row>
@@ -7932,13 +7874,13 @@
       <c r="A33" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="25">
+      <c r="B33" s="24">
         <v>2.8233000000000001</v>
       </c>
-      <c r="C33" s="26">
+      <c r="C33" s="25">
         <v>3.6640999999999999</v>
       </c>
-      <c r="D33" s="26">
+      <c r="D33" s="25">
         <v>4.4568000000000003</v>
       </c>
     </row>
@@ -7946,13 +7888,13 @@
       <c r="A34" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="24">
         <v>1.7063999999999999</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C34" s="25">
         <v>2.2963</v>
       </c>
-      <c r="D34" s="26">
+      <c r="D34" s="25">
         <v>3.2776999999999998</v>
       </c>
     </row>
@@ -7960,13 +7902,13 @@
       <c r="A35" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B35" s="24">
         <v>2.1141999999999999</v>
       </c>
-      <c r="C35" s="26">
+      <c r="C35" s="25">
         <v>2.7658</v>
       </c>
-      <c r="D35" s="26">
+      <c r="D35" s="25">
         <v>4.2065999999999999</v>
       </c>
     </row>
@@ -8517,18 +8459,18 @@
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22">
+      <c r="B1" s="21">
         <v>2019</v>
       </c>
-      <c r="C1" s="22">
+      <c r="C1" s="21">
         <v>2020</v>
       </c>
-      <c r="D1" s="22">
+      <c r="D1" s="21">
         <v>2021</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="19">
@@ -8542,7 +8484,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="19">
@@ -8556,7 +8498,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="19">
@@ -8570,7 +8512,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="19">
@@ -8584,7 +8526,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="19">
@@ -8598,7 +8540,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="19">
@@ -8612,7 +8554,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="19">
@@ -8626,7 +8568,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="19">
@@ -8640,7 +8582,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="19">
@@ -8654,7 +8596,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="19">
@@ -8668,7 +8610,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="19">
@@ -8682,7 +8624,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="19">
@@ -8696,7 +8638,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="19">
@@ -8710,7 +8652,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="19">
@@ -8724,7 +8666,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="19">
@@ -8738,7 +8680,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="19">
@@ -8752,7 +8694,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="19">
@@ -8766,7 +8708,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="19">
@@ -8780,7 +8722,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="19">
@@ -8794,7 +8736,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="20" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="19">
@@ -8808,7 +8750,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="20" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="19">
@@ -8822,7 +8764,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="20" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="19">
@@ -8836,7 +8778,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="19">
@@ -8850,7 +8792,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="19">
@@ -8864,7 +8806,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="19">
@@ -8878,7 +8820,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="19">
@@ -8892,7 +8834,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="19">
@@ -8906,7 +8848,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="19">
@@ -8920,7 +8862,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="20" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="19">
@@ -8934,7 +8876,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="20" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="19">
@@ -8948,7 +8890,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="20" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="19">
@@ -8962,7 +8904,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="20" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="19">
@@ -8976,7 +8918,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="20" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="19">
@@ -8990,7 +8932,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="20" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="19">
@@ -9028,492 +8970,492 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34">
         <v>2019</v>
       </c>
-      <c r="C1" s="35">
+      <c r="C1" s="34">
         <v>2020</v>
       </c>
-      <c r="D1" s="38">
+      <c r="D1" s="37">
         <v>2021</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="36">
+      <c r="A2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="35">
         <v>-1.11E-2</v>
       </c>
-      <c r="C2" s="36">
+      <c r="C2" s="35">
         <v>2.41E-2</v>
       </c>
-      <c r="D2" s="37">
+      <c r="D2" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="35">
         <v>-3.9100000000000003E-2</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="35">
         <v>4.2700000000000002E-2</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="35">
         <v>-8.4599999999999995E-2</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="35">
         <v>0.12690000000000001</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="35">
         <v>-3.5999999999999999E-3</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="35">
         <v>7.1599999999999997E-2</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="35">
         <v>-8.3000000000000001E-3</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="35">
         <v>2.24E-2</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="35">
         <v>-8.6E-3</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="35">
         <v>6.5699999999999995E-2</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="35">
         <v>-0.1193</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="35">
         <v>0.16650000000000001</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="35">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="35">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="35">
         <v>2.0400000000000001E-2</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="35">
         <v>3.61E-2</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="35">
         <v>-2.3999999999999998E-3</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="35">
         <v>2.9100000000000001E-2</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="35">
         <v>2.7300000000000001E-2</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="35">
         <v>6.4199999999999993E-2</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="35">
         <v>1.26E-2</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="35">
         <v>4.7699999999999999E-2</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="35">
         <v>4.9299999999999997E-2</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="35">
         <v>7.4800000000000005E-2</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="35">
         <v>-1.24E-2</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="35">
         <v>7.1900000000000006E-2</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="35">
         <v>2.3199999999999998E-2</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="35">
         <v>9.5799999999999996E-2</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="35">
         <v>6.54E-2</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="35">
         <v>5.0599999999999999E-2</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D17" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="35">
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="35">
         <v>9.8699999999999996E-2</v>
       </c>
-      <c r="D18" s="37">
+      <c r="D18" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="35">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="35">
         <v>8.8499999999999995E-2</v>
       </c>
-      <c r="D19" s="37">
+      <c r="D19" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="35">
         <v>-1.0200000000000001E-2</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="35">
         <v>4.9399999999999999E-2</v>
       </c>
-      <c r="D20" s="37">
+      <c r="D20" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="36">
+      <c r="B21" s="35">
         <v>-3.8899999999999997E-2</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="35">
         <v>6.93E-2</v>
       </c>
-      <c r="D21" s="37">
+      <c r="D21" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="36">
+      <c r="B22" s="35">
         <v>-7.5300000000000006E-2</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="35">
         <v>0.16170000000000001</v>
       </c>
-      <c r="D22" s="37">
+      <c r="D22" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="35">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="C23" s="36">
+      <c r="C23" s="35">
         <v>1.54E-2</v>
       </c>
-      <c r="D23" s="37">
+      <c r="D23" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="36">
+      <c r="B24" s="35">
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="C24" s="36">
+      <c r="C24" s="35">
         <v>2.93E-2</v>
       </c>
-      <c r="D24" s="37">
+      <c r="D24" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="36">
+      <c r="B25" s="35">
         <v>-0.27679999999999999</v>
       </c>
-      <c r="C25" s="36">
+      <c r="C25" s="35">
         <v>0.53149999999999997</v>
       </c>
-      <c r="D25" s="37">
+      <c r="D25" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="36">
+      <c r="B26" s="35">
         <v>-0.1343</v>
       </c>
-      <c r="C26" s="36">
+      <c r="C26" s="35">
         <v>3.0300000000000001E-2</v>
       </c>
-      <c r="D26" s="37">
+      <c r="D26" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="36">
+      <c r="B27" s="35">
         <v>3.9E-2</v>
       </c>
-      <c r="C27" s="36">
+      <c r="C27" s="35">
         <v>6.25E-2</v>
       </c>
-      <c r="D27" s="37">
+      <c r="D27" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="36">
+      <c r="B28" s="35">
         <v>-9.5999999999999992E-3</v>
       </c>
-      <c r="C28" s="36">
+      <c r="C28" s="35">
         <v>3.5799999999999998E-2</v>
       </c>
-      <c r="D28" s="37">
+      <c r="D28" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="36">
+      <c r="B29" s="35">
         <v>-3.6499999999999998E-2</v>
       </c>
-      <c r="C29" s="36">
+      <c r="C29" s="35">
         <v>3.49E-2</v>
       </c>
-      <c r="D29" s="37">
+      <c r="D29" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="36">
+      <c r="B30" s="35">
         <v>-7.0999999999999994E-2</v>
       </c>
-      <c r="C30" s="36">
+      <c r="C30" s="35">
         <v>0.14430000000000001</v>
       </c>
-      <c r="D30" s="37">
+      <c r="D30" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="36">
+      <c r="B31" s="35">
         <v>-5.6500000000000002E-2</v>
       </c>
-      <c r="C31" s="36">
+      <c r="C31" s="35">
         <v>5.8200000000000002E-2</v>
       </c>
-      <c r="D31" s="37">
+      <c r="D31" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="36">
+      <c r="B32" s="35">
         <v>-6.5600000000000006E-2</v>
       </c>
-      <c r="C32" s="36">
+      <c r="C32" s="35">
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="D32" s="37">
+      <c r="D32" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="36">
+      <c r="B33" s="35">
         <v>-2E-3</v>
       </c>
-      <c r="C33" s="36">
+      <c r="C33" s="35">
         <v>4.3499999999999997E-2</v>
       </c>
-      <c r="D33" s="37">
+      <c r="D33" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="36">
+      <c r="B34" s="35">
         <v>-1.15E-2</v>
       </c>
-      <c r="C34" s="36">
+      <c r="C34" s="35">
         <v>8.0299999999999996E-2</v>
       </c>
-      <c r="D34" s="37">
+      <c r="D34" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="36">
+      <c r="B35" s="35">
         <v>-7.3000000000000001E-3</v>
       </c>
-      <c r="C35" s="36">
+      <c r="C35" s="35">
         <v>5.21E-2</v>
       </c>
-      <c r="D35" s="37">
+      <c r="D35" s="36">
         <v>0</v>
       </c>
     </row>

--- a/data/data_true.xlsx
+++ b/data/data_true.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nanda\Documents\Erwin\My Working\Code Programming\GitHub\fhas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A69AF4F-C279-49B3-AB6F-2E8C133E6F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19C9EA6-9D60-49E5-AD79-AC40DE760B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="10577" tabRatio="763" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="10577" tabRatio="763" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pendapatan_per_Kapita_per_bulan" sheetId="7" r:id="rId1"/>
@@ -5561,7 +5561,7 @@
   </sheetPr>
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -8443,20 +8443,21 @@
   </sheetPr>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.69140625" customWidth="1"/>
-    <col min="2" max="2" width="13.84375" customWidth="1"/>
-    <col min="3" max="3" width="13.4609375" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="1" max="1" width="16.69140625" style="36" customWidth="1"/>
+    <col min="2" max="2" width="13.84375" style="36" customWidth="1"/>
+    <col min="3" max="3" width="13.4609375" style="36" customWidth="1"/>
+    <col min="4" max="4" width="13" style="36" customWidth="1"/>
+    <col min="6" max="6" width="10.765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="21">
@@ -8479,8 +8480,8 @@
       <c r="C2" s="19">
         <v>0.7985698</v>
       </c>
-      <c r="D2" s="19">
-        <v>0</v>
+      <c r="D2" s="36">
+        <v>0.56240199999999996</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -8493,8 +8494,8 @@
       <c r="C3" s="19">
         <v>0.54308100000000004</v>
       </c>
-      <c r="D3" s="19">
-        <v>0</v>
+      <c r="D3" s="36">
+        <v>0.77397199999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -8507,8 +8508,8 @@
       <c r="C4" s="19">
         <v>0.62549270000000001</v>
       </c>
-      <c r="D4" s="19">
-        <v>0</v>
+      <c r="D4" s="36">
+        <v>0.72987400000000002</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -8521,8 +8522,8 @@
       <c r="C5" s="19">
         <v>0.49425770000000002</v>
       </c>
-      <c r="D5" s="19">
-        <v>0</v>
+      <c r="D5" s="36">
+        <v>0.69532499999999997</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -8535,8 +8536,8 @@
       <c r="C6" s="19">
         <v>1</v>
       </c>
-      <c r="D6" s="19">
-        <v>0</v>
+      <c r="D6" s="36">
+        <v>0.82651799999999997</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -8549,8 +8550,8 @@
       <c r="C7" s="19">
         <v>0.46406370000000002</v>
       </c>
-      <c r="D7" s="19">
-        <v>0</v>
+      <c r="D7" s="36">
+        <v>0.320994</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -8563,8 +8564,8 @@
       <c r="C8" s="19">
         <v>1</v>
       </c>
-      <c r="D8" s="19">
-        <v>0</v>
+      <c r="D8" s="36">
+        <v>1.0043489999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -8577,8 +8578,8 @@
       <c r="C9" s="19">
         <v>0.37127100000000002</v>
       </c>
-      <c r="D9" s="19">
-        <v>0</v>
+      <c r="D9" s="36">
+        <v>0.67629799999999995</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -8591,8 +8592,8 @@
       <c r="C10" s="19">
         <v>0.425813</v>
       </c>
-      <c r="D10" s="19">
-        <v>0</v>
+      <c r="D10" s="36">
+        <v>0.52755099999999999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -8605,8 +8606,8 @@
       <c r="C11" s="19">
         <v>0.64465300000000003</v>
       </c>
-      <c r="D11" s="19">
-        <v>0</v>
+      <c r="D11" s="36">
+        <v>0.47164800000000001</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -8619,8 +8620,8 @@
       <c r="C12" s="19">
         <v>0.61665879999999995</v>
       </c>
-      <c r="D12" s="19">
-        <v>0</v>
+      <c r="D12" s="36">
+        <v>0.292184</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -8633,8 +8634,8 @@
       <c r="C13" s="19">
         <v>0.87428220000000001</v>
       </c>
-      <c r="D13" s="19">
-        <v>0</v>
+      <c r="D13" s="36">
+        <v>0.65614600000000001</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
@@ -8647,8 +8648,8 @@
       <c r="C14" s="19">
         <v>0.49107000000000001</v>
       </c>
-      <c r="D14" s="19">
-        <v>0</v>
+      <c r="D14" s="36">
+        <v>0.55901400000000001</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -8661,8 +8662,8 @@
       <c r="C15" s="19">
         <v>0.4801878</v>
       </c>
-      <c r="D15" s="19">
-        <v>0</v>
+      <c r="D15" s="36">
+        <v>0.72114599999999995</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
@@ -8675,8 +8676,8 @@
       <c r="C16" s="19">
         <v>0.45772930000000001</v>
       </c>
-      <c r="D16" s="19">
-        <v>0</v>
+      <c r="D16" s="36">
+        <v>0.58184000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -8689,8 +8690,8 @@
       <c r="C17" s="19">
         <v>1</v>
       </c>
-      <c r="D17" s="19">
-        <v>0</v>
+      <c r="D17" s="36">
+        <v>0.79701900000000003</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -8703,8 +8704,8 @@
       <c r="C18" s="19">
         <v>1</v>
       </c>
-      <c r="D18" s="19">
-        <v>0</v>
+      <c r="D18" s="36">
+        <v>0.84376700000000004</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -8717,8 +8718,8 @@
       <c r="C19" s="19">
         <v>1</v>
       </c>
-      <c r="D19" s="19">
-        <v>0</v>
+      <c r="D19" s="36">
+        <v>0.72499100000000005</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -8731,8 +8732,8 @@
       <c r="C20" s="19">
         <v>0.60056169999999998</v>
       </c>
-      <c r="D20" s="19">
-        <v>0</v>
+      <c r="D20" s="36">
+        <v>0.78046000000000004</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -8745,8 +8746,8 @@
       <c r="C21" s="19">
         <v>1</v>
       </c>
-      <c r="D21" s="19">
-        <v>0</v>
+      <c r="D21" s="36">
+        <v>0.87669900000000001</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -8759,8 +8760,8 @@
       <c r="C22" s="19">
         <v>1</v>
       </c>
-      <c r="D22" s="19">
-        <v>0</v>
+      <c r="D22" s="36">
+        <v>0.69315499999999997</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -8773,8 +8774,8 @@
       <c r="C23" s="19">
         <v>1</v>
       </c>
-      <c r="D23" s="19">
-        <v>0</v>
+      <c r="D23" s="36">
+        <v>0.67915199999999998</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
@@ -8787,8 +8788,8 @@
       <c r="C24" s="19">
         <v>1</v>
       </c>
-      <c r="D24" s="19">
-        <v>0</v>
+      <c r="D24" s="36">
+        <v>0.719495</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
@@ -8801,8 +8802,8 @@
       <c r="C25" s="19">
         <v>1</v>
       </c>
-      <c r="D25" s="19">
-        <v>0</v>
+      <c r="D25" s="36">
+        <v>1.0618479999999999</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
@@ -8815,8 +8816,8 @@
       <c r="C26" s="19">
         <v>1</v>
       </c>
-      <c r="D26" s="19">
-        <v>0</v>
+      <c r="D26" s="36">
+        <v>1.103461</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
@@ -8829,8 +8830,8 @@
       <c r="C27" s="19">
         <v>0.60881969999999996</v>
       </c>
-      <c r="D27" s="19">
-        <v>0</v>
+      <c r="D27" s="36">
+        <v>0.60872499999999996</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -8843,8 +8844,8 @@
       <c r="C28" s="19">
         <v>0.63199899999999998</v>
       </c>
-      <c r="D28" s="19">
-        <v>0</v>
+      <c r="D28" s="36">
+        <v>0.88644999999999996</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -8857,8 +8858,8 @@
       <c r="C29" s="19">
         <v>0.1327132</v>
       </c>
-      <c r="D29" s="19">
-        <v>0</v>
+      <c r="D29" s="36">
+        <v>0.722611</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
@@ -8871,8 +8872,8 @@
       <c r="C30" s="19">
         <v>0.79600099999999996</v>
       </c>
-      <c r="D30" s="19">
-        <v>0</v>
+      <c r="D30" s="36">
+        <v>0.89044699999999999</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
@@ -8885,8 +8886,8 @@
       <c r="C31" s="19">
         <v>0.79324930000000005</v>
       </c>
-      <c r="D31" s="19">
-        <v>0</v>
+      <c r="D31" s="36">
+        <v>0.85512500000000002</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -8899,8 +8900,8 @@
       <c r="C32" s="19">
         <v>0.53481999999999996</v>
       </c>
-      <c r="D32" s="19">
-        <v>0</v>
+      <c r="D32" s="36">
+        <v>1.031406</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -8913,8 +8914,8 @@
       <c r="C33" s="19">
         <v>0.51696540000000002</v>
       </c>
-      <c r="D33" s="19">
-        <v>0</v>
+      <c r="D33" s="36">
+        <v>0.729491</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
@@ -8927,8 +8928,8 @@
       <c r="C34" s="19">
         <v>1</v>
       </c>
-      <c r="D34" s="19">
-        <v>0</v>
+      <c r="D34" s="36">
+        <v>0.73955300000000002</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
@@ -8941,8 +8942,8 @@
       <c r="C35" s="19">
         <v>0.66026560000000001</v>
       </c>
-      <c r="D35" s="19">
-        <v>0</v>
+      <c r="D35" s="36">
+        <v>0.812967</v>
       </c>
     </row>
   </sheetData>
